--- a/systems/supertext/uploaded_files/rm-sutsilv.xlsx
+++ b/systems/supertext/uploaded_files/rm-sutsilv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/java/Documents/romansh/reference-translations/supertext_input_v2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/java/Documents/romansh/reference-translations/supertext_input_v2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C8473-DFBB-BA4F-B8E7-40EFB7ADB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D2EA8-4EA1-EF43-86CB-36CFD8DAC90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5800" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="959">
   <si>
     <t>translation</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Igl Celest e igl artg da corupziùn favoriso "digl pintg a bùn gioi da freeware, tier igl grànd gioi comerzial zuflo sei cun egna grafica nungetg detaglieada", parquegl agl original e igl double dash egn power-up sainza context an egna truca da stgazis ad an que gioi comerzial sto jou bargir parve dad el.</t>
   </si>
   <si>
-    <t>An general ple a mei l'interacziùn digls dus giois fetg bagn. Igl avantatgs da las istorgias curtas e c'ign sa "saglir tier la bùna part". Quegl sa easser ple interessànt a cuntantevel. Igl avantatg da las istorgias lùngas e c'ign sa dar agls elemaints d'acziùn egna pesa emoziunala blear ple grànda. Igl capeta dantànt betga imediat anzatge, parsuainter survean ign ear daple.</t>
-  </si>
-  <si>
     <t>Igl punct culminànt da Celest, igl gioi comerzial, e atgnameing me igl gioi Pico-8, a quel e zuflo sei cun egna construcziùn mecanica a narativa da pliras uras, ascheia c'el vean ànc blear blear ple greav. Igl Celest e aschi losch sen igl sieus gioi parent, c'el aschùnta adigna puspe referenzas sco igl monumaint, la progressiùn da "2000 M... 2500 M...", igl power-up, la bandiera sura. Ign sa giujear igl gioi original directameing sen igl monitur da start!</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Igl fuss sto pussevel da svilupar trànter las duas versiùns ànc egn'ulteriura variànt miez lùnga ca raquenta la madema istorgia a moda extendida ad expressiva, dantànt cun egna durada ple curta a cun valurs da producziùn mains naras. Jou creg, ca quegl fuss sto la mia variànta preferida, scodangir sco artg da tensiùn emoziunal. Anstagl da quegl e igl artg da tensiùn prinzipal far giujeaders singuls me egna pintga part da quel. Surtut less el easser egn grànd plaz da giujear par la fisica da platafurmas la ple populara digl mund, quegl c'e tenor igl mieus meni ànc adigna an urden.</t>
   </si>
   <si>
-    <t>Probablameing stuess jou ancurir egn job, mo jou sund megna marsch. Angascha me imediat. Jou bev davent tut tia gervosa.</t>
-  </si>
-  <si>
     <t>Betga exnum matsch, mo stàncel, schizund suainter egn tains aschi lùng.</t>
   </si>
   <si>
@@ -119,30 +113,9 @@
     <t>Davent da pliras uras vean bagliafo an tut las novitads davart l'interrupziùn, mo la pagina da status da ATT&amp;T pretenda ànc adigna, c'igl deti nigna. La ple plàna pagina da status c'jou ve vieu.</t>
   </si>
   <si>
-    <t>user9 Jou s'ampear, scha quegl â da far anzatge cun SLAs. Sch'egna interpresa e obligada cun contract da porscher egna fidevladad da 99,999 % near scheia anzatge, sa ella lura sabagliafar or davart igl tains d'interrupziùn cun pratender dad ànc betga ver verifitgieu quegl (intern). Sco scha l'actualisaziùn da lur pagina da status statica fuss egna confessiùn da culpa? Forza sund jou ear me paranoid/zinic.</t>
-  </si>
-  <si>
-    <t>user10 Quegl fa sen</t>
-  </si>
-  <si>
     <t>Jou ve duvro antocen ussa me tier egn'operaziùn egna narcosa cumplagna. Quegl e sto egn'intervenziùn neurocirurgica "pintga" par dar daple spazi agl mieus tscharvi, parquegl c'jou sund naschida cun egna malzogna c'â fatg sintoms suainter c'jou ve gieu unfànts (malfurmaziùn da Chiari). Igl mumaint, cur c'jou sund dasdada, ve jou mai amblido a passaint el adigna puspe ampo, scha jou vard emissiùns da madaschegna, surtut talas cun egn neurocirurg. La playlist digl spital ve jou gea gitg sen la mia glista ad ella ple a mei agl mumaint fetg bagn. #kdrama</t>
   </si>
   <si>
-    <t>Igl mieus cirurg partratga propi veda tut. El â telefono a mei igl gi avànt, parquegl c'igl dueva vagnir a sbischar, a cur c'igl team da tgira â s'ocupo cun me igl mumaint c'jou sund vagnida alearta da la narcosa an la stànza da sadasdar, â igl mieus cirurg realiso c'jou ve aviert igls îls a la fascha eara avànt igls meas îls. Jou maneg tut quegl, plus ànc far l'operaziùn. Mo tutegna eara quegl confus. Quegl e sto egna da las tgossas c'â fatg a mei la ple grànda sgarschur. Jou ve durmieu a gea e'gl sto passo.</t>
-  </si>
-  <si>
-    <t>Jou ve gieu la mia perioda, mo ve stuieu satrer or. Parquegl ân els do a mei quella vastgadira sutaint da ret c'ign porta suainter quegl c'ign â parturieu. Mo an la sala d'operaziùn sto ign satrer or cumpletameing ad ign vean curvato cun egna tela. Anzacuras, avànt c'jou sund vagnida alearta, â alura egna tgirùnza curtasevla mido a mei la vastgadira sutaint. Oter ca durànt las naschientschas, noua c'jou sund stada alearta a ve survagnieu agid, near sco popa, â ànc nign fatg anzatge aschi privat par me. Quegl e ear sto la suleta geada sen la staziùn intensiva. Jou ve stuieu ir sen la staziùn intensiva sco masira preventiva, parve da la sort d'operaziùn.</t>
-  </si>
-  <si>
-    <t>Jou ve stuieu pussar blear parve da la mi'operaziùn, peia ve jou vurdo las staflas 1-3 da Grey's Anatomy. A mei â gido c'igl McDreamy eara egn neurocirurg. Jou ve fatg stem co c'igl pazient e vagnieu posiziuno, par saver s'imaginar tge c'e capito cun me. Davent da la mi'operaziùn igl on 2018 â la Hospital Playlist musso daple davart neurocirurgia ca mintg'otra emissiùn da madaschegna c'jou ve vieu davent da Grey's. Quànt bi c'igl dat l'art ad igl divertimaint par dar egn sen a la nossa veta.</t>
-  </si>
-  <si>
-    <t>user32 Graztga a la Hospital Playlist savess jou transplantar egn dir.</t>
-  </si>
-  <si>
-    <t>user33 Wow!</t>
-  </si>
-  <si>
     <t>Jou partratg blear veda quegl c'igls milenials en stos la davosa generaziùn c'â savieu biagear sei relaziùns cun artistas ad artists, sainza c'ign spitgeva dad els da vaser quels ear an egna moda critica.</t>
   </si>
   <si>
@@ -173,12 +146,6 @@
     <t>Nus vagn repetieu quels vearsets a vagn tartgieu c'igls blears capeschian schon els.</t>
   </si>
   <si>
-    <t>Oz sa ign betga partir digl fatg ca mintgegna a mintgegn capeschi anzatge, schizund sch'igl sadarasa an moda virala.</t>
-  </si>
-  <si>
-    <t>Igl dat blear megna blear ad igl dat nigna pussevladad da sistematisar quegl. Scha nus vagnan anzuma puspe or da quella stuftgantada?</t>
-  </si>
-  <si>
     <t>Nus eassan tgapos an egn tschercel da giavels ca sforza nus da scuvrir adigna puspe novs cuntegns, me par realisar c'igl artist e or segls raps near egn ipocrit.</t>
   </si>
   <si>
@@ -269,9 +236,6 @@
     <t>Anavos tier cash, nigna marge ple.</t>
   </si>
   <si>
-    <t>Fagiainsa saro igl satg par l'amprema eanda digl on nov</t>
-  </si>
-  <si>
     <t>Ussa fe schon nok, 3,74 $, los.</t>
   </si>
   <si>
@@ -296,57 +260,24 @@
     <t>2. Duvrar il model cun las secziùns</t>
   </si>
   <si>
-    <t>user23 Ea. Igl problem e, ca la suczessiùn visuala (quegl c'igl utilisader veza) corespunda betga a la suczessiùn DOM. Igl fuss nizevel da ver egna funcziùn da HTML ca lubescha da betga streamar egna sequenza suainter l'otra, mo igl navigatur ordinass igl cuntegn suainter a la suczessiùn DOM.</t>
-  </si>
-  <si>
     <t>Mo l'ideia cugls slots para dad easser bùna. Jou amprov quegl.</t>
   </si>
   <si>
-    <t>user22 oh, vol tei, c'igl navigatur curegi la suczessiùn DOM?</t>
-  </si>
-  <si>
-    <t>user23 Ea, quegl e l'ideia. La secziùn 7 vagness streamada sco amprem, par c'igl utilisader sa vurdar el aschi speart sco pussevel. Scha quegl nass sainza influenzar la suczessiùn DOM, fuss quegl bien, lura procurass igl navigatur ca la suczessiùn DOM resulada corespundi a la suczessiùn visuala.</t>
-  </si>
-  <si>
-    <t>Peia de la secziùn 7 vagnir streamada sco amprem, mo igl resultat final de vaser or ascheia, sco scha tut las secziùns fussan vagnidas streamadas egna suainter l'otra</t>
-  </si>
-  <si>
-    <t>user22 user23 Varda egn'eada PHOOOS sainza JS: https://github.com/niutech/phooos</t>
-  </si>
-  <si>
     <t>s'amprov da far miniaturas</t>
   </si>
   <si>
     <t>ve fatg nov igl tgieu!</t>
   </si>
   <si>
-    <t>ve gieu blear plascher cun kneadatite (quella roba verda), igl e sco da modellar cun schlogns, mo ign sadisa veda quegl, ad igl e lom a flexibel cur c'igl vean diir</t>
-  </si>
-  <si>
     <t>ànc daple roba miniatura</t>
   </si>
   <si>
     <t>M&amp;M verd anatomicameing corect</t>
   </si>
   <si>
-    <t>user26 Ad aschi frestga. Jou ve bugent ELLA*</t>
-  </si>
-  <si>
-    <t>user27 hehe graztga user26</t>
-  </si>
-  <si>
-    <t>OK, suainter igl proxim video vignan igls tetgers ad easser noschs sen me, mo igl e betga par els! Igl e par te - a bagn, scha tei s'odas tier quels, ca san betga prastar egn tetger, lura stos tei vurdar que video. Là vezas tei, co ca tei sas biagear sez egna cuvrida sur egn tetg vigl, c'e gea existaint. Igl e fetg sempel: Egn sistem, c'ign sa semplameing trer giou a tatgear landervei.</t>
-  </si>
-  <si>
-    <t>Suainter ver ligieu tras quegl, paran tschearts digls proxims cumbats d'easser diira lavur. Atgnameing vi jou me ir ampo a spassagear a rimnar mintgatànt egn peer bulieus.</t>
-  </si>
-  <si>
     <t>Igl e uras par la tschantada sen la Gliegna (ànc zirca egn'ura) https://plus.nasa.gov/scheduled-video/intuitive-machines-1-lunar-landing/</t>
   </si>
   <si>
-    <t>Quel ca atarescha â zirca la gràndeztga d'egna viglia cabina da telefon anglesa ...</t>
-  </si>
-  <si>
     <t>Ànc 3 minutas …</t>
   </si>
   <si>
@@ -368,12 +299,6 @@
     <t>Igl e egn absolut problem da nischa, mo sch'ign less construir/parsunalisar figuras da roboter, va'gl dantànt propi sen la gnearva c'ign STO construir anzatge c'e fatg par la gueara a par mazar.</t>
   </si>
   <si>
-    <t>Sco agls ons nula. Lura dev'igl Bionivles. Quegl eara atgnameing avanturiers/heroxs cun forzas fetg elementaras a cun parsunalitads a hobis diferaints ad ascheia, mo avànt a suainter â'gl do me ple da quegl sco Warhammer, Gundam, Battletech, noua ca tut e conzepieu par easser egn'arma a vean inszeno n las medias acumpagnàntas an egna moda cumpletameing betg nezessaria.</t>
-  </si>
-  <si>
-    <t>E cler, quellas otras funtànas SAN ca "la gueara e noscha", mo lura vendan ellas anavànt maschinas da mazar sco figuras merchandising. Tge lagn nus peia far?</t>
-  </si>
-  <si>
     <t>La schleiaziùn e tanor me da separar trànter lur cumparsa a quel intent fictiv, sco ign fa quegl ear agl mund real cun panzers a jets, mo igl mieus tscharvi â FADEIA cun quegl.</t>
   </si>
   <si>
@@ -383,48 +308,21 @@
     <t>Quegl â probablameing da far par grànda part cugl fatg c'igls tarmagls par buabs ân bunameing adigna da far anzatge cun violenza, sco p.ex. GI Joe a Transformers, mo lainsa easser sinzers, nus eassan agl on curaint.</t>
   </si>
   <si>
-    <t xml:space="preserve"> @user24 Jau salegr gea da vaser la famiglia da roboters pazifistica da Berry squitschada an 3 D ;)</t>
-  </si>
-  <si>
     <t>@user25 Oooh, quegl e l'ideia, an mintga cass, aschispeart c'jou ve igls skills par far quegl.</t>
   </si>
   <si>
-    <t>La mia duna â lieu quegl sco punct da partenza. Sainza antrar qua megna fetg an la profunditad, mo ella creg c'anzaquànts digls seas antenats segian atgnameing betga igls seas antenats, Jou less sustaner ella a vaser igl efect d'egn drift genetic a basa d'egna pintga amprova da controlla. Nus savagn detg blear da nossa famiglia</t>
-  </si>
-  <si>
-    <t>Forza dat igl propi egn near l'oter an mia famiglia c'e sto malfidevel, mo sch'ign risguarda las mias rischs familiaras, par grànda part povras, en tut las aferas probablamieng suczididas an vischnàncas par grànda part homogenas, an martgieus pintgs a ghettos etnics, lol.</t>
-  </si>
-  <si>
-    <t>La mia tata â banduno igl sieus um par igl frar da quel, a jou ve egn suroc da l'otra vart da la famiglia ca â banduno la sia duna par l'onda da quella. La mia famiglia va forza spassagiànd, mo propi lientsch vean ella betga.</t>
-  </si>
-  <si>
     <t>Ad ussa â mia duna schleata luna, parquegl ca la mi' "extracziùn" e ida blear ple speart ca spitgieu. Jou stund mal, forza stuess igl sieus genom betga saschar suplitgear ascheia.</t>
   </si>
   <si>
-    <t>Igls resultads en qua ad - tùns da schumbers - els corespundan perfectameing a la mi'istorgia da famiglia. 89,9 % Britanic ad Irlandes, igls blears conzentros an la regiùn digls Scottish Borders, agl ost da l'Irlanda, Wales a Cornwall. Igl â dantànt betga blear breton, forza parquegl c'igl e u aschi datier da Cornwall c'igl salascha betga disfranztgear tier me near ca mia famiglia bretonica deriva betga da là.</t>
-  </si>
-  <si>
     <t>Siànd anturn 40, ve jou fatg ampo quitos c'igl savess dar unfànts, digls quals c'jou se nut. Antocen ussa â me egn digls meas cusregns banduno igls seas unfànts (forza).</t>
   </si>
   <si>
     <t>Fuck you, retg Ludivic XIV, egn digls teas dezendents e egn anarcist!</t>
   </si>
   <si>
-    <t>Egn anarcist cunfesso agl qual c'igl e cumpletameing tutegna da tàner secret sia identitad, dat la sia DNA ad egna firma da biotechnologeia par survagnir egna survesta dubitevla da la sia "derivànza". Tge sa peia ir an las tgòltschas?</t>
-  </si>
-  <si>
-    <t>Duna cumplitgeada: Ussa, cugl test da DANN, veans tei peia a sareferir a las tias parts scotas ad irlandesas?</t>
-  </si>
-  <si>
-    <t>Jou, an egn kilt cun quaders da Johnston a ligiànd la "Elders of Ireland": Na, quegl nass betga anzemel cun la mia veta.</t>
-  </si>
-  <si>
     <t>*Igl gi da lavar port jou normalmeing tgòltschas curtas da basket par scher ampo anturn.</t>
   </si>
   <si>
-    <t>Hoi a tuts. Ussa vurdad egn'eada: Jou ve ànc gnànc maglieu avùnda, da schubargear la mia buca, mo jou gitg a vus, a mei cura l'aua an buca. Vus savez, tge c'jou maneg? Jou se prest betga spitgear. Par plascher scrived sut, tge ca vus fagessas. Tge verdira servassas vus cun quegl? Betga amblidar, c'igl degi easser egn damagliear bumartgieu, ok? Ussa dearsch jou semplameing ampo da que Kool-Aid d'ieuvas agl mieus magiel. Oh ea!</t>
-  </si>
-  <si>
     <t>*la schalantera</t>
   </si>
   <si>
@@ -461,24 +359,15 @@
     <t>Tains da sarecrear â ign sco academicer darar, mo an quels mumaints c'ign sea betga ved igl pult â ign las miglras ideias. 💭</t>
   </si>
   <si>
-    <t>Sasfurzar ple fetg da publitgear daple magna betga adigna a miglers resultats. Ign dastga betga amblidar da sarecrear, sch'ign less davantar egn miglier szienzio.</t>
-  </si>
-  <si>
     <t>Ascheia tgarg jou puspe las mias batareias.</t>
   </si>
   <si>
     <t>Nizegia amaduas measadads digl tscharvi. 🧠</t>
   </si>
   <si>
-    <t>Sco szienzio nizagiagn nus an general la vart analitica digl noss tscharvi. Mo sch'jou nizeg la vart creativa (p.ex. Par sunar ghitara, malagear, etc.) ad ear la vart analitica digl mieus tscharvi, ve jou l'impressiùn da ver augmento las mias capazitads mentalas. Ascheia samigluresch jou an amadus secturs.</t>
-  </si>
-  <si>
     <t>Trenar las musclas, betga me igl tgieu. 💪</t>
   </si>
   <si>
-    <t>Sport e betga me anzatge par triatlets futurs near glieud ca less vaser or miglier. Sport miglurescha ear la qualitad da viver. Igls partratgs, igl stadi d'anim, la productivitad: tut e collieu. Far egn'eada egna pausa a s'alontanar digl pult renda igl tains vid ved igl pult blear ple productiv.</t>
-  </si>
-  <si>
     <t>Lubientscha da relaxar. 📺</t>
   </si>
   <si>
@@ -503,15 +392,9 @@
     <t>Igl mieus frar e sto qua ad â prieu ordapar tut a jou stosch adigna puspe or igl mumaint da meter anzemel puspe tut.</t>
   </si>
   <si>
-    <t>E va sen la gnearva.</t>
-  </si>
-  <si>
     <t>Mo, wow! Igl vastgieu da protecziùn Tyvek … super dezisiùn. Malgro c'jou ve gieu caliras a ve suo ad igl e sto tut an tut detg malamparnevel, e'gl bagn miglier ca tut la mearda tatga ussa veda que vastgieu a betga veda me.</t>
   </si>
   <si>
-    <t>Ussa vignt jou sco proxim matem ad angravar egna lingia agl palantschieu sura a trer surangiou tut a lura meter sei la nova aschi speart sco pussevel.</t>
-  </si>
-  <si>
     <t>#DIY #RenovarDatgea</t>
   </si>
   <si>
@@ -521,9 +404,6 @@
     <t>@user16 Buah, la fibra da veder sadarasa dapartut! Grandiusa ideia cugl vastgieu da pictur. Sto jou taner andamaint!</t>
   </si>
   <si>
-    <t>Jou creg c'el â custo 18 dollars, mo sch'ign varda tge ca vess tut savieu tatgear veda me, â'gl an mintga cass valieu la fadeia.</t>
-  </si>
-  <si>
     <t>Ad egna mascra … stuessas tei ear duvrar. Propi!</t>
   </si>
   <si>
@@ -533,9 +413,6 @@
     <t>Jou sund clerameing par vastgadira da protecziùn!</t>
   </si>
   <si>
-    <t>Partge cignan las coordinatas da GPS arundadas sen igl proxim grad antier? Quegl fa absolutameing nign sen.</t>
-  </si>
-  <si>
     <t>Parquegl c'igl satracta d'egn vectur da diembers raziunals.</t>
   </si>
   <si>
@@ -548,9 +425,6 @@
     <t>Quegl ve jou betga bugent.</t>
   </si>
   <si>
-    <t>@user29 @user30.engineer Oh Dieu, dat igl propi parsùnas ca drovan quegl ordeinfer l'instrucziùn da trigonometreia?</t>
-  </si>
-  <si>
     <t>@user31 jou ve duvro quegl gnànc egn'eada durànt l'antiera instrucziùn da trigonometreia a la highschool, tànt sco jou se saragurdar.</t>
   </si>
   <si>
@@ -578,9 +452,6 @@
     <t>@user38 Ve jou udieu ca que essai segi bùn, a quegl e el ear.</t>
   </si>
   <si>
-    <t>@user39 Jou ve gest par casualitad scuviert igl sieus essai d'avànt egn tains, cur c'ella â partizipo a debatas, a jou sto gir ca quel exprima clerameing partge c'jou ve egna tenuta negativa anviers egna tschearta furma da podcasts ca vignan cunsideros sco pilasters da la 'discussiùn informativa'</t>
-  </si>
-  <si>
     <t>Forza e egn objectiv fisheye ampo surfatg par egna stgafeta da cuar.</t>
   </si>
   <si>
@@ -614,42 +485,21 @@
     <t>Senzum e egna da quellas platas da camera ESP32 cun egna camera cun egn objectiv fisheye ad egna IR-LED c'jou ve prieu or d'egna camera Raspberry Pi.</t>
   </si>
   <si>
-    <t>Igl motiv par la furma curiosa da la cista da plastic e la vart laterala girabla da la stgafa da cuar. Jou ve cumpro ella schia a ve betga savieu modifitgear ella, ascheia c'jou ve stueiu construir tut anturn quella.</t>
-  </si>
-  <si>
     <t>Cunquegl c'igl â nign'electrizitad agl iert, vean tut alimento d'egn panel solar a d'egna zela 18650 da 2600 mAh.</t>
   </si>
   <si>
     <t>Jou ve fotografo ni la zela ni igl cargeader, mo qua e egn maletg digl panel.</t>
   </si>
   <si>
-    <t>An la cista grischa ca palenda da la vart da la stgafa da cuar, satgata la bataeria.</t>
-  </si>
-  <si>
     <t>Cur c'ella e cargeada, ve jou egn tains da funcziùn da zirca 4 uras.</t>
   </si>
   <si>
-    <t>Wuegl e egn'eada egn feature sco'gl s'oda. Quel dat ear agls utscheals ampo sfera privata.</t>
-  </si>
-  <si>
-    <t>A l'antscheata sund jou betga sto siir, sch'igl internet agl noss iert tanschi par quel'instalaziùn. Igls vigls puncts d'aczess c'jou ve remplazo igl atùn igl on passo vessan betga tanschieu.</t>
-  </si>
-  <si>
     <t>Mo igls novs cuvieran fetg bagn quella part.</t>
   </si>
   <si>
     <t>Quegl e bunameing don, parquegl c'jou ve gieu l'intenziùn d'instalar segl tetg egn TP-Link cpe210 a drizar quel angiou viers igl iert.</t>
   </si>
   <si>
-    <t>Forza fetsch jou quegl ànc, cur c'jou/sch'jou montesch ulteriuras stgafas da cuar cun cameras. Probablameing drov jou quegl par las parts c'en ple lientsch davent da la tgea.</t>
-  </si>
-  <si>
-    <t>ussa e la camera offline a jou se betga partge. Ella e satschantada giou me egn'ura suainter c'igl sulegl e ieu da randieu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forza â la batareia betga ple cargieu anavànt tres uras avànt c'igl sulegl e ieu da randieu, parquegl c'igl veva betga glisch avùnda. </t>
-  </si>
-  <si>
     <t>Near ampo ple poc c'egn miez gi e sto megna poc par cargear la batareia digl tutafatg.</t>
   </si>
   <si>
@@ -665,15 +515,9 @@
     <t>A forza egna batareia c'e seglmains teoreticameing agl cass da taner aint funcziùn tut sur notg.</t>
   </si>
   <si>
-    <t>Ah ea,, ad egn oter objectiv.</t>
-  </si>
-  <si>
     <t>Fisheye e detg surfatg.</t>
   </si>
   <si>
-    <t>Mo jou sund gea a la tscheartga da tocs tier Digikey, par quegl setgi construir egn'atgna plata exactameing par que cass.</t>
-  </si>
-  <si>
     <t>Near ear betga. Nus vasagn.</t>
   </si>
   <si>
@@ -695,9 +539,6 @@
     <t>Igl e gea ear betga me sempel.</t>
   </si>
   <si>
-    <t>Igl â samusso ca 5 V a GND earan baratos segl silkscreen digl breakout USB-C c'jou ve duvro par colliear cun igl tgargiabatareias.</t>
-  </si>
-  <si>
     <t>Jou ve barato igls cabels ad ussa glischa igl indicatur da cargear.</t>
   </si>
   <si>
@@ -719,9 +560,6 @@
     <t>Egn panel da 24V. Deplorablameing e igl sulegl gea aschi bass (ad e par part cuvretg d'egna plànta) ca la valur croda practicameing viers nula, aschispeart c'jou met an funcziùn el.</t>
   </si>
   <si>
-    <t>Jou creg c'jou stotgi spitgear antocen damàn par saver, sch'igl tànscha par instalar near sch'jou drov igl miglier panel c'jou ve pusto.</t>
-  </si>
-  <si>
     <t>Tanor Amazon ve jou cumpro igl panel 2021 ad el de furnir 12V par max. 1,2 A.</t>
   </si>
   <si>
@@ -734,18 +572,12 @@
     <t>Els ân mido las datas a quellas c'jou ve en faladas.</t>
   </si>
   <si>
-    <t>Igl vigl sco ear igl nov tetel da la glista indicescha e'igl satracti d'egn 12V 10W.</t>
-  </si>
-  <si>
     <t>Parquegl stez jou mena igls e-mails vigls.</t>
   </si>
   <si>
     <t>Oh, vurdad! El e ieu anavànt anturn egn'ura puspe online par zirca egna measa minuta.</t>
   </si>
   <si>
-    <t>Forza â igl panel cargieu la batareia gest gitg avùnda par egn tains da funcziùn da 38 secundas. Par quegl â el duvro me ampo daple ca duas uras.</t>
-  </si>
-  <si>
     <t>Lignead egn'eada: Oz e'gl nivlieu. Jou sund parquegl betga siir, sch'igl panel solar (probablameing rut) sa anzuma produtgear avùnd'electrizitad.</t>
   </si>
   <si>
@@ -758,12 +590,6 @@
     <t>El savess ànc adigna satschantar giou, aschispeart c'igl sulegl ca da randieu, mo lainsa dar egna schànza ad el.</t>
   </si>
   <si>
-    <t>Funfact: Jou drov l'integraziùn da Ping agl Home Assistant par vaser, sch'el e online near betga.</t>
-  </si>
-  <si>
-    <t>Igl tains da coliaziùn munta an media a 102 ms. Betga grandius, mo ear betga masiravel.</t>
-  </si>
-  <si>
     <t>Jou ve novs tatgeaders.</t>
   </si>
   <si>
@@ -782,15 +608,9 @@
     <t>Els en zupos agl grànd Sainsbury's tier la Haringey Green Lanes.</t>
   </si>
   <si>
-    <t>Scha tei es sco amprem là, lura prenda betga cun tuts, le anavos egn peer par igls oters.</t>
-  </si>
-  <si>
     <t>Betga va, sch'igl e megna lientsch - anzatgi vean ascheia near ascheia ad easser ple speart ca tei.</t>
   </si>
   <si>
-    <t>Scha nign tgata els oz, lura tgata probablameing igl parsunal els-</t>
-  </si>
-  <si>
     <t>Jou ve gieu cun ànc egn peer oters tatgeaders.</t>
   </si>
   <si>
@@ -800,9 +620,6 @@
     <t>Par cass ca tei es betga datier da que supermartgieu casual:</t>
   </si>
   <si>
-    <t>Scha jou sund tier egn event, ve jou adigna cun me egn peer. Igls suls event agl proxim tains agl mieus calender en actualmeing:</t>
-  </si>
-  <si>
     <t>Superbooth Berlin (me sco partizipànt)</t>
   </si>
   <si>
@@ -869,12 +686,6 @@
     <t>Jou reparass miglier egn peer motos, schiglioc ...</t>
   </si>
   <si>
-    <t>Huora K1100! Â ella egna suleta stroba c'e betga blocada?</t>
-  </si>
-  <si>
-    <t>Finalmeing ve jou or la batareia. Igl e gartagieu da prender or ella sainza prender or la davosa stroba, mo da quella sto jou ear ànc s'ocupar. Quegl fetsch jou damàn marvegl.</t>
-  </si>
-  <si>
     <t>Bunameing fatg. Egna nova e aint, ussa drov jou me ple bindel d'isolaziùn ner par far la siira.</t>
   </si>
   <si>
@@ -884,9 +695,6 @@
     <t>Hehe, betga egn, mobagn tres!</t>
   </si>
   <si>
-    <t>Rivo! Ussa ve jou me ple da farmar puspe igl sez cun las strobas.</t>
-  </si>
-  <si>
     <t>Jou lasch controlar igls meas îls, parquegl c'igl â do egna bùn'oferta, ad igl mieus îl saniester fa davent d'egn tains ampo tgutg. Forza tgat'ign or tge c'igl e.</t>
   </si>
   <si>
@@ -911,15 +719,9 @@
     <t>@user36 Igls savund igliers vezan propi or bagn! Jou cumpr aschi bugent igliers... jou fier mena davent els, mo anzaco tgat jou mai tschels...! Igls meas actuals ân la calur digl artg da San Martegn. Jou drov dantànt ear igliers da sulegl... mo quels sen rezept en aschi pors😂.</t>
   </si>
   <si>
-    <t>Manar egna fatschenda sco parsùna introvertada e dar igl madem mumaint blear pesa a la sfera privata, quegl de betg'easser egna cuntradicziùn, e'gl dantànt mintgatànt tutegna. La grànda part da las funtànas online a digls coachs cusseglian da colavurar cugls (noschs) gigànts da tech a sacumpurtar a moda extrovertada. Faged reclama qua, suandad agl algoritmus, mussad la Vossa parsunalitad. Faged egna crusch blaua tier quel a quel sarvetsch, segian cuntanschevla 24 uras agl gi, raspunded ad amparadas cun egn video sur da Vus, raspunded imediat. Video, video, video.</t>
-  </si>
-  <si>
     <t>Par me e'gl egn on da transiziùn.</t>
   </si>
   <si>
-    <t>Jou less betga pavlar igls gigànts da tech cun daners, datas a la mi'energeia. Near igls coachs c'ân lur atgna schleiaziùn extrovertada ad imponan quella a mintgegn. Jou sund sen la tscheartga da novas pussevladads par far ir la mia fatschenda a cumbat igl madem mumaint ancunter la mia perschuasiùn da blears ons c'ign stotgi far anzatge an egna tschearta moda par ver suczess.</t>
-  </si>
-  <si>
     <t>Giavischad furtuna a mei!</t>
   </si>
   <si>
@@ -932,9 +734,6 @@
     <t>Ier ve jou ura ànc alontano da la mia pagina da web Google Analytics, igl davos tracker extern, a quegl e egn bùn santimaint.</t>
   </si>
   <si>
-    <t>Da curt ve jou abono egn CRM europeic par ver egn miglier suport da GDPR, a jou vignt a transferiri la mia fatschenda las proximas eandas.</t>
-  </si>
-  <si>
     <t>Jou ve transferieu igl mieus conto MX tier Proton a ve ussa egn SPF, DKIM a DMARC sainza stuer pajear anzatge a Google par egna validaziùn normala dad e-mails.</t>
   </si>
   <si>
@@ -944,9 +743,6 @@
     <t>Jou ve plascher da liger tut quegl. Quegl âs tei fatg bagn!</t>
   </si>
   <si>
-    <t>Jou sund prest an egna situaziùn samagliànta. Jou drob egna nova pagina da wev a sund landervei da far egna glista da tut quegl c'jou vess bugent par egn'aczessibladad sainza barieras a la protecziùn da datas (peia nign Google Analytics, etc.) ad amprov d'eruir sco jou se nizagear Signal sco standard par cloms da video. Igl dat siir egna massa lavur da declarar quegl a la clientela, mo jou maneg c'igl vali la fadeia!</t>
-  </si>
-  <si>
     <t>@user4 @user3 Vus rivaz quegl! A jou gid bugent a vus cun las mias experienztgas.</t>
   </si>
   <si>
@@ -968,21 +764,12 @@
     <t>Quegl fetsch jou an mintga cass! Igl amprem drov jou ussa Nextcloud. Quegl e egn bùn amprem pass, segi quegl par intents privats near professiunals.</t>
   </si>
   <si>
-    <t>Bagnvagnieu a Cosa, Itaglia. Cosa de easser sto egna coloneia romana Que liac e vagnieu tgavo or seglmains quater geadas agl davos tschantaner. Tge dat igl da tgavar or a Cosa, sch'igl eara egn'eada egna coloneia romana? E igl Pantheon vagnieu tgavo or a Ruma? Na, igl Pantheon stat schizund segl madem palantschieu sco bietgs cuntemporans agl conturn. Veda tge sche quegl? Veda quegl, c'igl Pantheon e probablameing vagnieu biagieu durànt igl tains digls romans. Igl e prest ear drizo or anviers la direcziùn digl tschiel tge ca mussa, c'igl sa betg'easser aschi vigl.</t>
-  </si>
-  <si>
     <t>Venezia, igl martgieu sen l'aua. Egn liac da balteztga a romantica, c'atira mintg'on miliùns visitaders. Me pocs pass davent da las sendas da turists satgata egna tut otra Venezia, abito da creatiras faszinàntas. Que film mussa egna Venezia, ca me pocs ân vieu, egn martgieu cun egna veta dubla surprandànta.</t>
   </si>
   <si>
     <t>Nus eassan betga prùnts. Ad igl vean ànc ple malsiir or là, parquegl ca tei âs disgetg agl Greg. Parquegl ca nus vagn nigns daners da pagliear el, Burt. Quegl fas tei, betga jou. Giavelaint fetsch jou quegl. Capeschas tei betga, tge c'jou ve stuieu far, da radir or igls unfànts da quella situaziùn? Igl atestat da dabet, c'jou ve stuieu deponer par la sirànza, vol tei pearder tut quegl? Pletost ca ristgear, c'egn digls unfànts vean blasso? Ea. Partge? Quegl â ànc mai disturbo te.</t>
   </si>
   <si>
-    <t>Ussa sto jou speart numnar igl num digl reactur, cunquegl c'el eara egn implànt da prestaziùn da nula. Cunquegl c'egn implànt da prestaziùn da nula e agl cass da mantaner egna reacziùn da cadagnas da fissiùn, sainza d'ulzar near sbassar la speartadad da reacziùn. Quella moda d'instalar e fetg impurtànta par rimnar experienztgas da la funcziùn digl reactur, sa dantànt ear easser mortala, scha la pesapeia sensibla vean betga risguardada.</t>
-  </si>
-  <si>
-    <t>Quegl e propi egn project surprandànt fetg sempel. Igl e anzuma betga greav da posiziunar tut anzemel. Quegl e igl bi veda que project. Quegl e peia fatg, ok? Peia antschev jou ussa ascheia. Jou met sei igl tatgeader a fetsch egna pagina suainter l'otra. Exact ascheia. Jou vont egn'eada anturn l'antiera bescla... la ur... igl ur da la bescla. Oje. Jou prend peia semplameing quegl a strocl ancùnter.</t>
-  </si>
-  <si>
     <t>Qua e gest anzatgi ca reparescha igl palantschieu da la mia tgadafiac. A jou fetsch semplameing sco sch'jou vess ànc egn job a luvrass davent da la tgea, durànt c'jou editesch Too Hot to Handle.</t>
   </si>
   <si>
@@ -1013,18 +800,9 @@
     <t>Mo na, jou stund tier quegl. Igl lungatg natiral e normalmeing ple fragmentus, surtut sch'ign vean emoziunal.</t>
   </si>
   <si>
-    <t>Igl mastargner e ussa veda far cugl tschetgapulver. Sprànza vut quegl gir c'el segi prest a fegn.</t>
-  </si>
-  <si>
-    <t>El e ieu ordafora par tagliear anzatge (igl tùna seglmains ascheia). Jou ve vurdo a dascurs quànt lientsch c'el e. Igl dat ànc detg blear da far :-(</t>
-  </si>
-  <si>
     <t>Ànc 7 paginas agl capetel 5. Ànc adigna igl mieus capetel preferieu ad el veza or detg bagn - surtut midadas da la scartira a fetg pintga corecturas agl dascurs direct a jou sto ànc formular tut a maniera ampo ple cumpacta. Mo jou duvrass ussa propi egna possa ad egn tee, mo igl tip e ànc adigna an la mia tgadafiac.</t>
   </si>
   <si>
-    <t>Ussa â el gest puspe antschiet a far cugl tschetgapulver. Sprànza e quegl egn bùn segn.</t>
-  </si>
-  <si>
     <t>Igl tip da la tgadafiac e davent!</t>
   </si>
   <si>
@@ -1067,21 +845,12 @@
     <t>@19 Gliez se jou me suponer. Cugl mieus visum near cun la mia fotografeia da passaport, maneg jou. Jou vess stuieu far daple atenziùn.</t>
   </si>
   <si>
-    <t>Quegl e la mi'amprema visita tier igl daintist parve dad egna crùna: oz la preparaziùn, an duas eandas lura schar drizar ella. Jou exerzitesch gea egn'eada dad earver fetg la mia buca.</t>
-  </si>
-  <si>
     <t>Quegl â do detg blear da glimar.</t>
   </si>
   <si>
-    <t>Igl Stumpi a jou eassan ussa puspe a tgea a suainter egn peer scariolas tee sasantagn nus miglier. An duas eandas va'gl anavànt a lura e igl tractamaint a fegn.</t>
-  </si>
-  <si>
     <t>Near ear betga.</t>
   </si>
   <si>
-    <t>Igl daintist e btga sto cuntaint cun la moda co ca la crùna eara drizada, schizund suainter ver elavuro a glimo ella. Parquegl ân els fatg oz novas improntas par produtgear egna nova crùna.</t>
-  </si>
-  <si>
     <t>La ancrunaziùn digl Stumpi e vagnida spustada.</t>
   </si>
   <si>
@@ -1121,9 +890,6 @@
     <t>Jou amprov dad ir là ànc egn'eada la proxima sonda. L'ora veza betg'or aschi bùn igl mumaint, mo igl e gea per gliendasgis.</t>
   </si>
   <si>
-    <t>Las sfidas antschevan gea a samussar. Igl vean probablameing ad easser FETG greav da survagnir egna lubientscha medicala, a quegl parve da la tenuta da la FAA an conex cun tschearts medicaments.</t>
-  </si>
-  <si>
     <t>Igl e betga nunpussevel, mo igl vean ad ir FETG gî ad igl munta egna MASSA lavur suplementara.</t>
   </si>
   <si>
@@ -1133,15 +899,6 @@
     <t>An cass ca vus lez saver tge ca spetga me.</t>
   </si>
   <si>
-    <t>La FAA e betga egn fan dad ADHS. Ella lascha definitivameing betga dar ad ign egna lubientscha medicala, sch'ign prenda medicaments par quegl.</t>
-  </si>
-  <si>
-    <t>Sch'jou stgess eliger egn agen numer par la cua d'aviùn, lura savez vus c'igl sto an mintga cass easser egna variànta da N1337_ igl _ stat par igl davos bustab alfabetic c'e disponibel.</t>
-  </si>
-  <si>
-    <t>Quegl e gea cler sch'igl dat sulegl, cur c'jou sund davnet, lol. Tge tgutga.</t>
-  </si>
-  <si>
     <t>Jou sto propi puspe ir an l'aria. A l'ora e betga da la mia vart.</t>
   </si>
   <si>
@@ -1181,15 +938,9 @@
     <t>Sgular e fisicameing fetg stantus. Oz fan igl mieus dieus a las mias tgombas *mal* a mei, sco sch'jou fuss stada agl studio da fitness.</t>
   </si>
   <si>
-    <t>Quegl e betga sco egn'excursiùn da las dumengias cugl auto. Igl e pletost egn sport c'egna spassageada, tanor la mi'opiniùn nova.</t>
-  </si>
-  <si>
     <t>Egna beala sonda, las mias tgearas ad igls meas tgears. Bagnvagnieu sen 4.000 pes.</t>
   </si>
   <si>
-    <t>Damàn vont jou puspe. Lura exerzitagn nus interrupziùns digl curaint d'aria ad igl sgol plàn.</t>
-  </si>
-  <si>
     <t>Oz e l'ora stada instabila, mo igl e sto fetg divertaint. Nus vagn exerzito igl sgol plàn ad interrupziùns digl curaint da l'aria. Egn'eada vainsa cuntanschieu egna speartadad par teara da me 16 mph cun egna speartadad da sgol da 65.</t>
   </si>
   <si>
@@ -1226,18 +977,12 @@
     <t>Jou ve fatg zirca la measadad da l'amprema unitad d'amprender.</t>
   </si>
   <si>
-    <t>Igl dat indesch unitads d'amprender, par cass c'anzatgi vut saver quegl.</t>
-  </si>
-  <si>
     <t>Oh, cool, la fegn da l'unitad d'amprender 1.</t>
   </si>
   <si>
     <t>Jou ve ordino da nov igls meas threads, ascheia ca quegl qua stuess easser egna part digl megathread.</t>
   </si>
   <si>
-    <t>Egna beala dumengia,</t>
-  </si>
-  <si>
     <t>Oz ve jou fatg igl mieus amprem sgol da lùnga distànza (sgol d'anturn 50 miglias nauticas).</t>
   </si>
   <si>
@@ -1250,18 +995,12 @@
     <t>Que sgol e vagnieu fatg a màn, peia sainza pilot automatic.</t>
   </si>
   <si>
-    <t>Dumengia, cuntinuaziùn:</t>
-  </si>
-  <si>
     <t>La tgarta VFR pigl sgol</t>
   </si>
   <si>
     <t>Egna beala sonda, las mias tgearas ad igls meas tgears!</t>
   </si>
   <si>
-    <t>L'eanda vargeada e l'ora betga stada cooperativa, peia ampruvagn nus oz ànc egn'eada.</t>
-  </si>
-  <si>
     <t>Stabilisar suainter egn'interrupziùn digl curaint da l'aria, cun a sainza motor, sgular plàn, simular (!) pana da motor, sgular musters, aterar tres geadas cun ampo agid a sgular egna runda sur la pista.</t>
   </si>
   <si>
@@ -1304,33 +1043,15 @@
     <t>Quegl e egna rezepziùn reala ad autentica d'egn um gigant digl Giapùn, ca marscha an egna sort parada da militer. Tge c'e schocànt veda quegl, c'igl e propi la sia gràndeztga reala. El e seglmains 4 meters grànd, quegl en seglmains 13 pes. El e peia propi ple grànd a massiv ca mintga giujeader original NBA, sco par exaimpel Shaquille O'Neal near</t>
   </si>
   <si>
-    <t>Jou ancuraschesch els da cuntergir agls surmesters, sch'els tratgan, c'igl surmester a fatg falo anzatge. A mei par'igl bien, sch'igls carstgàns amprovan anzatge a prendan betga tut scheia sco'gl e. OK. Ea. Quella sort da libertad-. Els en ancunaschaints par quegl, c'els ân sco delego digl congress adigna declaro sen facebook par tgi c'els ân voto - egna cunzessiùn rara d'egna autoritad, da gir, "Okay, parquegl ve jou fatg quegl". Ea, ad atgnameing, savez Vus, â quegl betga plaschieu a blears manaders ad agl congress, c'jou ve fatg quegl, parquegl c'jou ve do a las parsùnas a tgea la pussànza da cuntergir. Ea.</t>
-  </si>
-  <si>
-    <t>L'amparada e, sco tier blearas otras ruegnas neoliticas: Sco ân els cumplanieu ascheia egna prestaziùn? Sco ân els savieu ulzar crapa aschi grànda? Earan els, sco quegl ca nus vagn gea savens tartgieu, igls rests d'egna cultura antica fetg avanzada c'e ida ampaglia? A nus para quella pussevladad, surtut qua tier igls carstgàns da Er Grah, fetg parschuadainta.</t>
-  </si>
-  <si>
     <t>Also, jou ve cumpro egna Xbox Series X, par ca vus stuez betga far quegl. Near forza stuez tutegna. An que video muss jou a vus tut igls avantatgs a dischavantatgs da la dezisiùn par egna Xbox Series X. Jou declaresch ear la hardware seza, igl controller, igls giois, atgnameing tut las experienztgas, c'jou ve fatg antocen ussa cun la Xbox Series X. Jou sper, ca que video ple a vus, a forza para el a vus schizund gidevel.</t>
   </si>
   <si>
     <t>Jou sund siir, c'igl dat ànc dinosauris da mar. Stgisa, c'jou penetresch agls Voss partratgs, mademoiselle. Mo prezisameing vignan me numnos reptils ca vivan sen la teara dinosauris. Sch'els vivessan sut l'aua, vignan els numnos reptils da mar, a quels en svanieus gea avànt fetg, fetg lùng tains. Tge e capito? Vus vagnez a vaser, Julie.</t>
   </si>
   <si>
-    <t>Suainter quegl ca tut e fatg, sfrusch jou davent igl pulver danvànz cun ampo alcohol a cun egna tela da pulpier. Igl e fetg sempel da schubargear. A lura met jou sei igl ieli d'ùnglas. Atgnameing e quegl egn ieli par la fatscha da Truly, mo jou ve betga gieu bugent igl fread fearm. Jou ve betga lieu meter egl sen la fatscha, parquegl drov jou egl sco ieli par las ùnglas. A quegl e igl davos product par las mias ùnglas. Jou ve aschi bugent ellas a sund tut nar dad ellas. Egn peer amparadas frequentas: Quànt gitg tegna igl set dad ùnglas? Jou port las ùnglas normalmeing duas eandas. Mintgatànt prend jou davent ellas ple bòld, parquegl ca vus tuts savez, c'jou fetsch seza igls meas tgavels, a jou drov igls pezs digls dets par igls tgavels, par tschiffar els sempel.</t>
-  </si>
-  <si>
-    <t>"Egna notg an cursa da galaxeia" digl Kenji Miyazawa. Quegl e egn'istorgia giapanesa da dus buabs, ca fan egn vieadi mistic agl tren da tschiel, ca va tras egna galaxeia. Els fan pliras experienztgas alegoricas a vignan cunfruntos cun temas filosofics. Durànt igl vieadi digls buabs tras igl tschiel da notg  va'gl par veta, mort a pigl easser carstgàn, a l'istorgia magna igl ligider sen egn vieadi da parscrutaziùn cun grànda muntada tier igl tema existenza ad univers. Igl roman e vagnieu scret anturn igl on 1983 tier egn manga a 1985 e el davanto egn anime.</t>
-  </si>
-  <si>
     <t>Qua noua c'jou stund, eara avànt anturn 85 miliùns ons igl taratsch d'egna mar interna, da la Western Interior Seaway. Igl Mike Everhart e egn digls experts dirigiànts segl antier mund par mosasauriers. Aschi lientsch c'ign veza, fuss me da ver la mar agl horizont. Igl veva la gràndeztga da qua, noua ca nus stagn, antocen tschient miglias lientsch. Da lez tains eara igl clima ple tgòld, igl â peia do nign sglatsch parpeten agls pols.</t>
   </si>
   <si>
-    <t>Ok, halt, halt, ussa fe ampo ple poc canera, par plascher! Bab, cura savagn nus prastar egn auto ple grànd? Scha tei es anturn 10 ons ple vigl a sas maridar egn miliunari. Agl mieus tgaret 'unfànts ve jou gieu daple plaz. Ea, a quel ve jou ear ànc betga paglieu giou. Jou debitesch schizund agl spital ànc duas ratas, antocen ca tei s'odas a mei.</t>
-  </si>
-  <si>
-    <t>Oz bagliafainsa sur digl Ben Affleck an egn'intervista. Greg, partge raquentas tei betga ampo davart igl video, ca nus vagnagn a vurdar. Ea, also, avànt anturn duas eandas â igl Ben Affleck gieu egn'intervista da duas uras cugl Howard Stern. El â bagliafo da la separaziùn da la sia duna ex a da la famiglia, a quegl â gieu consequenzas, also igl antscheva. Qua e el, igl Ben Affleck!</t>
-  </si>
-  <si>
     <t>Also, jou sto gir egl a vus tuts, jou ve ànc mena fatg quegl, mo jou fetsch egl ussa. Skinpotion vean produtgieu da màn cun materias da cuntegn biologicas a natiralas, ca nutreschan la peal cun umiditad a laschan glischar ella. "Veil of Venus" e igl cumember nov da la famiglia da Skinpotion. Igl sa vagnir pusto davent dad uss. A tei sas suandar a Skinpotion sen instagram sut @skinpotionus. Also s-k-i-n-p-o-t-i-o-n-u-s, skinpotionus.</t>
   </si>
   <si>
@@ -1364,27 +1085,18 @@
     <t>Tge e quegl, Bootstrap?!</t>
   </si>
   <si>
-    <t>@user48 Bootstrap fuss egn grànd daletg an cumparegliaziùn cun Tailwind</t>
-  </si>
-  <si>
     <t>Jou ve lieu dumagnear que mains 100.000 meters, a quegl stuess gartagear.</t>
   </si>
   <si>
     <t>Ussa partratg jou, sch'egn miliùn meters fuss pussevel agl on 2024? 🤔 #peloton</t>
   </si>
   <si>
-    <t>Geabagn, jou fetsch la miliùn. Tei sas c'igl e egna vera fegnamira, scha tei documenteschas quegl an egna tabella. Puspe dumagnieu egn mains, a jou sund ànc adigna oravànt agl plan da tains. #remar #peloton</t>
-  </si>
-  <si>
     <t>Actualisaziùn suainter egn quartal … egn bùn toc ple lientsch ca planiso!</t>
   </si>
   <si>
     <t>@user20 peia remas tei mintga gi seglmains 2,8 km? Segl ergometer near sen l'aua?</t>
   </si>
   <si>
-    <t>@user21 Jou rem me durànt l'eanda, peia e'gl an media antocen ussa ampo dapole ca 5km/luvergis. Jou repart quegl diferaintameing. Sen egn ergometer.</t>
-  </si>
-  <si>
     <t>Nov record historic, jou se tge ca quegl vut gir …</t>
   </si>
   <si>
@@ -1406,27 +1118,15 @@
     <t>Sco'gl para dat igl me dus livels digl original Super Mario Maker ca nign â dumagnieu lol</t>
   </si>
   <si>
-    <t>Aschùnta: ussa me ple egn. Me "Trimming The Herbs" mànca ànc,a jou se propi betga, sch'anzatgi dumogna quel anzacuras sainza cuglianar. Igl livel e crass greav.</t>
-  </si>
-  <si>
     <t>Davosa aschùnta: igl â samusso ca que livel e vagnieu cargieu sei cun sustegn d'egn tool, quegl ca nign â tartgieu c'igl segi pussevel da que tains, mo sco'gl para â'gl funcziuno. Me igls giujeaders ân betga scho luc, ad a la fegn â anzatgi dumagnieu el! https://fgc.network/objects/0f1b42c6-cbb1-49bb-91f5-db81bc71ea14</t>
   </si>
   <si>
-    <t>Jou ve vurdo tier ad egn peer amprovas, a sco anzatgi ca â do detg savens greavs livels da Mario, e'gl - abstraho da tut igl rest - schon ascheia ca "Trimming The Herbs" (igl davos level restànt) para d'easser nungetg greav.</t>
-  </si>
-  <si>
-    <t>A lura â'gl samusso c'igl livel e tutegna vagnieu cargieu sei cun egn TAS, peia quenta quegl betga ple, a la victorgia e stada clera. Par gir la vardad ampo dischilisiuno, mo GG par tut la glieud c'â dumagnieu tut antocen là!</t>
-  </si>
-  <si>
     <t>A curt avànt la fegn â anzatgi efectivmeing dumagnieu "Trimming the Herbs"! Propi impressiunànt.</t>
   </si>
   <si>
     <t>@user1 Jou se betga crer ca que livel, c'e sto aschi greav ad â duvro aschi gitg par vagnir dumagnieu, cuza me 17 secundas.</t>
   </si>
   <si>
-    <t>igl agl sasvilupescha bagn (seglmains quel cugl culiez lom, quel cugl culiez diir veza or dad x-egn motiv or blear ple setg)</t>
-  </si>
-  <si>
     <t>L'ampustaziùn da sems dad uon</t>
   </si>
   <si>
@@ -1451,15 +1151,9 @@
     <t>Oz vean amplanto ampo</t>
   </si>
   <si>
-    <t xml:space="preserve">Jou reutilisesch tut la teara da vascheals da flurs c'jou ve duvro igl on passo a tir las plàntas da zetgas. Egna measadad e teara da vascheals duvrada ca deriva da l'acziùn da zarclar d'egn camarat a l'otra measadad da teara or da las eras digls meas geniturs. </t>
-  </si>
-  <si>
     <t>Igl e uras da demolir la nossa tgombra da durmir. La davosa stànza an tgea, veda la quala e vagnieu fatg nut oter c'ampo decoraziùn.</t>
   </si>
   <si>
-    <t>Igl tarladieu cheminé electric ad igl funs digl cheminé ston vagnir alontanos. Nus stuagn far egn mir anturn igl cheminé, ramplazar la ligiadira ca sadistatga a stirar el. A lura construir la stgafa da vastgadira tanor mesira.</t>
-  </si>
-  <si>
     <t>Nus antschavagn adigna cun egna skiza da risplei groba …</t>
   </si>
   <si>
@@ -1490,18 +1184,12 @@
     <t>Igl stucatur e a fegn. Damàn vean igl palantschieu tschanto!</t>
   </si>
   <si>
-    <t>Igl fundamaint da corc e mess, jou ve zambargieu egn extrahader da rolas da rasgem da pulpier da hisli par igl tschetgapulvra.</t>
-  </si>
-  <si>
     <t>Parts digl palantschieu en finidas a san vagnir tschantadas. Nus fagiagn gest possa da tee.</t>
   </si>
   <si>
     <t>Buh, oz va'gl anavànt plàn, parve digls tagls supercumplitgieus anturn la sava digl esch, par cuntànscher egna transiziùn nuninterruta cugl zuler (noua c'ear igl palantschieu vean tschanto nov). @user45@twitter.com â smaladieu me.</t>
   </si>
   <si>
-    <t>Fito, mo miez morta! Igl punct culminànt e la sgarschevla instrucziùn da montascha par igl nov litg stada. Questa notg vagnagn nus a durmir bagn!</t>
-  </si>
-  <si>
     <t>Igl mànca ànc igl palantschieu agl zuler a tut las glistas sen l'òlteztga digls pes. Igl decoratur vean an egn mains, peia vagn nus agl mumaint igl schic da la fascha criua.</t>
   </si>
   <si>
@@ -1511,9 +1199,6 @@
     <t>Igl fundamaint da corc e ussa ear tschanto an zuler.</t>
   </si>
   <si>
-    <t>Ier eassan nus vagnieus a fegn cugl palantschieu agl zuler! Lura eassan nus ieus la damàn marvegl a las 5 a Heathrow par igl Object 1, egn curt cupid a spurt final an zuler, las glistas en montadas. Las cuvas vignan fatgas, cur ca la cola e setga.</t>
-  </si>
-  <si>
     <t>S'imaginad egna fetg lùnga pagina da web cun egna massa secziùns (peia egna spezificaziùn HTML sen egna pagina). Sch'igl utilisader ampeara suainter egna secziùn spezifica (p.ex. Page.html#section7), tge schabigess, sch'igl webserver streamass igl amprem quella secziùn a per suainter las otras?</t>
   </si>
   <si>
@@ -1529,18 +1214,12 @@
     <t>3. HTML par la secziùn 1, 2, 3, etc.</t>
   </si>
   <si>
-    <t>Lura procurass igl navigatur ca las secziùns 1 antocen 6 vagnessan visuaisadas sen la pagina da web *sur* la secziùn 7.</t>
-  </si>
-  <si>
     <t>Fa quegl sen? Fuss quegl nizevel?</t>
   </si>
   <si>
     <t>La secziùn culieada (#section7) de vagnir rendrada aschi speart sco pussevel sainza stuer implementar danovameing elemaints cun JavaScript. Jou less semplameing ver egn documaint HTML extralùng, me las secziùns culieadas den vagnir rendradas aschi speart sco pussevel. Cun HTML de quegl funcziunar.</t>
   </si>
   <si>
-    <t>Igl cuntegn savess vagnir streamo an quella moda, a lura integrass igl navigatur tut igls &lt;contents&gt; an la &lt;div&gt;.</t>
-  </si>
-  <si>
     <t>Igl vagness betga stramo egna sequenza suainter l'otra, mo igl navigatur matess anzemel igl documaint HTML ascheia sco sch'el vess streamo egna sequenza suainter l'otra.</t>
   </si>
   <si>
@@ -1559,12 +1238,6 @@
     <t>@user15 '@user14 Jou creg, c'igls "evenimaints cuminevels" en egn factur dezisiv digl entertainment. U igls evenimaints cuminevels d'egn publicum near quel digl entertainer cun igl publicum. Sch'ign fa egn agen entertainment me par sasez, gioi'ign tut sulet.</t>
   </si>
   <si>
-    <t>@user13 La mia opiniùn persunala e, c'igls evenimaints cuminevels en essenzials par tut quegl ca nus fagiagn. Tut igl rest para dad easser curius (savens, natiralmeing betg'adigna).</t>
-  </si>
-  <si>
-    <t>@user13 Easser sen igl mund munta da ver relaziùns cun oters.</t>
-  </si>
-  <si>
     <t>@user14 Ea, ear sch'ign fa anzatge sulet e quegl normalmeing par egna fegnamira cuminevla.</t>
   </si>
   <si>
@@ -1577,189 +1250,42 @@
     <t>@user11 Cun pearder las experienztgas comunablas parve da las purschidas surfatgas da cuntegns a da la polarisaziùn carschànta agl mund, e'gl par igls noschs blear megna sempel da ruinar a nus mintga schànza da s'antupar a da sadivertir. Jou stund mal, jou vess stuieu s'exprimer ple exact, haha.</t>
   </si>
   <si>
-    <t>Igl anamitg digl mieus anamitg e igl mieus amitg. Quegl e falo! Sch'igl anamitg fuss igl tieus amitg, lura fuss el explizitameing igl tieus amitg. Forza pon las parsùnas luvrar par egn tains anzemel, parquegl c'ellas refuseschan tutas duas anzatge near anzatgi. Mo scha quella relaziùn sabasa sen egna refusaziùn vizandevla near tge ear adigna, lura dat igl nut c'impedescha ca la relaziùn saschleia near davainta hostila suainter c'igl problem e vagnieu schlieu, near? La basa d'egna amizeztga e blear ple stabila c'ascheia anzatge. Mo sas, jou capesch ear la strategeia da curta durada ca stat davostier, peia cuntergitg jou semplameing.</t>
-  </si>
-  <si>
     <t>Avànt lùng tains en lur geniturs vagnieus mazos da frauduladers a Cheyenne a Kuyu en vagnieus vandieus segl martgieu. Els en vagnieus prieus sei da l'organisaziùn "Help Kongo" ad en carschieus anzemel cun zirca 30 otras orfnas sen las inslas agl liber. Egn suainter l'oter ân ign musso a quels schimpans giuvens la veia anavos agl gòld. Par identifitgear, ân igls szienzios da l'uniùn do a mintgegn egn num.</t>
   </si>
   <si>
-    <t>A parquegl sas tei betga ple fidar a las medias, c'ellas comenteschan las novitads da maniera faira a corecta. Dantànt sund jou tutegna ànc da l'opiniùn ca las medias da mainstream vegian lur valeta. Me parquegl c'ellas surfan near en partischantas less quegl betga gir c'ign setg anzuma betga fidar ad ellas. Or da quellas funtànas san ign ànc adigna trer blearas infurmaziùns nizevlas. Tei stos me saver sco ca tei analiseschas corectameing. Igl madem vala betga exnum par las "medias alternativas", las fatschendas las ple pintgas near parfegn parsùnas singulas ca bagliafan davart novitads sen paginas sco Youtube a Facebook.</t>
-  </si>
-  <si>
-    <t>Suainter igl download stuessas tei ver egna gràndeztga da datoteca spearta a pintga. Tei âs lura egn'app ca veza or sco quella, bien? Scha jou clicesch ussa se qua, e quegl la vesta ca tei vezas lur imediat. Ad ussa vi jou bagliafar davart egn peer tgossas an conex cugl lab. Egn punct impurtànt e ca las indicaziùns da lab par igl fegl da lavur da lab, veda quel ca tei veans a luvrar, e atgnameing autoexplicativ. Igl intent da que video e peia atgnameing quel da mussar a tgei co ca tei drovas l'app.</t>
-  </si>
-  <si>
     <t>Alexa, sùna "It's My Party and I'll Cry if I Want To". Bo, Bo, nus samuantagn agl rudi. Alexa, sùna "It's My Party and I'll Cry if I Want To". Tei dessas ear is, scha quegl capitass a tgei. Huhuu! Alexa, sùna "Midnight Train"!</t>
   </si>
   <si>
-    <t>Hi, Rob. Hi, Marion, sco va'gl? Fetg bagn. Partge es tei vastgida sco egna guardia? La gestiùn â amparo a mei da crear egna nova partiziùn da novitads par la sireztga agl sectur da sànadad ad igl manual par igls cumpraders. Jou ve tartgieu c'jou sasainti miglier an la rolla cun egn outfit andretg. Ea, jou capesch. Ea, forza funcziunescha quegl, Rob. Nus vagn ussa egn sectur da novitads ca varda segls problems a las schànzas anturn la sireztga da datas a la sireztga da la reet agl sectur da sànadad.</t>
-  </si>
-  <si>
     <t>Hallo, qua e igl Bahiano cugl Bahiano Reno. Ea, nus vagnagn a reparar egn peer batadiras. Las platas paran da ver 14, 15 ons. Nus fagiagn quegl me par stabilisar las platas, parquegl ca las platas sco talas vezan ànc or bagn. Ellas saschleian me tier anzaquànts liacs. Nus lagn betga ramplazar tut las platas ad igl antier cit da batadiras. Nus reparagn me ampo par c'ellas tegnan antocen ca nus lagn renovar egn gi tut. Ea, prenda quegl sei?</t>
   </si>
   <si>
-    <t>Damena po igl mieus bab betga purtar me a la lavur. A jou ve egn vieadi da zirca 27 miglias par ir a luvrar. Ir a turnar fussan qua bunameing tschient dollars par gi cun Uber. Jou ve ànc betga vurdo tier Lyft. Quegl vess jou savieu far, quegl fa sen. Mo tier la mia sigurànza digl auto e prender a tschains betg'egna part, quegl e peia la mia cualpa. Jou vess peia savieu ampruvar d'instalar quegl a da prender a tschains egn auto, durànt c'jou sund sto bancrut a vev nign auto ple. Mo ear prender a tschains cuvress betga seat gis. Jou sto me speart sturnidar, egn mumaint. Que sturnidar eara nosch.</t>
-  </si>
-  <si>
     <t>Scha nus bagliafagn gest da stars, igl Howard Jones tgànta sen que album sco giast egn duet cun te agl song "I Made a Case" ad el â adigna sustagnieu te cumpletameing cun la tia musica. Eara quegl casualitad c'el fa art da quella canzùn? Jou ve udieu, ca tei vessas stuieu prender anavos la musica d'acumpognamaint, cunquegl ca tei levas betga c'anzatge impedescha las vossas vuschs durànt igl raquent da la story.</t>
   </si>
   <si>
     <t>Aua, igl liquid, or digl qual c'igls ozeans en fatgs. Ella amplagna profunditads infinitas. Me tschearts uegian da sfunsar agl mund sutmarin da la mar infinita vasta. Igls blears abitànts digl ozean vivan par gir ascheia agl martgieu, sco sozietads humanas.</t>
   </si>
   <si>
-    <t>Mo, tei vessas me igls persequitaders penals agl culiez a purtassas anavos els, a lura fuss tut ple nosch c'avànt. Sa easser. La veta fa dantànt semplameing nign sen. Nus vagn nigna schànza. Mo Chris, tge gis tei qua. Nus vagn tuts egna schànza. Igl mund e plagn bealas tgossas. Betga par nus gidànters. Bagn, igl mieus tgear, par nus tuts.</t>
-  </si>
-  <si>
-    <t>Hallo Psych2Goers, a bagnvagnieu anavos segl noss canal. Graztga fetg par tut quella amur ca vus vez tarmess a nus. Igl voss sustegn cuntinuànt â gido da render aczess a la psicologeia a sànadad mentala par tuts. Fagiainsa anavànt. Mintgegn da nus â durànt la sia veta fatg anzatge autodesctructiv. Pigl solit suczedi betga cun intenziùn a davainta nigna disa. Cumportamaints autodesctructivs en tals ca fan don corporalmeing a mentalmeing. Forza fas tei quegl betga cun intenziùn, near forza sas tei exact tge ca tei fas, mo igl desideri e megna fearm da controlar el. Cugl tains po quegl dar problems, scha quella moda da cumportamaint saschlueta aint. An egna parsùna autodestructiva dat igl seat cumportamaints frequaints.</t>
-  </si>
-  <si>
     <t>Starfire. La prinzessa da Tamaran. Amparnevel, sper jou. Lord Bagrok! Oh! Tge spiert impressiunànt. La tia sora eara inteligiainta da surdar te. Creatira noscha!</t>
   </si>
   <si>
     <t>Nus stuagn aczeptar ca la regenza da la Republica Populara da la China a la regenza digls Stadis Unieus da l'America ân gràndas diferenzas. Nus vagnagn ear agl avagnir a ver las nossas diferenzas. Mo nus stuagn catar egna veia par ver quellas diferenzas sainza star visavi sco anamitgs an egna gueara.</t>
   </si>
   <si>
-    <t>Sco vez Vus gea bòld partartgieu near constato ca, mo bagn, la tecnica e semplameing egna part da la sfida? Spezialmeing c'ign mussa a nus sco inschigniers ca nus vagnagn a frida cun problems, never? A ca nus catagn schleiaziùns. Quegl e la nossa leztga. Ea, siir. Sco vez vus cato or gea aschi bòld? Bien, quegl eara egna casualitad betga usitada, sa ign gir. Natiralmeing sund jou carschieu sei agls ons 70. Jou ve survagnieu la mia cunzienztga politica a la mia capientscha academica agls ons 70 a que contet e natiralmeing extrem impurtànt.</t>
-  </si>
-  <si>
-    <t>La band da quater cumembers The Now da la Valisa digl Sid salegra segl sieus amrpem album, Too Hot To Handle, sur True Music, ad igl Callum e ussa tier me. Sco va'gl Callum? Tut an urden? Ea, tut e bien. A tei âs ear bien? Ea, a mei va'gl prima. Graztga fetg. Igl e egna honur par me da bagliafar cun vus, parquegl c'jou ve tarlo fetg savens la vossa musica davent digl on 2023. A mei ple quella musica fetg bagn, a tanor me e ella anzatge ca nus duvragn definitivameing oziglgi an las paradas da hit.</t>
-  </si>
-  <si>
-    <t>Peia, cura vez Vus antschiet a cumponer a performar musica, suainter quella preschentaziùn sen la tribuna avànt la Vossa tata ad igl Voss tat? Mo bagn, quegl e sto pletost egna performance. Jou ve ear cumponieu ampo, mo gliez ve jou surscho agls profis, savez, cur c'jou ve registro cun cumponists professiunals ad â gieu enorm suczess agl antier mund.</t>
-  </si>
-  <si>
-    <t>La gestiùn ad igl alontamaint corect da rumients agl Voss manaschi da reparatura d'autos e impurtànt par la sànadad digls colavuraturs ad ampurmeta ear d'evitar multas near custs òlts d'acordànza. Ultra da quegl less la cliantela far fatschendas cun interpresas ca sastaintan a moda proactiva da schurmagear igl ambiaint a ca lavuran a moda durevla. Tgenegnas en las seat veias par far quegl? Primo: rafinar ànc egn'eada igl ieli duvro. Fiera betga semplameing davent igl voss ieli vigl. Cugls dretgs prozess sa igl ieli vagnir rafino danovameing a sa vagnir reutiliso ilimitadameing sainza spearsa da qualitad.</t>
-  </si>
-  <si>
-    <t>Hop, Hop. Igl crap batta la forbesch, la forbesch bata igl pulpier ad igl pulpier bata igl crap. Tei gudognas. Igl pardider pearda egna stéla. A la fegn digl gioi meta igl arbiter las tgartas puspe an la stgatla da recicladi. Scha amadus giujeaders eligian natiralmeing la madema tgarta, dat igl peer a nign pearda egna stéla.</t>
-  </si>
-  <si>
     <t>Hallo, qua e igl Nick da Review Outlaw. Oz fagiagn nus egna davosa runda tras la tigia ca nus vagn renovo. Nus vagn prest dumagnieu tut. Quegl e l'amprema stànza ca nus vagn visito la davos'eada. Sco vus vasez e igl palantschieu sura fito, las pares en fatgas a tut las platas da gep en striheadas. Quella pintga eglia qua. Nus vagn instalo egn andrez d'alarm.</t>
   </si>
   <si>
-    <t>Apar adigna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igl svilup da la carstgànadad cuntinuescha an egn cuntegn. Ear an tains difizils sasvilupagn nus anavànt a s'adatagn. Agls martgieus e la prosperitad ànc adigna grànda ad igl progress tecnologic s'avànza. Cun scuvrir dacurt Ignniat e la carstgànadad sacatapultada an òlteztgas nungetgas; mo anzatge blear ple grànd spetga nus ànc. Quella nova savida acquistada sa me vagnir valitada sco intervenziùn divina ad igls dieus vignan a salegrar da nossa preschietscha agl tschiel. La firm Karascene â scho examinar Ignniat intensivameing a schazegia igl potenzial da que mineral sco fetg òlt. A betga safar quitos: tanor las examinaziùns e'gl ni da quintar cun efects secundars ni cun problems da decumponer Ignniat. Que mineral e destino par intents ple grànds. </t>
-  </si>
-  <si>
     <t>14 da schaner, 22:26 uras.</t>
   </si>
   <si>
-    <t xml:space="preserve">Egn clic. Igl madem stream sarepeta an egn cuntegn: igl gi c'igl mund e vagnieu devasto. Igl mieus bab stizava mintg'ea, cura c'el vaseva ca jou savev betga volver davent igls îls. Igl mieus magùn satargeva anzemel vasànd sia fatscha inquietada. Jou sasaint adigna mal, cura ca que stream vean, parquegl c'el sveglia tàntas ragurdientschas an me, dantànt betga fetg bùnas.  Cun egn suspir stund jou sei par vagnir sen oters patratgs. Jou amprov trasor da alegrar el a scatschar sia schleata luna cun far seglmains egn pintg palscher, mo oz sund jou stàncla. </t>
-  </si>
-  <si>
-    <t>Jou s'avaschegn plànsieu igl esch a clom agl mieus bab: "Jou vont ampo ordafora, la tschagna e an frestgera." Nigna rasposta. Tge oter. Piglple oda el me, el vean schon a a vagnir a frida sulet. Bufatg sear jou igl esch a suspir ànc egn'ea, cura c'el saseara digltut an la seara. Jou ve bunameing amblido da meter igl mieus màn segl scanner d metal fred par sarar igl esch. Sch'igl deva anzatge particular ve da quella abitaziùn, alura eara quegl igl equipamaint cun tecnologeia moderna, quegl eara dantànt igl cass tier la grànda part digl bietgs. Gea da gî duvrav'ign nign'otra tecnologeia.</t>
-  </si>
-  <si>
-    <t>An quella notg freda a plievgiusa ve jou fatg mia spassageda explorativa gea gî planisada tras Paltricus - egn privilegi reselvo a quellas ad a quels c'earan mitschieus cun fugir near cun egna furtuna nungetga. La notg eara iluminada da stélas targlischaintas c'earan gea meli ons viglias. Igl sto easser solitari agl univers. Paltricus eara egn beal martgieu, mo ign sasanteva pletost sco an egn cloter a betga sco an egn liab d'abitar luxurius. Igl martgieu eara fulano cun apartmaints, tgeas ad oters bietgs; la grànda part veva pliras tschient ulzadas, graztga ad Ignniat. Que mineral veva samusso sco vera furtuna par la tecnologeia a l'arcitectura ad aveva angrandieu nossa basa da viver. La publizitad sa dantànt me poc davart que mineral, surtut parquegl c'el vean tanieu strictameing secret.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par sadeliberar digls meas patratgs stgirs, ve jou samess sen veia par egn cafe agl mieus local preferieu. El vean evito da la grànda part da la glieud parquegl c'igl vean bagliafo c'egn ampesto segi sto là danturn. Ascheia vignan numnos quels c'en s'infectos cugl virus. Me â quegl mena inquieto - jou ve gieu nunadieu blear cletg an mia veta - ad igl possessur e egn super tip. Tgi desistess ear d'egn cafe gratuit ancùnter egn discurs da notg tardiva? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cura ca jou sund antrada, e igl mieus maleasser vagnieu scatscho d'egn fearm scalegn a l'odur da cafe frestg e saderasada agl mieus nas. Anton, igl possessur digl local, steva sco adigna davos la teca. Igl local eara practicameing vid, cun exzepziùn d'egna parsùna an la part davostier. Suainter la lùnga spassageada s'avaschegn jou stàncel mort la bar, salasch curdar sen egna da las sutgas a susd. Jou vez igl Anton ad el posrta a mei igl usito. "Hallo Lilith, egna lùnga notg?", e sia vusch ruha resunada atras igls stierts digl mieus tscharvi. "Zirca ascheia", ve jou raspundieu tut debel a sund vagnida da secunda a secunda ple stàncla. </t>
-  </si>
-  <si>
-    <t>Par scatschar mia stancladad ve jou prieu eg per geadas egn schuf digl cafe avànt me. "Va la fatschenda ànc adigna mal davent da quell'istorgia cugls ampastos ... ?" Jou ve bagliafo dascus par betga scatschar ànc igls davos giasts agl local dad Anton. El â do digl tgieu durànt c'el schubargeva egn magiel cun egn stratsch. Que local e atgnameing egna bar, mo jou sund mena vagnida qua par bever egn drink. Davos me eara dad udir egn murmagnem, mo igl dascurs trànter Anton a me e pletost rasto curt questa sera. Cun egna curt'anzena d'adia ad ampo daple energeia c'avànt ve jou banduno igl local.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Igl eara pigl solit betga la miglra ideia da tgaminar la sera tard par las veias stgiras. Mo igl eara ànc adigna miglier ca da star an quella abitaziùn stetga a tarlar sco c'igls vaschegns vevan sex. Quels udev'ign ple savenz ca l'atgna musica. Cun egn curt suspir ve jou puspe drizo mi'iglieada sen la veia avànt me. Jou vont probablameing tier la stizùn da pègn dad Al par far ir igl tains cun vurdar, sch'igl â danturn roba viglia interessanta. Cura ca jou od zaps gest davos me, sandricel jou da mia dezisiùn. Forza fetsch jou megna blears quitos, mo an que quartier samov'ign atgnameing me, cura c'ign vut vagnir splundargieu near patango. Igl quartier e ancunuschaint par sia mafia a criminalitad da bandas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E quegl betga legher? Me gest la measadad digls carstgàns e ànc avànt màn a tutegna calagn nus betga da far mal l'egn a l'oter. Jou sund ida ple speart, la stizùn da pègn eara gest anturn igl cantùn ad andavains ear jou siira. Cura ca jou sund stada avànt egna tavla iluminada cun l'inscripziùn "stizùn da pègn dad Alborn", â egna curta iglieada sur igl givi cunfirmo ca jou vint betga ple persequitada. Cun egn zap puspe ple ruassevel sund jou antrada an stizùn. Quella eara ampo sper la veia, parquegl c'Alborn prandeva savens sei mutànts ca vivevan sainza lubientscha a Paltricus. An stizùn ear'igl stgir ad Al eara curiusameing ear betga danturn. Nign fugitivs. Nut. Anzatge cunsteva qua betga. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precautameing sund jou saschluitada an la part davos da la stizùn, noua c'ign udeva egn murmagnem a cunversaziùns dascusas davo egn giater da metal c'ign saveva alontar cun egn peer manetschas. Jou sund saragatada an la tgeava da ventilaziùn - igl mumaint la metoda la ple sempla a siira. Cura ca jou stumpl atras, od jou egn dascurs trànter dus umens, vastgieu da maniera cuirusa. Alura ve jou vieu igl Al, an cadagnas. Eara gea cler c'igl vignan a pagliear el egn gi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jou vev propi bugent Alborn, mo quegl eara egna numra megna grànda par me. Ad anzuma sto jou betga adigna catschar igl nas an la tgossas dad oters, sutut betga, sch'els ân gest dispeta cun las autoritads digl martgieu. Tutegna ve jou betga savieu far oter. Cun egn bufatg suspir ve jou ulzo plansieu igl giater sut me or da sia fràncada a sund sglischeada giosut an la stànza silenziusa. "Psst, Al. Al!" Jou ve scutino a cura c'el â betga raspundieu ve jou ulzo la vusch. "Lilith?" Tge fas tei qua? Tei stos ir, schiglioc tschefan el te ear ànc." </t>
-  </si>
-  <si>
-    <t>"Tge ca tei me gis...", ve jou getg dascus a mei. Durànt ca nus vagn ampruvo da far liber las cadagnas anturn sia bratscha, vagn nus udieu s'avaschinar vuschs ad igls zaps silenzius en vagnieus ple a ple dadòlts. "Speart!" Saragata anavos an la tgeava a svanescha. Turna an nign cass. Scha nus savasagn, alura betga an que martgieu. El â bagliafo speart a la panica an seas îls â betga gido da calmar me. Jou ve suando igl sieus cussegl. Jou saveva betga star ple gî. Mearda, Al! Suainter ver banduno la tgeava da ventilaziùn, sund jou curida davent. Igl fageva mal da pearder egn amitg aschi fidevel. Levan els ir cun el an l'oter ... martgieu? Achi blearas tgossas en idas tras igl tgieu a mei. Jou sund stada aschi vilada, mo ear tresta. Jou sund safatschandada intensivameing cun igls martgieus externs a cun la capitala digls ampestos. Ella veva num Alcatraz, gest madem sco la parschùn. Igl num nava bagn a pro cun quegl ca jou veva ligieu. Betga da manzunar c'igl nunmuntànts vevan interrut tut las coliaziùns cun las cuntradas digls ampestos. Egna tragedia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egn silenzi canerus â acumpagnieu me sen veia a tgea. Igl patratgs agl mieus tgieu cupitgeavan a scarpavan bunameing parmiez me, parquegl ca jou veva betga savieu gidar agl Al. Cura ca jou sund finalmeing arivada a tgea suainter quella teribla spassageada, sund jou stada curt avànt bargir ad igls tùns digls tgametgs, ca vagnevan or digl nivel sur me, savevan far tema ad anguscha a mintgegn. Igl mieus bab eara gea sadurmanto segl canape. Igl vagneva gest egna repetiziùn d'egn film d'avànt 10-12 ons. Cun egn suspir sund jou ida musch muschet an mia tgombra. Jou ve sascho curdar segl litg. Igls îls ve jou strusch ple pudieu taner anviert a sund bunameing sadurmantada dalùnga.   </t>
-  </si>
-  <si>
     <t>EXPLOSIÙN</t>
   </si>
   <si>
     <t>19 da schaner, 14:34 uras.</t>
   </si>
   <si>
-    <t xml:space="preserve">Igl tains passava sco da sgular. Avànt egn peer gis eara Alborn vagnieu transpurto davent. Noua savev jou betg. Me c'els vevan purto el anzanouas. la vastgadira digls umens eara vagnida avànt ancunuschaint a mei, mo a mei lev igl semplameimg betga vagnir andamaint da noua. Cun egn suspir ve jou mess igls mieus màns sen igl sistem avànt me ca targlischava cotschen a violet - hacar el fuss sto egna bagatela par me. Jou dubetel c'els ân siiro el suplamentarmeing ... Mo igl e miglier da betga far. Mo natiralmeing ve jou stumplo da la vart mais resalvas moralas. Mia deta e samovida sainza studagear sur la tastatura ad â clamo sei diferaints moniturs. Giavelaint, sund jou bùna. Jou sund stada detg ancunuschainta sen tscheartas paginas-web, ign numnava me là "SPIERT". Egn num c'ign tigna bagn andamaint. Mo jou dund tier ca jou dovr sen mintga pagina-web igl num SPI3RT, mo a mei ple igl patratg ca ve survagnieu el dad oters.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jou ve cargieu igls maletgs da las cameras da survigliànza sen igl mieus aparat mobil e ovservava mintgegn intensivameing. Nut. Sco sch'els fussan mena stos là. Quegl fa nign senn. Las cameras en siiradas bagn, ear ncùnter egn aczess sen distànza. Co ...? MEARDA. Plagn greta sund jou stada an pes par scatschar igls patratgs or digl mieus tgieu. Jou sund ida tier igl esch ad ve tgapo mias clavs. "Jou sund prest puspe anavos, bab." Silenzi. Quegl e normal, el raspundeva gea mena. El eara probablamaing puspe ocupo cun anzatge ple impurtànt ca me. </t>
-  </si>
-  <si>
-    <t>Cura ca jou ve banduno l'abitaziùn, ve jou santieu egna snavur digl dies giou. Jou ve ignoro el a sund sasfurzada dad ir tier la stizùn dad Al par far egn peer investigaziùns. Mias tgombas ân dantànt purto em tier la pintga bar dad Anton. Igl eara detg ruassevel là a jou duvrav urgentameing anzatgi par bagliafar. Tgi fuss sto ple adato c'egn barman ca â dabets tier me?</t>
-  </si>
-  <si>
-    <t>Igl eara nunusitadameing plagn, bagnplagn glieud ca jou veva ànc mena vieu. Anton luvrava atgnameing adigna sulet ad eara siir detg an stress parve da la bleara glieud. "Jou vess bugent egn cafe." Jou ve bagliafo aposta cun egn tùn bass par iritar el ampo. El e savieult curtameing a jou ve stuieu rir dascus, cura ca jou ve vieu igl leavgiamaint an sia fatscha. "Giavelaint Lilith, tamainta me betg ascheia ...", â el getg dascus, cun vusch stàncla. "Vesa or sco scha tei vessas blear da far ... Duess jou gidar a tgei? Igl cura detg blear a qua." Jou veva bagn nign gust da survir quels sturns, mo jou steva mal par Anton, parquegl c'el stueva dar damogn sulet a quella catschada. "Fagesses tei quegl? Tei surveans igls teas daners ple tard ...", â el murmagnieu a vurdo sen me cun igls seas îls da tgàn. Tactica da gueara avanzada ...</t>
-  </si>
-  <si>
-    <t>Suainter ca jou ve gieu barato mia vastgadira cun egna mondura da lavur, ve jou gido ad Anton ved la bar. Malgro las amprovas constantas da flirtar a d'atrer mi'atenziùn, c'ân par gir laverdad gnànc disturbo me, e la lavur ida tgientsch gioud màn. Jou vignt a bagliafar cun Anton suainter la squadra. Jou sto survagnir Al or digl mieus tgieu, malgro ca jou se ca jou vignt a far ulteriuras investigaziùns an sia stizùn da pégn suainter quella squadra an la bar, mo tutegna ...</t>
-  </si>
-  <si>
-    <t>Flomas en rutas ord la gula da Thassalin, cura c'igl Thraki gigantic â do fiac ad egn toc digl gòld spezific ad e alura zirculo suror par scuvrir movimaints. Curiusameing e igl. Curiosamein e igl rudi tamantànt vagnieu met davos el, cura c'el e vagnieu ple plàn. Thassalin veva amblido igls passaschiers sen igl sieus dies.</t>
-  </si>
-  <si>
-    <t>"Tge de quegl, Tenuk, tei es schon egna'ea samido an en Thraki!"</t>
-  </si>
-  <si>
-    <t>"Cura c'jou sgol sez e quegl tut oter ca da vagnir tgapo tutanegna a tratg an l'aria d'egn dragùn rosa!"</t>
-  </si>
-  <si>
-    <t>"Aschi nosch e'gl gnànc to, near betga, Kayel?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayel eara evidaintameing betga digl madem meni sco Nyssi. El vaseva or mains ner ca schiglioc a sias greflas earan sascavadas aschi profundameing agl dies da Thassalin c'igl Thraki sanganava. A Thassalin  pareva quegl dantànt da far or nut. Tutegna â el realiso c'el veva fatg tema agls seas novs amitgs, ad e satschanto an egn sclarieu. </t>
-  </si>
-  <si>
     <t>"JOU STUND MAL, MO JOU VE FARDO ANZATGE. JOU VE STUIEU S'OCUPAR DA QUEGL!"</t>
   </si>
   <si>
-    <t>"Mo âs tei stuieu strer nus cun te?", â Tenuk murmagieu, cura c'el e saragato giou digl dies da Thassalin a ruschno da sia cua giou. "A nus vagn scho anavos Retvik! Noss grànd a fearm cumbatànt vagn nus scho an la mearda! Co de el pomai puder suainter a nus?"</t>
-  </si>
-  <si>
-    <t>"El vean siir a saschar dar anzatge agl tgieu …", â Nyssi murmagnieu. "Retvik e betga igl ple speart, mo el e betga stupid."</t>
-  </si>
-  <si>
-    <t>"Gliez bagn, mo sa Retvik ir cun auto?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyssi ha tschignieu ad ea savolvs viers Tenuk. "Natiralmeing sa el ir cun auto." </t>
-  </si>
-  <si>
-    <t>"Âs tei gea vieu egn'ea Retvik ir cun egn vehicel? El â betga egn camiùn sco tei, ad jou ve era ànc mena vieu ir el cun egn auto aschi elegànt sco quel digl Kayel. Ad el â ultra da quegl mo antschiet ad ir cugl auto a luvrar, parquegl ca tei vas adigna cun igl vehicel. El â me igl sieus velo."</t>
-  </si>
-  <si>
-    <t>Els vignan interruts d'egn lahargnem. Thassalin pareva tutanegna da sadivertir enorm d'anzatge, mo nign saveva parveda tge c'el rieva. Igl â cuzo egn tec megna gî antocen ca Thassalin e saquieto.</t>
-  </si>
-  <si>
-    <t>"JOU STUND MAL, MO JOU VE MESS AVÀNT VOSS AMITG GIGANTIC AN ARMADIRA SEN ASCHEIA EGN MINIVELO PAR UNFÀNTS DA TEMTHAN. QUEGL E STO DA RIR DA SCHLUPAR! JOU GIAVISCHASS C'JOU VESS EGNA SORT DA TELEPATEIA. EGNA BALTEZTG'IMAGINAZIÙN! EGNA C'JOU SE BETGA PARTGIR!"</t>
-  </si>
-  <si>
-    <t>Kayel â cihargieu, parquegl c'el saveva s'imaginar tge ca nava tras igl tgieu a Thassalin. "Ea, tei âs raschùn. Mo tge âs tei fardo a partge es sgulo davent aschi anetgameing?"</t>
-  </si>
-  <si>
-    <t>Thassalin â grugnieu, e sadulzo ad e svagnieu. Cura c'el e returno suainter curt tains, â el fiers a Nyssi anzatge mort avànt igls pes. Igl eara egn Orothrack, egna creatira draghesca fetg rara, alv dorada. Mo igl sieus tgieu eara davent. "ÀNC EGN MORT. JOU OD IGL IEUS SGAGNEM. FRED IGL SIEUS SÀNG. ANZATGE TGATSCHA ME DA PROTEGER A DA FAR TGATSCHA. SCO YISINI CUMONDA. ELS EN FETG DATIER."</t>
-  </si>
-  <si>
-    <t>Igl Thraki gigantic e vagnieu anetgameing tut eri. Ear Nyssi a Kayel en samarvantos ad ân drizo lur îglieada sen egna largia agl sclarieu. Anzatge grànd a ner fixava els sburflànd. Tutegna tge c'igl eara, el â stendieu dus peers d'alas giganticas ad e safiers ancùnter a Thassalin sainza safutrar digls tres eassers ple pintgs trànter els. Kayel a Tenuk ân gest ànc savieu sameter an siirtad, mo Nyssi e vagnieu stratg suainter e bunameing capitulo sen Thassalin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thassalin â reago sen quell'ataca cun tgapar Nyssi a fierer el cun sia cua anschignusa ad incrediblameing lùnga sen igl sieus dies, avànt ca smanar an l'aria. La creatira nera cun alas dublas â persequito els cun grànda speartadad. </t>
-  </si>
-  <si>
-    <t>Kayel â schlapato cun la lieunga durànt c'el â prieu sia buis giou digl dies ad â aviert egn satget ca cuntaneva egna tschenta da muniziùn. El â palando la tschenta anturn igl pèz, mo â realiso speart ca Nyssi, igl Thraki ad igl monster earan betga ple vasevels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hei, Tenuk, savesses tei samidar an anzatge ca sa sgular?", â Kayel dumando. </t>
-  </si>
-  <si>
     <t>"Tei vol persequitar els?"</t>
   </si>
   <si>
@@ -1769,108 +1295,24 @@
     <t>"Mo ... egn dad els e egn monster gigantic!"</t>
   </si>
   <si>
-    <t>"Ea, ad alura? Jou sund qua cun egna buis da vaglia aintamàn a savess immediat sagitar. Mo jou stuess halt schon vaser el par saver tutgear el."</t>
-  </si>
-  <si>
-    <t>Tenuk â targino, alura â el fatg in zap anavos par ver daple plaz. Cun egn bufatg grofel dolurus e igl tgierp da Tenuk sastandieu a la lùnga, sia palegna e samidada an squamas a sia bratscha an alas. El e samido speart an egn Thraki normal, cler blau, mo igls seas îls en restos cotschens.</t>
-  </si>
-  <si>
     <t>"Saragata seiador."</t>
   </si>
   <si>
-    <t>Sco in Thraki da cumparsa normala veva Tenuk ussa veras squamas par lùng digl sieus dies. Ad or digl sieus dies earan ear carschidas duas spegnas, quegl c'eara pratic, ascheia saveva Kayel sataner veda quellas. Igl e ieu ampo megna gî antocen ca Tenuk e vagnieu da partir, mo egn'ea c'el e sto an l'aria, es el s'oriento speart ad â antschiet a persequitar.</t>
-  </si>
-  <si>
-    <t>Tuenuk a Kayel ân realiso speart c'els earan betga sulets. Egna savunda creatira stgira e sagitada sut els an l'òlteztga a Tenuk â savieu evitar egna colisiùn me par poc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Quegl e peia tschel monster gigantic sgarschantus, digl qual Lanex veva tema?" Kayel â rabaglieu igl frùnt. El â ampruvo da sagitar sen la savunda bestia, mo â tutgieu dasperas ad â speart cargieu da nov. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenuk â betga do rasposta. El eara megna ocupo cun saconzentrar segl sgol an direcziùn da Nyssi a Thassalin, ear scha l'otra bestia persequitava els. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Las rapreschantaziùns da Siso da la teara a da l'aua an egna nova exposiziùn </t>
   </si>
   <si>
     <t>"People Swimming in the Swimming Pool" digl on 2022 e egn'ovra d'art da Vicente Siso ca vean exponida davent digls 13 da schaner an la galareia "Tierra del Sol" (fotografeia mess a disposiziùn da Vicente Siso)</t>
   </si>
   <si>
-    <t>"Vicente Siso: Memories of the Land and Water" - quegl e igl tetel da l'exposiziùn agl nov liac da la galareia "Tierra del Sol" a West Hollywood. Siso fa davent da 2012 part sco artist digl Studio Arts Program a mussa ussa si'amprema exposiziùn parsunala. Siso e naschieu igl on 1962 a Madrid ad e carschieu sei a Venezuela, Trinidad a Miami. Cun bien veintg ons e el ieu a star cun sia famiglia agl sid da la California.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An numerusas serias da cuntradas, portrets a natiras mortas cun acril, pastel, risplei near aquarel mussa Siso sieus anschign magistral. Inspiro da portrets da famiglia, da sias atgnas fotografeias da referenza a da ragurdientschas, mussan sias cumposiziùns plagn calurs l'antiera paleta da sieus inetress a da sia savida an diferaintas medias. Sias cuntradas tropicas e maritimas reflecteschan igls liacs digl sieus passo an musters detaglios. Ear parsùnas vignan integradas per crear coliaziùns impurtàntas trànter la cultura, la ragurdientscha a la natira. Siso titulescha sias ovras d'art an egna mascheda da spagnol ad angles - egn segn par las cumplexitads zelebradas ad aschi impurtàntas da sia veta agl Los Angeles County. L'exposiziùn "Vicente Siso: Memories of the Land and Water" vean inaugurada sonda, igls 13 da schaner, cun in ratschavida da las 18:00 antocen las 20:00 uras. L'exposiziun cuza antocen dumeingia, igls 3 da marz. </t>
-  </si>
-  <si>
-    <t>Galareia "Tierra del Sol", 7414 Santa Monica Blvd. Ulteriuras infurmaziùns catas Vus sen tierradelsolgallery.org.</t>
-  </si>
-  <si>
-    <t>Adatar igl vigl, integrar igl nov par sschliear problems</t>
-  </si>
-  <si>
-    <t>Sen plàn districtual stuagn nus me dar egn'iglieada agl Central Business District da Sydney: egna cuntrada oriundameing nunurbanisada e satransfurmada igl amprem an egn abitadi cun bietgs da dus plàns cun egn'òlteztga maximala da 46 meters a suainter an egn martgieu cun las turs cuglianusas dad oz. An blear ple pintga dimensiùn sa quegl suczeder agls zenters da Sydney antuorn igls puncts zentrals da trafic. Ear igls quartiers digl zenter digl martgieu ston sasvilupar anavànt, cun egna tendenza ca va an direcziùn da spazi d'abitar ple favurevel cun bietgs ca vignan survargieus anavànt da plàntas an las zonas prinzipalas. Natiralmeing sto que spazi d'abitar creao da nov parschuader quegl ca partutga igl design, e las plàntas, la concepziùn da la cuntrada ad igls parcs ston vagnir integros an l'infrastructura essenziala existenta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noss sistem da planisaziùn sto mademameing s'adatar, par ca las parsùnas rasponsablas agls cussegls districtuals digls zenters digl martgieu, c'ân pletost egna tenuta critica anviers midadas, determineschian betga sulets la conzepziùn futura da lur quartiers. Egna pussevladad fuss d'installar egn post da dezisiùn independent ca s'angascha par conzepts d'òlta qualitad, ca fineschan sen l'òlteztga da las plàntas a risguardan spazi par famiglias, grànds balcùns a curtgens da cuminànza - e parschuadan ear visualmeing. Quegl savess easser egna leztga par igl actual arcitect da la regenza da NSW, sabasànd sen egn'ordinaziùn elavurada cun quito. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agl dacurs digls davos 10 ons e la nossa veta vagnida transfurmada da la tecnologeia. Blearas a blears lavuran davent da tgea a Sydney â survagnieu egna ret impressiunànta da metros a da veiafiers urbanas. Las cumpras online ân mido nossa moda da far shopping, a graztga igls telefonets san amitgs a famiglias restar miglier an contact. Prezis talas adataziùns d'egn sistem a l'oter en ear pussevels an noss conturn da construcziùn. An que context e'gl da meter igl aczent da la planisaziùn sen egna reutilisaziùn adaptiva a betga sen egna cunversaziùn favorisada digl vigl.  </t>
-  </si>
-  <si>
     <t>Chris Johnson eara arcitect da la regenza da NSW da 1995 antocen 2005 a directur executiv da la partiziùn da planisaziùn da NSW da 2005 antocen 2009. Davent digl on 2011 antocen 2019 e el sto CEO da la Urban Taskforce Australia.</t>
   </si>
   <si>
     <t xml:space="preserve">Egn'intervenziùn finala par l'egalisaziùn trànter duna ad um </t>
   </si>
   <si>
-    <t xml:space="preserve">Igl on passo â igl Forum mundial d'economia prognostitgieu c'igl vean a cuzar tschentg generaziùns par fràncar l'egalisaziùn da las schlatas an mintga teara. Ussa less la Banca mundiala scurzanir considerablameing que rom da tains. </t>
-  </si>
-  <si>
-    <t>L'instituziùn internaziunala da finanzas e par introdutgear egna strategeia par promover a moda significativa las schànzas economicas da las buabas e da las dunas antocen igl on 2030. Igl plan saconzentrescha sen la fegnamira da migliurar l'inclusiùn a la resilienza cun dar aczess a las finanzas, a l'inovaziùn tecnica a cun midadas da las directivas a leschas publicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La parscrutaziùn fatga da curt â demusso ca schibagn las normas sozialas sco ear las modas da patartgear san samidar, a ca l'integraziùn digls umens a digls buabs par exaimpel sa gidar a sustaner l'egalisaziùn da las schlatas, san ign liger an egn sboz da consultaziùn digl plan. "Resultats positivs an conex cun l'egalisaziùn san vagnir aczeleros e scalos, sch'ign capescha miglier ... co las normas a tenutas sozialas influenzeschan las spetgas, prioritads a pratgas quotidianas." </t>
-  </si>
-  <si>
-    <t>Midadas el patartgear en ple greavas da quantifitgear, cumparaglieu cun amprests bancars par dunas sen la teara near anunzatgas da scola par buabas. Tutegna dat igl numerus indezis ca mussan ca l'integraziùn da dunas sa spustar muntognas. Agl Iran par exeaimpel en las dunas davantadas la ple grànda schmanatscha par la regenza islamica davent da 40 ons: ellas ân refuso da risguardar las leschas ca sforzan ellas da curvatar igls tgavels. An zaquàntas  da las 130 tearas cun quotas minimalas par la rapreschantaziùn da dunas an la regenza, par exaimpel an l'India, e la resistenza masculina ancùnter igl dretg da votar a l'activitad politica da las dunas sareduzida.</t>
-  </si>
-  <si>
-    <t>An zaquàntas vischnàncas ruralas an l'Africa ramplazan organisaziùns da la soziatad zivila egn ritus d'iniziaziùn extrem donagevel cun egn'educaziùn da sànadad. Egn da quels programs â gido Kamanda Timayio, schef tradiziunal da la vischnànca da Masai Maparasha, Kenia, da midar sia tenuta anviers la sfiguraziùn genitala feminina. El â getg anviers Le Monde c'el vegi "surmunto sia ignorànza" e c'el vigni a bandunar la pratga.</t>
-  </si>
-  <si>
-    <t>La Banca mundiala zitescha ulteriurs exaimpels. Da 1970 antocen 2022 e la quota d'alfabetisaziùn da las dunas a Bangladesch quadruplicada a la partizipaziùn da las dunas agl martgieu da lavur e sadublageada. Igl product interiur brut da la teara e samultiplico cun tres. La midada â svilupo sia atgna dinamica. La tenuta da las dunas sco surmestras e luvraintas da sànadad paglieadas an las vischnàncas sezas â creo fidànza "ad â fatg ca la mobilitad a l'activitad professiunala da las dunas  e ple aczeptada an la sozietad."</t>
-  </si>
-  <si>
-    <t>Igl plan da la banca safocusescha sen las normas ad instituziùns, an las qualas la midada da generaziùn e forza ànc betga suczedida. An la Ruanda agl duvro pli ca dus dezenis antocen ca la teara e vagnida da s'etablir sco model par reformas agraras ad â promovieu egn'autonomisaziùn economica da las dunas. "Igl gida a nign, scha las dunas vignan tànidas a bass", â igl president da la Ruanda Paul Kagame getg, cura c'el e s'exprimieu 2015 a favur da la reforma agrara. "Nus stuagn midar las modas da patatgear, betga me las leschas."</t>
-  </si>
-  <si>
-    <t>La Banca mundiala spera da saver darasar que messadi.</t>
-  </si>
-  <si>
     <t>Igls purs ad igls locomotivists da la Tearatudestga fan tema agls impressareals tudestgs.</t>
   </si>
   <si>
-    <t>An Tearatudestga, noua c'igls luvraints a patrùns fan marschar anzemel blearas interpresas, en tgumas gràndas nunusitadas. Egna grànd'unda da tgumas â'gl strusch do egn ea. Mo actualmeing â la "teara da la condezisiùn" da saconfruntar cun egn'eanda da tguma, durànt la quala betga mo purs vilentos bloceschan las veias cun tracturs otg dis a la lùnga, mobagn ear luvraints da veiafier fan egna tguma da tres gis. A sco scha quegl tànschess betga, ân uss ear igls miedis smanatschieu da far tguma, a gea trànter Nadal a Daniev ân pratgas da miedi gieu saro las portas. Quegl "mob da furtgas", sco zaquànts numnan quegl, vean a meter an amprova las relaziùns harmonicas en Tearatudestga l'antscheata digl on.</t>
-  </si>
-  <si>
-    <t>Igls protests en sco'gl para vagnidas provotgeadas antras la dezisiùn da la regenza da strischear las subvenziùns par igl diesel an l'agricultura a da redutgear igls leavgiamaints da taglia par vehicels agricols. Quellas masiras ân surpasso las limitas digls purs. Els ân mobiliso ear ulteriurs luvraints vilentos ca scheman gea sut la cargia da l'inflaziùn, da la rezessiùn economica a digl curs da spargn imponius da la regenza. Igls 9 da schaner ân igls conducturs da trens da vitgira a da parsùnas da la Deutsche Bahn inizio la tguma par protestar ancùnter igls tains da lavur ad igl pajamaint.</t>
-  </si>
-  <si>
-    <t>Par reduzir las tensiùns cun igls purs e la regenza sadeclarada prùnta da reduzir suczesivameing las subvenziùns digl disel agl dacurs digls proxims tres ons. Ear la liberaziùn da la taglia sen vehicels agricols duess vagnir mantanida. Igls purs ân refuso las conzessiùns, taxànd ellas sco insufiziaintas. Igls 4 da schaner â igl minister da l'economeia Robert Habeck lieu bandunar egna bartga suianter igl sieus return da las vacànzas cun la famiglia, mo egna grupa da protestaders agressiva â ampruvo d'impedir quegl. Sch'igls locomotivists duessen ear samussar sco poc impressiunos, savess quegl vagnir tgear par l'economeia tudestga, valetescha igl Institut par la parscrutaziùn economica IW da Cologna. La tguma da las veiafiers pudess custar l'economeia 100 miliùns euros agl gi, scha la producziùn stuess vagnir interruta. L'industreia d'autos, da cemeia e d'itschal, las ple gràndas branschas economicas da la Tearatudestga, en particularmeing dependentas digl transport da vitgira cun la veiafier.</t>
-  </si>
-  <si>
-    <t>L'atmosfera trànter igls luvraints vean adigna ple vilada. "Igl curseschan apels cun fantaseias da revoluziùn", â Habeck admonieu. La partida da l'exrema da dretg Alternative für Deutschland fa igl sieus miglier par alimantar quellas protestas. A Dresden ân igls Libers Saxons, egn'ulteriura partida da l'exrema da dretg, infiltro las protestas digls purs ad apelo da "stizar l'ampla".</t>
-  </si>
-  <si>
-    <t>Thomas Puls digl IW a Cologna tema ca las tgumas savessan far don a la reputaziùn da la Tearatudestga sco plaza economica. Interprendiders locals fan gea quitos c'igl deti egna versiùn tudestga da las protestas da las vestas melnas sco an Fràntscha igl on 2018, c'en idas a finir cun demonstrants ca ân do fiac ad autos sen igl Champs-Élysées a cun la polizeia c'e intervagnida cun gas lacrimogen. Jochen Kopelke, schef digl sindicat da polizeia, â admonieu an egn'intervista cun igl Tagesspiegel: "Las protestas digls purs en probablameing per l'antscheata d'egna enorma unda da protestas ca vean a cuntànscher nus uon". La Tearatudestga e stada la sula da las regiùns economicas gràndas c'e sareduzida 2023, ad igl on e ieu a fegn cun egna nota spezialmeing petra: egn sbassamaint nunspitgieu da la cunfidànza economica igl dezember. Igl on curaint savess davantar ànc ple greav.</t>
-  </si>
-  <si>
-    <t>Igls bierers en vilos c'igls produzents da vegn vignan liberos da las prescripziùns davart la reducziun digl rumient</t>
-  </si>
-  <si>
-    <t>Agl rom da las debatas da l'UE davart las prescripziùns par reduzir igl rumient argumenteschan las bierareias ca las exzepziùns acordadas agls viticulturs an conex cun las fegnamiras da reutilisaziùn ad igls sistems da rembursamaint digl deposit disavantageschien ellas. Egn digls rasponsavels da l'Associaziùn europeica da l'industria da vegn manegia dantànt c'igls bierers "degian s'ocupar da lur agens afars."</t>
-  </si>
-  <si>
     <t>Las bierareias europeicas admoneschan c'igl segi malgest a forza ilegal d'acordar exzepziùns da las fegnamiras da reutilisaziùn a digls sistems da rembursamaint digl deposit par igl vegn, dantànt betga par la biera. Dantànt van igls legislaturs an la davosa runda da discussiùn davart egna nova lescha ca duess dar la vieulta a las muntognas da rumient d'ambaladis carschaintas an l'UE.</t>
   </si>
   <si>
@@ -1883,79 +1325,1598 @@
     <t>A lur santupada suprema digls 18 da dezember ân igls ministers conclus egn'exzepziùn par igls viticulturs da l'obligaziùn da porscher 10 % digls products an trucs reutilisabels an egn sistem da reutilisaziùn near da reamplanida antocen la fegn digl dezeni. Antocen igl on 2040 duess quella part s'augmentar a 40 %. Quell'exzepziùn duess ear valer par la pratensiùn d'excluder igl vegn digls sistems da rambursamaint digl deposit. Quella pratensiùn vean mademameing sustanida digl Parlament europeic a duess vagnir introdutgeada agl rom da la proposta antocen igl on 2029.</t>
   </si>
   <si>
-    <t>Ear sch'igl minister tschec ad igl minister beltg ân imediat exprimieu lur resalvas davart igl tractamaint inegual digls bierers a la santupada suprema digls 18 da dezember, ân els do lur cunsantimaint. La Belgia, c'e uss an roda da manar igl presidi da l'UE a ca stuess parquegl restar neutrala an las negoziaziùns trànter las regenzas, spera c'igl deti antocen l'antscheata da marz egna cunvegna cun igl parlamaint.</t>
-  </si>
-  <si>
-    <t>Ignacio Sánchez Recarte, secretari general da l'assoziaziùn europeica da l'industreia da vegn, igl Comité Européen des Entreprises Vin, ca rapreschainta ver 7.000 viticulturs an l'antira Europa, pertga betga las resalvas digls bierers. El â getg anviers Euronews c'egn martgieu domino da conglomerats da bierarias multinaziunalas, setgi batga vagnir cumpareglios cun egna branscha ca sacumponi bunameing digl tutafatg me da pitgs produzents naziunals.</t>
-  </si>
-  <si>
-    <t>Daple ca 99 % da la branscha da vegn indigena cunsistan d'interpresas fetg pintgas antocen masànas, â Sánchez Reacarte getg. El â ear mess an dumonda la valur digls argumaints giuridics c'en vagnieus fatgs valer da las bierareias. Tanor igl sieus meni segi sia organisaziùn sastentada da preschantar agls purtaders da dezisiùn infurmaziùns "relevàntas ad adequatas" par lur atgna branscha.</t>
-  </si>
-  <si>
-    <t>Igl e betga mia rola da valetar, scha la branscha da biera duess aver quella near l'otra fegnamira, parquegl ca quegl dependa da caracteristicas concretas da sia atgna branscha, â Sánchez Recarte declaro. "Parquegl duessan igls bierers s'ocupar da lur agens afars e saconzentrar sen lur atgnas obligaziùns."</t>
-  </si>
-  <si>
     <t>Brewers of Europe â partgieu egna curta analisa giuridica cun Euronews ca l'assoziaziùn â tarmess igl on passo a la Cumissiùn europeica. An quella argumentescha ella c'igl vegn a la biera segian products concuraints "seglmains par part ramplazabels egn cun l'oter", a ca reglas ca favoriseschen egna branscha anviers l'otra defurmeschan igl martgieu.</t>
   </si>
   <si>
-    <t>Simon Spillane, igl schef operativ da la lobby, â getg c'igls bierers ocupeschian gea "egna posiziùn da leader" sch'igl va par ambaladis persistents. Latier inditgescha el sen igl exaimpel digls butschegns da biera ca san vagnir reutilisos radund 165 geadas avànt c'els vignan zavros a reziclos suainter 30 ons. Els sustegnan igls sistems da reutilisaziùn a da rezicladi gea introdutgieu an blearas tearas.</t>
-  </si>
-  <si>
-    <t>"Parquegl plidagn nus par egna reglamentaziùn ambiziunada partutgànt igls ambaladis ad igl rumient d'ambaladis. Mo nus duvragn ear cundiziùns egualas an la legislaziùn davart igls ambaladis ca parmeta da tractar la biera ad otras bavràndas alcoholicas tanor las medemas reglas. Mintga branscha duess contribuir an la madema maniera par cuntànscher las fegnamiras a sustaner igls sistems da rimnada", â Spillane getg. "Mintg'otra avischinaziùn mùnta egn disavantatg da concurenza par igls bierers."</t>
-  </si>
-  <si>
     <t>L'administraziùn da Biden lascha liber igls criminals economics</t>
   </si>
   <si>
-    <t>Tim Whitehouse, igl anteriur advocat da la U.S. Environmental Protection Agency (EPA) e magnafatschenda da Public Employees for Environmental Responsibility, â ludo igls migliuramaints rezents da l'administraziùn da Biden par meter an vigur la lescha davart igl ambiaint, â dantànt ear conzedieu ca tals sforzs frùntan sen blear resistenza. "Igl drova ons da finànziaziùn fidada a da sustegn politic per svilupar egn bùn program par meter an vigur la lescha", â el getg a mei. "L'instabilitad digl Congress demoralisescha betga me igl parsunal da l'EPA, mobagn sutminescha ear lur capazitad da patartgear strategicameing a lùnga vesta."</t>
-  </si>
-  <si>
-    <t>Igls problems da l'EPA en betg identics, mo cumparaglievels cun quels digl ministeri da giustia. Sia partiziùn Environment and Natural Resources Division (ENRD) safatschenta cun la criminalitad ambientala. Uhlmann, igl vizeminister par l'aplicaziùn da las leschas, e sto avànt ca vagnir tier l'EPA, da 1990 antocen 2007 manader digl sectur da la criminalitad ambientala. L'EPA tarmeta seas ple greavs cass zivils a penals a l'ENRD ca sabasa sco autoritad pletost malameing finanziada, savens sen oters par dezeder tge cumbats manar. Igl on da gestiùn 2022 â l'EPA transmess ple pocs cass (88) agl ministeri da giustia davent igl on 2000 ad â termino las ple pocas prozeduras zivilas davent quella data. Sco manziuno agl project par l'integritad ambientala â l'EPA termino schizùnd sut Trump an media 94 prozeduras zivilas a transmess agl minister da giustia 106 cass ad on.</t>
-  </si>
-  <si>
-    <t>La prozedura generala digl ministeri da giustia an conex cun igls cass da criminalitad economica e vagnida examinada an detagl digls adherents. Igls observaders ân ludo zaquànts pass introdutgieus digl ministeri sut Merrick Garland sco minister da giustia - sco par exaimpel la creaziùn d'ina banca da datas par la criminalitad ambientala. Igl ministeri da giustia da Biden e dantànt ear sabasso fearmameing sen igls programs da pardetgas prinzipalas ca parmetan a las interpresas da ratardar near d'evitar egna persecuziùn penala ad ancurascha ellas da denunztgear singuls colavuratur par evitar acusaziùns ple cumplessivas. Kenneth Polite Jr., igl anteriur substitut digl minister da giustia an la partiziùn da criminalitad, â revedieu las directivas d'aplicaziùn da la partiziùn par interpresas par limitar las persecuziùns.</t>
-  </si>
-  <si>
     <t>Debata davart igl shutdown nutrescha igl conflict digls republicans</t>
   </si>
   <si>
-    <t>Igls adversaris da las expensas, igls conservativs an la tgombra digls rapreschantànts, en s'oponieus ancùnter igls manaders da la partida ad ân fatg ir da l'aua giou egna retscha da votaziùns. Ascheia ân els protesto ancùnter la ple rezenta cunvegna d'expensas digl president Mike Johnson cun igls manaders digls democrats, ca preveza tanor els betga reducziùns sufiziaintas digl budget.</t>
-  </si>
-  <si>
-    <t>Ànc ussa sa igl republican da Louisiana ir ord veia agl tema, mo la data finala par la deliberaziùn da quater digls dudesch preventivs anuals e igls 19 da schaner. Johnson â declaro publicameing c'el vigni betg a sustàner egna lescha transitoria numnada "Continuing Resolution" par extender igl termin da quels quater sbozs da lescha sen igl termin digls otg restànts igls 2 da favrer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An vesta digl fatg c'igl va mo ple nov gis antocen que termin, â igl schef da la fracziùn republicana agl senat, Mitch McConnell, anunztgieu c'igl congress stotgi deliberar egna "Continuing Resolution" par taner la regenza agl curaint. Quegl mùnta c'igl president da la tgombra savess bagnbòld rumper egn'amparmaschùn, cun la quala el leva quietar an amprema lingia l'ala dretga da sia partida. Egna tala manevra savess caschunar egna viva debata ideologica davart la rola digls republicans an dumondas da la reducziùn da las expensas, quegl ca savess manar ad egn shutdown parzial da la regenza near a la relaschada d'ufezi da Johnson.  </t>
-  </si>
-  <si>
-    <t>Igl deputo digl congress Matt Rosendale da Montana â declaro anviers Newsweek: "Jou ve getg clerameing ca 'Continuing Resolutions' en betga la veia adatada par finanztgear nossa regenza, cunquegl ca la lescha davart igl preventiv da 1974 preveza l'aprobaziùn da 12 projects da credit. Nus vagn gieu tains ple c'avunda, a sch'igls manaders assegnan betga las cumissiùns da far lur lavur a da schar votar igls cumembers digl Congress, alura e quegl igl motiv par igl naufragi."</t>
-  </si>
-  <si>
-    <t>Igl plidader da la tgombra digls rapreschantànts, Mike Johnson, agl U.S. Capitol igls 12 da dezember 2023 a Washington, D.C. Johnson stat avànt egna fracziùn republicana rebela c'e nunabla da cuntànscher egn acord davart l'òltezia da las expensas budgetaras. Fotografeia: Kevin Dietsch/Getty Images</t>
-  </si>
-  <si>
-    <t>Rosendale, ca fa part da la grupa ultradretga Freedom Caucus, e sto egn da quels ca ân fatg ir da l'aua giou la votaziùn da measeanda. Tanor el e la summa totala da la proposta da Johnson megna òlta ad insufizianta par reduzir igls dabets statals da 34 biliùns dolars.</t>
-  </si>
-  <si>
-    <t>Rosendale â ear fatg part digls 71 republicans c'en s'oponieus ancùnter igl Fiscal Responsibility Act: la lescha davart la rasponsabladad fiscala, negoziada trànter igls democrats ad igl anteriur plidader Kevin McCarthy, ca determinescha las cundiziùns da basa par las rezentas negoziaziùns da Johnson cun igl schef digls democrats agl senat, Charles Schumer.</t>
-  </si>
-  <si>
-    <t>Durànt ca Johnson â ludo igls marets da sieus acord c'ampurmeti da spargnear expensas da var 16 miliardas dolars, e igl Freedom Caucus digl meni c'el vess savieu cuntànscher daple. Igls republicans moderos c'ân sustanieu igl acord da McCarthy, considereschan quella tanuta sco nunrealistica a cuntraria a la fegnamira digls republicans da sfurzar igl congress d'aprobar igls dudesch sbozs a moda individuala a da betga reunir els cun egn'aschi numnada prozedura d'omnibus an egna suleta votaziùn sco igls davos ons.</t>
-  </si>
-  <si>
-    <t>"On nov, mo igl madem cumportamaint idiotic dad anzaquànts, â igl deputo republican Mike Lawler da New York declaro anviers Newsweek. "Cunquegl c'e vean a dar nigna prozedura d'omnibus, sto mintga sboz da lescha vagnir delibero a negozio separadameing. Sco'gl para vagnagn nus probablameing a duvrar daple tains par quegl. Ad jou sustegn betga egn shutdown - peia ve jou ear nign problem cun egna 'Continuing Resolution' a curta vesta, par ca quegl prozess setgi vagnir mano ad egna bùna fegn."</t>
-  </si>
-  <si>
-    <t>Igl fuss l'amprema geada davent 1996 c'igl congress aprobass tut igls dudesch sbozs da lescha separadameing. Tanor Lawler val'igl la pagna d'aprobar igls quater sbozs da lescha cun retard, par garantir egn prozess ordino. Sch'igl reusseschi betg agl congress d'aprobar igls dudeschs sbozs da lescha antocen igl dezember, vean igl aplico tanor igl Fiscal Responsibility Act egna reducziùn digl budget d'egn partschient sen las expensas agls secturs da la defensiùn a da la nundefensiùn.</t>
-  </si>
-  <si>
     <t>Igl deputo digl congress Thomas Massie da Kentucky - probablameing egn digls ple dadòlts adversaris da las expensas da la Partida republicana - â betga fatg part da quels c'ân protesto meaeanda ancùnter la votaziùn. El â dantànt declaro c'egna 'Continuing Resolution' d'egn on cun la consequenza d'egna reducziùn da las expensas par egn partschient segi la veia la ple praticabla par garantir igl funcziùnamaint da la regenza ad igl madem mumaint terminar igl flatem cun igl risico.</t>
   </si>
   <si>
-    <t>La veia la ple rasponsavla par cuntànscher la redcuziùn da las expensas e tanor Massie dantànt d'aprobar tut igls sbozs da lescha. Blears republicans vutan dantànt betg exnum ristgear egn shutdown ad ascheia egna reducziùn d'egn partschient da las expensas par la defensiùn. L'urgenza, cun la quala igls sbozs da lescha ston vagnir aprobos, savess contribuir c'egn diember sufiziaint da republicans s'aliescha cun igls democrats par prolùngir igl termin digls amprems quater sbozs da lescha a cuntonscher egn acord davart la finanziaziùn da la lavur da la regenza, ear scha quegl mùntass ca Johnson savess survagnir problems cun zaquànts hardliners da l'ala dretga.</t>
-  </si>
-  <si>
-    <t>„Ella [la reducziùn d'egn partschient] duess easser motivaziùn a mied da pressiùn par aprobar separadameing igls dudeschs sbozs da lescha“, â Massie declaro anviers Newsweek. „Tanor me savessen nus aprobar igl amprem egna 'Continuing Resolution', suainter baratar noss argumaints, a cura ca nus stagn alura avànt que pintg obstacel, en sprànza tuts motivos d'agir a moda raschunevla. Ascheia fagess jou quegl.“</t>
+    <t>"Vicente Siso: Memories of the Land and Water" - quegl e igl tetel da l'exposiziùn agl nov liac da la galareia "Tierra del Sol" a West Hollywood. Igl Siso fa davent da 2012 part sco artist digl Studio Arts Program a mussa ussa la si'amprema exposiziùn parsunala. Igl Siso e naschieu igl on 1962 a Madrid ad e carschieu sei a Venezuela, Trinidad a Miami. Cun anturn veintg ons e el ieu a star cun la sia famiglia agl sid da la California.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An numerusas serias da cuntradas, portrets a natiras mortas cun acril, pastel, risplei near aquarel mussa igl Siso sieus anschegn magistral. Inspiro da portrets da famiglia, da las sias atgnas fotografeias da referenza a da ragurdientschas, mussan las sias cumposiziùns plagn calurs l'antiera paleta digl sieus inetress a da la sia savida an diferaintas medias. Las sias cuntradas tropicas a maritimas reflecteschan igls liacs digl sieus passo an musters detaglieus. Ear parsùnas vignan integradas par crear culiaziùns impurtàntas trànter la cultura, la ragurdientscha a la natira. Igl Siso titulescha las sias ovras d'art an egna mascheda da spagnol ad angles - egn segn par las cumplexitads zelebradas ad aschi impurtàntas da la sia veta agl Los Angeles County. L'exposiziùn "Vicente Siso: Memories of the Land and Water" vean inaugurada sonda, igls 13 da schaner, cun egna ratschavida da las 18:00 antocen las 20:00 uras. L'exposiziun cuza antocen dumeingia, igls 3 da marz. </t>
+  </si>
+  <si>
+    <t>Galareia "Tierra del Sol", 7414 Santa Monica Blvd. Ulteriuras infurmaziùns cataz Vus sen tierradelsolgallery.org.</t>
+  </si>
+  <si>
+    <t>Adatar igl vigl, integrar igl nov par schliear problems</t>
+  </si>
+  <si>
+    <t>Sen plàn districtual stuagn nus me dar egn'iglieada agl Central Business District da Sydney: Egna cuntrada oriundameing nunurbanisada â satransfurmo igl amprem an egn abitadi cun bietgs da dus plàns cun egn'òlteztga maximala da 46 meters a suainter an egn martgieu cun las turs cuglianusas dad oz. An blear ple pintga dimensiùn sa quegl suczeder agls zenters da Sydney anturn igls puncts zentrals da trafi. Ear igls quartiers digl zenter digl martgieu ston sasvilupar anavànt, cun egna tendenza ca va an direcziùn da spazi d'abitar ple favurevel cun bietgs ca vignan survargieus anavànt da plàntas an las zonas prinzipalas. Natiralmeing sto que spazi d'abitar creao da nov parschuader quegl ca partutga igl design, a las plàntas, la concepziùn da la cuntrada ad igls parcs ston vagnir integros an l'infrastructura essenziala existenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl noss sistem da planisaziùn sto mademameing s'adatar, par ca las parsùnas raspunsavlas agls cunzegls districtuals digls zenters digl martgieu, c'ân pletost egna tenuta critica anviers midadas, determineschian betga sulets la conzepziùn futura da lur quartiers. Egna pussevladad fuss d'instalar egn post da dezisiùn independent ca s'angascha par conzepts d'òlta qualitad, ca fineschan sen l'òlteztga da las plàntas a resguardan spazi par famiglias, grànds balcùns a curtgegns da cuminànza - a parschuadan ear visualmeing. Quegl savess easser egna leztga par igl actual arcitect da la regenza da NSW, sabasànd sen egn'ordinaziùn elavurada cun quito. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agl dacurs digls davos 10 ons e la nossa veta vagnida transfurmada da la tecnologeia. Blearas a blears lavuran davent da tgea a Sydney â survagnieu egna ret impressiunànta da metros a da veiafiers urbanas. Las cumpras online ân mido la nossa moda da far shopping, a graztga igls telefonets san amitgs a famiglias star miglier an contact. Prezis talas adataziùns d'egn sistem a l'oter en ear pussevlas agl noss conturn da construcziùn. An que context e'gl da meter igl aczent da la planisaziùn sen egna reutilisaziùn adaptiva a betga sen egna cunversaziùn favorisada digl vigl.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl on passo â igl Forum mundial d'economeia prognostitgieu c'igl vean a cuzar tschentg generaziùns par fràncar l'egalisaziùn da las schleatas an mintga teara. Ussa less la Bànca mundiala scurzanir considerablameing que rom da tains. </t>
+  </si>
+  <si>
+    <t>L'instituziùn internaziunala da finànzas e par introdutgear egna strategeia par promover a moda significànta las schànzas economicas da las buabas a da las dunas antocen igl on 2030. Igl plan saconzentrescha sen la fegnamira da migliurar l'inclusiùn a la resilienza cun dar aczess a las finànzas, a l'inovaziùn tecnica a cun midadas da las directivas a leschas publicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La parscrutaziùn fatga da curt â demusso ca schibagn las normas sozialas sco ear las modas da patartgear san samidar, a ca l'integraziùn digls umens a digls buabs par exaimpel sa gidar da sustaner l'egalisaziùn da las schleatas, san ign liger an egn sboz da consultaziùn digl plan. "Resultats positivs an conex cun l'egalisaziùn san vagnir aczeleros a scalos, sch'ign capescha miglier ... co las normas a tenutas sozialas influenzeschan las spetgas, prioritads a pratgas quotidianas." </t>
+  </si>
+  <si>
+    <t>Midadas agl patartgear en ple greavas da quantifitgear, cumparaglieu cun amprests bancars par dunas sen la teara near anunztgas da scola par buabas. Tutegna dat igl numerus indezis ca mussan ca l'integraziùn da dunas sa spustar muntognas. Agl Iran par exaimpel en las dunas davantadas la ple grànda schmanatscha par la regenza islamica davent da 40 ons: ellas ân refuso da risguardar las leschas ca sforzan ellas da curvatar igls tgavels. An zaquàntas da las 130 tearas cun quotas minimalas par la rapreschantaziùn da dunas an la regenza, par exaimpel an l'India, â la resistenza masculina ancùnter igl dretg da votar a l'activitad politica da las dunas saredutgieu.</t>
+  </si>
+  <si>
+    <t>An zaquàntas vischnàncas ruralas an l'Africa ramplazan organisaziùns da la soziatad zivila egn ritus d'iniziaziùn extrem donagevel cun egn'educaziùn da sànadad. Egn da quels programs â gido agl Kamanda Timayio, schef tradiziunal da la vischnànca da Masai Maparasha, Kenia, da midar la sia tenuta anviers la sfiguraziùn genitala feminina. El â getg anviers Le Monde c'el vegi "surmunto la sia ignorànza" e c'el vigni a bandunar la pratga.</t>
+  </si>
+  <si>
+    <t>La Bànca mundiala zitescha ulteriurs exaimpels. Da 1970 antocen 2022 â la quota d'alfabetisaziùn da las dunas a Bangladesch quadruplitgieu a la partizipaziùn da las dunas agl martgieu da lavur â sadublagieu. Igl product interiur brut da la teara â samultiplitgieu cun tres. La midada â svilupo la sia atgna dinamica. La tenuta da las dunas sco surmestras a luvraintas da sànadad paglieadas an las vischnàncas sezas â creo fidànza "ad â fatg ca la mobilitad a l'activitad professiunala da las dunas  e ple aczeptada an la sozietad."</t>
+  </si>
+  <si>
+    <t>Igl plan da la bànca safocusescha sen las normas ad instituziùns, an las qualas la midada da generaziùn e forza ànc betga suczedida. An la Ruanda agl duvro ple ca dus dezenis antocen ca la teara e vagnida da s'etablir sco model par refurmas agraras ad â promovieu egn'autonomisaziùn economica da las dunas. "Igl gida a nign, scha las dunas vignan tanidas a bass", â igl president da la Ruanda Paul Kagame getg, cur c'el â s'exprimieu 2015 a favur da la refurma agrara. "Nus stuagn midar las modas da patatgear, betga me las leschas."</t>
+  </si>
+  <si>
+    <t>La Bànca mundiala spera da saver darasar que messadi.</t>
+  </si>
+  <si>
+    <t>An Tearatudestga, noua c'igls luvraints a patrùns fan marschar anzemel blearas interpresas, en tgumas gràndas nunusitadas. Egna grànd'unda da tgumas â'gl strusch do egn'eada. Mo actualmeing â la "teara da la cundezisiùn" da saconfruntar cun egn'eanda da tguma, durànt la quala betga me purs vilentos bloceschan las veias cun tracturs otg gis a la lùnga, mobagn ear luvraints da veiafier fan egna tguma da tres gis. A sco scha quegl tanschess betga, ân ussa ear igls miedis smanatschieu da far tguma, a gea trànter Nadal a Daniev ân pratgas da miedi gieu saro las portas. Que "mob da furtgas", sco zaquànts numnan quegl, vean a meter an amprova las relaziùns harmonicas an la Tearatudestga l'antscheata digl on.</t>
+  </si>
+  <si>
+    <t>Igls protests en sco'gl para vagnieus provotgieus antras la dezisiùn da la regenza da strischear las subvenziùns par igl diesel an l'agricultura a da redutgear igls leavgiamaints da taglia par vehicels agricols. Quellas masiras ân surpasso las limitas digls purs. Els ân mobiliso ear ulteriurs luvraints vilentos ca scheman gea sut la tgargia da l'inflaziùn, da la rezessiùn economica a digl curs da spargn imponieu da la regenza. Igls 9 da schaner ân igls conducturs da trens da vitgira a da parsùnas da la Deutsche Bahn iniziieu la tguma par protestar ancùnter igls tains da lavur ad igl pajamaint.</t>
+  </si>
+  <si>
+    <t>Par redutgear las tensiùns cun igls purs â la regenza sadeclaro prùnta da redutgear suczesivameing las subvenziùns digl diesel agl dacurs digls proxims tres ons. Ear la liberaziùn da la taglia sen vehicels agricols duess vagnir mantanida. Igls purs ân refuso las conzessiùns, taxànd ellas sco insufiziaintas. Igls 4 da schaner â igl minister da l'economeia Robert Habeck lieu bandunar egna bartga suainter igl sieus return da las vacànzas cun la famiglia, mo egna grupa da protestaders agressivs â ampruvo d'impedir quegl. Sch'igls locomotivists duessan ear samussar sco poc impressiunos, savess quegl vagnir tgear par l'economeia tudestga, valitescha igl Institut par la parscrutaziùn economica IW da Cologna. La tguma da las veiafiers pudess custar l'economeia 100 miliùns euros agl gi, scha la producziùn stuess vagnir interruta. L'industreia d'autos, da cemeia a d'itschal, las ple gràndas branschas economicas da la Tearatudestga, en particularmeing dependentas digl transport da vitgira cun la veiafier.</t>
+  </si>
+  <si>
+    <t>L'atmosfera trànter igls luvraints vean adigna ple vilada. "Igl curseschan apels cun fantaseias da revoluziùn", â igl Habeck admonieu. La partida da l'extrema da dretg Alternative für Deutschland fa igl sieus miglier par alimantar quellas protestas. A Dresden ân igls Libers Saxons, egn'ulteriura partida da l'extrema da dretg, infiltro igls protests digls purs ad apelo da "stizar l'ampla".</t>
+  </si>
+  <si>
+    <t>Igl Thomas Puls digl IW a Cologna tema ca las tgumas savessan far don a la reputaziùn da la Tearatudestga sco plaza economica. Interprendiders locals fan gea quitos c'igl deti egna versiùn tudestga da las protestas da las vestas melnas sco an Fràntscha igl on 2018, c'en idas a finir cun demonstrants c'ân do fiac ad autos sen igl Champs-Élysées a cun la polizeia c'â intervegnieu cun gas lacrimogen. Igl Jochen Kopelke, schef digl sindicat da polizeia, â admonieu an egn'intervista cun igl Tagesspiegel: "Las protestas digls purs en probablameing peer l'antscheata d'egna enorma unda da protestas ca vean a cuntànscher nus uon". La Tearatudestga e stada la sula da las regiùns economicas gràndas c'â saredutgieu igl 2023, ad igl on e ieu a fegn cun egna nota spezialmeing petra: egn sbassamaint nunspitgieu da la cunfidànza economica igl dezember. Igl on curaint savess davantar ànc ple greav.</t>
+  </si>
+  <si>
+    <t>Igls bierers en vilos c'igls produzents da vegn vignan liberos da las prescripziùns davart la reducziùn digl rumient</t>
+  </si>
+  <si>
+    <t>Agl rom da las debatas da l'UE davart las prescripziùns par redutgear igl rumient argumenteschan las bierareias ca las exzepziùns acordadas agls viticulturs an conex cun las fegnamiras da reutilisaziùn ad igls sistems da rembursamaint digl deposit disavantageschien ellas. Egn digls raspunsavels da l'Associaziùn europeica da l'industreia da vegn manegia dantànt c'igls bierers "degian s'ocupar da lur agens afars."</t>
+  </si>
+  <si>
+    <t>Ear sch'igl minister tschec ad igl minister beltg ân imediat exprimieu lur resalvas davart igl tractamaint inegual digls bierers a la santupada suprema digls 18 da dezember, ân els do lur cunsantimaint. La Belgia, c'e ussa an roda da manar igl presidi da l'UE a ca stuess parquegl restar neutrala an las negoziaziùns trànter las regenzas, spera c'igl deti antocen l'antscheata da marz egna cunvegna cun igl parlamaint.</t>
+  </si>
+  <si>
+    <t>Igl Ignacio Sánchez Recarte, secretari general da l'assoziaziùn europeica da l'industreia da vegn, igl Comité Européen des Entreprises Vin, ca rapreschainta ver 7.000 viticulturs an l'antiera Europa, pertga betga las resalvas digls bierers. El â getg anviers Euronews c'egn martgieu domino da conglomerats da bierarias multinaziunalas, setgi betga vagnir cumpareglieu cun egna branscha ca sacumpona bunameing digl tutafatg me da pintgs produzents naziunals.</t>
+  </si>
+  <si>
+    <t>Daple ca 99 % da la branscha da vegn indigena cunsistan d'interpresas fetg pintgas antocen masànas, â igl Sánchez Reacarte getg. El â ear mess an dumonda la valur digls argumaints giuridics c'en vagnieus fatgs valer da las bierareias. Tanor igl sieus meni segi la sia organisaziùn sastentada da preschantar agls purtaders da dezisiùn infurmaziùns "relevàntas ad adequatas" par lur atgna branscha.</t>
+  </si>
+  <si>
+    <t>Igl e betga la mia rola da valitar, scha la branscha da biera duess aver quella near l'otra fegnamira, parquegl ca quegl dependa da caracteristicas concretas da la sia atgna branscha, â igl Sánchez Recarte declaro. "Parquegl duessan igls bierers s'ocupar da lur agens afars a saconzentrar sen lur atgnas obligaziùns."</t>
+  </si>
+  <si>
+    <t>Igl Simon Spillane, igl schef operativ da la lobby, â getg c'igls bierers ocupeschan gea "egna posiziùn da leader" sch'igl va par ambaladis persistents. Latier inditgescha el sen igl exaimpel digls butschegns da biera ca san vagnir reutilisos radund 165 geadas avànt c'els vignan zavros a reziclos suainter 30 ons. Els sustegnan igls sistems da reutilisaziùn a da rezicladi gea introdutgieu an blearas tearas.</t>
+  </si>
+  <si>
+    <t>"Parquegl plidagn nus par egna reglamentaziùn ambiziunada partutgànt igls ambaladis ad igl rumient d'ambaladis. Mo nus duvragn ear cundiziùns egualas an la legislaziùn davart igls ambaladis c'ampurmeta da tractar la biera ad otras bavràndas alcoholicas tanor las mademas reglas. Mintga branscha duess contribuir an la madema maniera par cuntànscher las fegnamiras a sustaner igls sistems da rimnada", â igl Spillane getg. "Mintg'otra avischinaziùn mùnta egn dischavantatg da concurenza par igls bierers."</t>
+  </si>
+  <si>
+    <t>Igl Tim Whitehouse, igl anteriur advocat da la U.S. Environmental Protection Agency (EPA) a magnafatschenda da Public Employees for Environmental Responsibility, â ludo igls migliuramaints rezents da l'administraziùn da Biden par meter an vigur la lescha davart igl ambiaint, â dantànt ear cunzedieu ca tals sforzs frùntan sen blear resistenza. "Igl drova ons da finànziaziùn fidada a da sustegn politic par svilupar egn bùn program par meter an vigur la lescha", â el getg a mei. "L'instabilitad digl Congress demoralisescha betga me igl parsunal da l'EPA, mobagn sutminescha ear lur capazitad da patartgear strategicameing a lùnga vesta."</t>
+  </si>
+  <si>
+    <t>Igls problems da l'EPA en betg identics, mo cumparaglievels cun quels digl ministeri da gisteia. La sia partiziùn Environment and Natural Resources Division (ENRD) safatschainta cun la criminalitad ambiaintala. Uhlmann, igl vizeminister par l'aplicaziùn da las leschas, eara sto avànt ca vagnir tier l'EPA, da 1990 antocen 2007 manader digl sectur da la criminalitad ambientala. L'EPA tarmetaigls seas ple greavs cass zivils a penals a l'ENRD ca sabasa sco autoritad pletost malameing finanziada, savens sen oters par dezeder tge cumbats manar. Igl on da gestiùn 2022 â l'EPA transmess ple pocs cass (88) agl ministeri da gisteia davent igl on 2000 ad â termino las ple pocas prozeduras zivilas davent quella data. Sco manziuno agl project par l'integritad ambientala â l'EPA termino schizùnd sut Trump an media 94 prozeduras zivilas a transmess agl minister da gisteia 106 cass ad on.</t>
+  </si>
+  <si>
+    <t>La prozedura generala digl ministeri da gisteia an conex cun igls cass da criminalitad economica e vagnida examinada an detagl digls adherents. Igls observaders ân ludo zaquànts pass introdutgieus digl ministeri sut Merrick Garland sco minister da gisteia - sco par exaimpel la creaziùn d'egna bànca da datas par la criminalitad ambientala. Igl ministeri da gisteia da Biden â dantànt ear sbasso fearmameing sen igls programs da pardetgas prinzipalas c'ampurmetan a las interpresas da ratardar near d'evitar egna persecuziùn penala ad ancurascha ellas da denunztgear singuls colavuraturs par evitar acusaziùns ple cumplessivas. Igl Kenneth Polite Jr., igl anteriur substitut digl minister da gisteia an la partiziùn da criminalitad, â revedieu las directivas d'aplicaziùn da la partiziùn par interpresas par limitar las persecuziùns.</t>
+  </si>
+  <si>
+    <t>Igls adversaris da las expensas, igls conservativs an la tgombra digls rapreschantànts, ân s'oponieu ancùnter igls manaders da la partida ad ân fatg ir da l'aua giou egna retscha da votaziùns. Ascheia ân els protesto ancùnter la ple rezenta cunvegna d'expensas digl president Mike Johnson cun igls manaders digls democrats, ca preveza tanor els betga reducziùns sufiziaintas digl budget.</t>
+  </si>
+  <si>
+    <t>Ànc ussa sa igl republican da Louisiana ir ord veia agl tema, mo la data finala par la deliberaziùn da quater digls dudesch preventivs anuals e igls 19 da schaner. Igl Johnson â declaro publicameing c'el vigni betg a sustaner egna lescha transitoria numnada "Continuing Resolution" par extender igl termin da quels quater sbozs da lescha sen igl termin digls otg restànts igls 2 da favrer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An vesta digl fatg c'igl va me ple nov gis antocen que termin, â igl schef da la fracziùn republicana agl senat, Mitch McConnell, anunztgieu c'igl congress stotgi deliberar egna "Continuing Resolution" par taner la regenza agl curaint. Quegl mùnta c'igl president da la tgombra savess bagnbòld rumper egn'amparmaschùn, cun la quala el leva quietar an amprema lingia l'ala dretga da la sia partida. Egna tala manevra savess caschunar egna viva debata ideologica davart la rola digls republicans an dumondas da la reducziùn da las expensas, quegl ca savess manar ad egn shutdown parzial da la regenza near a la relaschada d'ufezi digl Johnson.  </t>
+  </si>
+  <si>
+    <t>Igl deputo digl congress Matt Rosendale da Montana â declaro anviers Newsweek: "Jou ve getg clerameing ca 'Continuing Resolutions' e betga la veia adatada par finanztgear la nossa regenza, cunquegl ca la lescha davart igl preventiv da 1974 preveza l'aprobaziùn da 12 projects da credit. Nus vagn gieu tains ple c'avunda, a sch'igls manaders assegnan betga las cumissiùns da far lur lavur a da schar votar igls cumembers digl Congress, alura e quegl igl motiv par igl naufragi."</t>
+  </si>
+  <si>
+    <t>Igl plidader da la tgombra digls rapreschantànts, Mike Johnson, agl U.S. Capitol igls 12 da dezember 2023 a Washington, D.C. Johnson stat avànt egna fracziùn republicana rebela c'e nunabla da cuntànscher egn acord davart l'òlteztga da las expensas budgetaras. Fotografeia: Kevin Dietsch/Getty Images</t>
+  </si>
+  <si>
+    <t>Igl Rosendale, ca fa part da la grupa ultradretga Freedom Caucus, e sto egn da quels c'â fatg ir da l'aua giou la votaziùn da measeanda. Tanor el e la suma totala da la proposta da Johnson megna òlta ad insufizianta par redutgear igls dabets statals da 34 biliùns dolars.</t>
+  </si>
+  <si>
+    <t>Igl Rosendale â ear fatg part digls 71 republicans c'ân s'oponieu ancùnter igl Fiscal Responsibility Act: la lescha davart la raspunsavladad fiscala, negozieada trànter igls democrats ad igl anteriur plidader Kevin McCarthy, ca determinescha las cundiziùns da basa par las rezentas negoziaziùns da Johnson cun igl schef digls democrats agl senat, igl Charles Schumer.</t>
+  </si>
+  <si>
+    <t>Durànt c'igl Johnson â ludo igls marets digl sieus acord c'ampurmeti da spargnear expensas da var 16 miliardas dolars, e igl Freedom Caucus digl meni c'el vess savieu cuntànscher daple. Igls republicans moderos c'ân sustanieu igl acord da McCarthy, considereschan quella tanuta sco nunrealistica a cuntraria a la fegnamira digls republicans da sfurzar igl congress d'aprobar igls dudesch sbozs a moda individuala a da betga reunir els cun egn'aschi numnada prozedura d'omnibus an egna suleta votaziùn sco igls davos ons.</t>
+  </si>
+  <si>
+    <t>"On nov, mo igl madem cumportamaint idiotic dad anzaquànts, â igl deputo republican Mike Lawler da New York declaro anviers Newsweek. "Cunquegl c'igl vean a dar nigna prozedura d'omnibus, sto mintga sboz da lescha vagnir delibero a negoziieu separadameing. Sco'gl para vagnagn nus probablameing a duvrar daple tains par quegl. A jou sustegn betga egn shutdown - peia ve jou ear nign problem cun egna 'Continuing Resolution' a curta vesta, par ca que prozess setgi vagnir mano ad egna bùna fegn."</t>
+  </si>
+  <si>
+    <t>Igl fuss l'amprem'eada davent igl 1996 c'igl congress aprobass tut igls dudesch sbozs da lescha separadameing. Tanor Lawler val'igl la pagna d'aprobar igls quater sbozs da lescha cun retard, par garantir egn prozess ordino. Sch'igl reusseschi betg agl congress d'aprobar igls dudeschs sbozs da lescha antocen igl dezember, vean igl aplico tanor igl Fiscal Responsibility Act egna reducziùn digl budget d'egn partschient sen las expensas agls secturs da la defensiùn a da la nundefensiùn.</t>
+  </si>
+  <si>
+    <t>La veia la ple raspunsavla par cuntànscher la redcuziùn da las expensas e tanor Massie dantànt d'aprobar tut igls sbozs da lescha. Blears republicans vutan dantànt betg exnum ristgear egn shutdown ad ascheia egna reducziùn d'egn partschient da las expensas par la defensiùn. L'urgenza, cun la quala igls sbozs da lescha ston vagnir aprobos, savess contribuir c'egn diember sufiziaint da republicans s'aliescha cun igls democrats par prolùngir igl termin digls amprems quater sbozs da lescha a cuntànscher egn acord davart la finanziaziùn da la lavur da la regenza, ear scha quegl muntass ca Johnson savess survagnir problems cun zaquànts hardliners da l'ala dretga.</t>
+  </si>
+  <si>
+    <t>„Ella [la reducziùn d'egn partschient] duess easser motivaziùn a mied da pressiùn par aprobar separadameing igls dudeschs sbozs da lescha“, â igl Massie declaro anviers Newsweek. „Tanor me savessen nus aprobar igl amprem egna 'Continuing Resolution', suainter baratar noss argumaints, a cura ca nus stagn alura avànt que pintg obstacel, en sprànza tuts motivos d'agir a moda raschunevla. Ascheia fagess jou quegl.“</t>
+  </si>
+  <si>
+    <t>L'autoritad da survagliànza aprova novs ETFs davart igl bitcoin - egn crap da miglia par las criptomunedas</t>
+  </si>
+  <si>
+    <t>La survagliànza da la bursa americana Securities and Exchange Commission (SEC) â measeanda ancùnter viglia do veia libra par igls fonds negozios a la bursa (ETF) an bitcoins. Igl satracta d'egn pass spitgieu gea da gî digls adherents da las valutas digitalas a crititgieu dad observaders da finanzas sceptics visavi la criptoindustreia.</t>
+  </si>
+  <si>
+    <t>L'autoritad â apruvo diesch ETFs c'investeschan an bitcoins, trànter oter fonds da gigànts da la branscha sco Blackrock e Fidelity, mo ear d'interpresas da finànzas ple pintgas.</t>
+  </si>
+  <si>
+    <t>"Igl fatg ca nus vagn apruvo oz la quotaziùn a la bursa ad igl comerzi da tschearts products da bitcoin negozios a la bursa signifitgescha betga ca nus banavantagn near apruvagn bitcoins", â igl schef da la SEC Gary Gensler declaro an egna comunicaziùn. "Igls investurs duessen easser anavànt precauts an vesta digls numerus restgs an conex cun bitcoins a products cun ina valeta c'e lieada cun criptomunedas."</t>
+  </si>
+  <si>
+    <t>El â aschunto ca l'apruvaziùn da fonds da bitcoin munti betga ca fonds near products negozios a la bursa (ETPs), ca sabasan sen otras valutas near valurs da facultads digitalas, vignan apruvos da la SEC.</t>
+  </si>
+  <si>
+    <t>"Quegl c'e impurtànt e igl fatg ca l'apruvaziùn dad oz salimitescha ad ETPs ca cuntegnan egn product spezific betga liieu a valutas, numnadameing igl bitcoin. Cun quegl signalisagn nus an nign cass egna prùntadad da lubir standards d'apruvaziùn par cripto-assets. L'apruvaziùn gi ear nut davart la tenuta da la SEC partutgànt igl status d'oters cripto-assets agl rom da las leschas americanas davart las valutas near davart igl stand da nuncunformitad da tschearts partizipànts digl martgieu da cripto-assets cun las leschas davart las valutas", â Gensler getg.</t>
+  </si>
+  <si>
+    <t>Davent dad ons en las amparadas da fonds samagliànts vagnidas refusadas da la SEC. Igl on passo â la dartgira d'apelaziùn americana par igl district da Columbia dezidieu ca la refusa da la SEC d'apruvar egna dumonda da Grayscale da transfurmar egn fond da derivats segi ilegala. Quel dueva vagnir tranfurmo an egn fond ca investass directameing agl bitcoin. La dartgira â qualifitgieu la tenuta da la SEC sco "nunmotivada ad arbitrara".</t>
+  </si>
+  <si>
+    <t>Igl Gensler â declaro c'el segi - an vesta da quellas zircumstànzas a da quellas ca segian vagnidas preschantadas ple detagliadameing a la dezisiùn d'apruvaziùn - digl meni ca la veia la ple practitgeabla par igl futur segi quella d'apruvar la quotaziùn ad igl comerzi cun quellas parts da bitcoin-spot-ETP.</t>
+  </si>
+  <si>
+    <t>L'apruvaziùn spitgeada cun grànda tensiùn e vagnida banavantada sco crap da miglia par las valutas digitalas. Tanor igls adherents augmenti ella igl aczess ad investiziùns an bitcoins a setgi manar ad egna ple vasta aczeptànza da criptovalutas sco investiziùn finanziala seriusa. Igl prezi digl bitcoin e explodo igls davos mains da ver 25.000 dolars igl satember sen ple ca 45.000 dolars. Par part e quegl d'atribuir agl fatg ca blears investurs da bitcoins manegian c'igls ETFs vignian a crear egna ple grànda dumonda par que asset.</t>
+  </si>
+  <si>
+    <t>Igls adversaris da la dezisiùn ân crititgieu fearmameing la SEC measeanda sera.</t>
+  </si>
+  <si>
+    <t>Igl Dennis M. Kelleher, cunfundatur, president a CEO da Better Markets, â getg ca l'apruvaziùn segi egn "sbagl istoric. Quella laschi betga me liber igls laders da criptomuneda sen tozels miliùns investurs a pensiùnos, mobagn sutmineschi probablameing ear la stabilitad digls martgieus da finànzas."</t>
+  </si>
+  <si>
+    <t>Igl Kelleher â declaro anavànt ca "la criptoindustria aparaintameing sainza leschas vegi cuntanschieu igl sieus punct igl ple bass sen fundamaint da massas d'arestaziùns, cundemnaziùns, insolvenzas, prozess giuridics, scandals, pargetgas massivas a miliùns unfrendas trànter igls investurs a la cliantela. Tgi vess cartieu ca la SEC sustegni ella cun apruvar egna furma d'investiziùn cumprovada a fidevla. Ascheia pussibilitescha la SEC la comerzialisaziùn an massa d'egn product finanzial sainza valeta, volatil ad angonus agls burghes americans."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 % daple reclamaziùns davart igl diever digl lungatg russ an l'Ucraina - RT Russia ad anteriura Uniun sovietica </t>
+  </si>
+  <si>
+    <t>Par derussifitgear la teara cumondan las autoritads a la populaziùn da purtar tgisa.</t>
+  </si>
+  <si>
+    <t>Igl diember da reclamaziùns inoltradas a las autoritads ucranesas davart parsùnas ca bagliafan russ â s'augmento igl on passo par 30 %. Las autoritads a Kiev ancuraschan la populaziùn activameing d'anunztgear quels cass, suponieu par "proteger" la teara da l'influenza russa.</t>
+  </si>
+  <si>
+    <t>Tanor las indicaziùns digl biro digl incumbenso par la protecziùn digl lungatg naziunal en 3.692 violaziùns ancùnter la lescha da lungatgs vagnidas raportadas igl on 2023. Kiev, Charkiw ad Odessa segian "ànc adigna a la testa quegl ca conzerni igl diember da violaziùns. Uon duess egna da las prioritads digls raspunsavels comunals easser da survagilear strictameing c'igls dretgs da lungatg digls burghes vignian risguardos an tut igls secturs da la veta publica", â igl Taras Kremen, igl mediatur public par lungatgs an l'Ucraina, getg.</t>
+  </si>
+  <si>
+    <t>Igl Kremen â ear cunfirmo c'ign vegi pronunztgieu egn castitg an l'òlteztga da 3.400 Hrywnja (89 dolars) ancùnter egn manischùnz da taxi da Kiev ca segi sadrizo a la sia clientela an russ. Igl mediatur public â fatg atent la publizitad c'igl deti "egn algoritmus detaglieu d'acziùns, an cass c'ign violeschi igl dretg da survagnir las infurmaziùns near igls survetschs agl lungatg digl stadi". El â postulo a la populaziùn da purtar an tals cass imediat reclamaziùn sen la pagina-web digl mediatur.</t>
+  </si>
+  <si>
+    <t>Igl on 2019 veva l'Ucraina apruvo egna lescha c'oblighescha da duvrar igl lungatg ucranes an tut igls secturs da la veta publica, cumprieu la regenza, la madaschegna, la szienzia, l'educaziùn a las medias. An cass da violaziùns smanatschan multas. Davent da l'antscheata digl conflict militar cun la Russia igl on 2022 magna l'Ucraina egna campagna da derussificaziùn totala c'e tanor igl meni digls parlamentaris nezessaria par saproteger ancùnter l'influenza russa. Las autoritads localas ân scumando cumpletameing ovras d'art, rapreschantaziùns, cudeschs, films, canzùns a l'instrucziùn an lungatg russ an scolas ad universitads ad ân racumando c'igls unfànts da scola bagliafian ucranes l'egn cun l'oter ear an las possas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl avust passo e egn giuven musizist vagnieu aresto par curt tains a sfurzo da saparstgisar par messadi da video, suainter c'el veva interpreto canzùns digl cantadur sovietic Viktor Tsoi sen las veias da Lwiw. La relaschada da plirs surmesters c'ân bagliafo russ cun lur scularas a sculars ân mademameing procuro par egn sbratg d'alarm public. </t>
+  </si>
+  <si>
+    <t>Igl secretari digl Cunzegl naziunal da sirtad a defensiùn da l'Ucraina, Oleksij Danilow, veva declaro ordavànt c'igl lungatg russ stotgi svanir or digl teritori ucranes, parquegl c'el segi "egn elemaint da propaganda anamitga ad egna lavada digl tscharvi da la populaziùn".</t>
+  </si>
+  <si>
+    <t>Tanor igl meni da Moscau violeschian talas leschas igls dretgs da la populaziùn russa ca cumpeglia zirca la measadad da las abitàntas a digls abitànts da l'Ucraina. La plidadra digl ministeri russ par afars exteriurs, Marija Sacharowa, â declaro igl favrer ca la "campagna discriminànta" da Kiev ancùnter igl lungatg vigni adigna ple "revoltànta". An egna retscheartga, realisada igl satember passo digl Institut internaziunal par soziologeia a Kiev, ân 45 % da las parsùnas questiunadas inditgieu ca la discriminaziùn linguistica segi igl tip da pregiudezi igl ple frequaint an l'Ucraina.</t>
+  </si>
+  <si>
+    <t>La crisa agl sectur da sànadad dastga betga davantar la "nova normalitad" parve da la SNP - egn comentari da la Scotsman</t>
+  </si>
+  <si>
+    <t>Las ple novas zefras digl survetsch naziunal da sànadad NHS portan a la glisch ulteriuras schleatas novas - egn motiv par nus da sagritantar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egn tains da spetga dad 83 uras an la staziùn d'urgenza d'egn spital. 4 da 10 paztgaintas a paztgaints ca ston spitgear ple gî ca 4 uras. 30 ambulànzas ca statan an colona avànt egn spital ad en betga disponiblas par ulteriurs cloms d'urgenza. Parsunal ca "bandùna la squadra da lavur cun larmas agls îls" an vesta digl standard da tgira a, tanor egn expert digl Royal College of Emergency Medicine egn "quasi colaps da las prestaziùns". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sch'anzatgi vess da pratender c'igl NHS scot satgati betg an egna crisa near c'igl satracti me digls problemets usitos igl unviern, alura e quegl egn motiv da sagritantar. Nus ristgagn c'igl gartegia a las politicras ad agls politicers - sco igl minister da sànadad cuntravers Michael Matheson - da parschuader nus ca la situaziùn e deplorabla, dantànt tutegna anzaco aczeptabla. A c'igls raspunsavels da la regenza san sut las zircumstànzas actualas betga prender ulteriuras masiras, ca quegl e la nova normalitad. </t>
+  </si>
+  <si>
+    <t>Durànt ca blears ân pratandieu la demissiùn da Matheson sco consequenza digl naufragi digl plan da sanaziùn NHS da la SNP, â el sacuntanto cun ragurdar "c'igl squetsch ple grànd igl unviern" existi ear an oters liacs a "betga me an la Scozia". Anstagl da "dar la cualpa a Westminster" â el ampruvo quell'eada da giustiftgear ca las cundiziùns segian "ear a Westminster madem noschas". Sco scha quegl fuss egna consolaziùn par las massas da paztgaintas a paztgaints ca ston spitgear uras a la lùnga cun dalurs a plagn anguscha.</t>
+  </si>
+  <si>
+    <t>El â admess ca l'ocupaziùn digls spitals segi davent da gî egn problem ad egn factur impurtànt: la relaschada da paztgaintas a paztgaints ca sasaintan gea puspe bagn avunda par bandunar igl spital saretardeschi, parquegl c'igl cumpognamaint sozial nezessari segi savens betga disponibel.
+El â dantànt guranto c'egn plan d'acziùn vigni "realiso a moda speditiva". Cunquegl c'igl satracta d'egn problem persistent davent dad ons, astgessan me pocs easser optimistics ca la SNP vegi finalmeing cato egna schleiaziùn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las novas zefras da Public Health Scotland mussan efectivameing ca la situaziùn â pletost ànc samido an mender: igl november en 1.910 parsùnas vagnidas cun retard an spital cumparaglieu cun 1.730 igl avregl. Egn digls motivs, par igls quals las ambulànzas ân betga savieu surdar ad uras las paztgaintas ad igls paztgaints e ca las staziùns d'urgenza en surcargeadas, parquegl ca tut igls plazs disponibels an las staziùns da malzàns en ocupos. </t>
+  </si>
+  <si>
+    <t>Scha nus vurdagn sen la situaziùn digls noss spitals, e que bagliafem da la SNP da sanaziùns a da plans d'acziùn nut oter c'ampurmessas vidas a - alura ànc privlusas. Nus astgagn betga parmeter ca la publizitad vigni cuglianada da politicras e politicers incumpetents par sustaner la decadenza da la nossa grànda instituziùn britanica, igl NHS.</t>
+  </si>
+  <si>
+    <t>Promover l'economeia zirculara: interpresa da rezicladi da rumient da construcziùn earva egn nov implànt a Cumbernauld</t>
+  </si>
+  <si>
+    <t>Quegl ampurmeta igl madem mumaint da transfurmar igl taragn abanduno da las ovras Gartshore.</t>
+  </si>
+  <si>
+    <t>Egn'interpresa da rezicladi scota, c'â gea elavuro passa egna miliùn tonas rumient da demoliziùn, â aviert egn savund implànt suainter egn'investiziùn da plirs miliùns glivras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igls implànts da tractamaint da Brewster Brothers transfurmeschan 100 partschient digl taragn da sulamaint a digl rumient da demoliziùn an aditivs reutilisabels d'òlta qualitad. Durànt igls davos sis ons â igl plaz da l'interpresa sper Livingston agl West Lothian savieu evitar ascheia ca bunameing 1,35 miliùns tonas rumients da construcziùn, demoliziùn a sulamaint satschaintian sen las deponeias. Ella â produtgieu ple c'egna miliùn tonas aditivs reziclos ca san vagnir vandieus anavànt a l'industreia. </t>
+  </si>
+  <si>
+    <t>Agl rom da l'expansiùn da passa 6 miliùns glivras â igl Brewster ussa aviert egn savund implànt da rezicladi ca duess dar nova veta a las anteriuras ovras da Gartshore datier da Cumbernauld. Igl nov implànt vean a furnir material a plazals, cumplexs d'abitar a survetschs d'utilitad publica an la part vest digl Central Belt. L'ovra datier da Livingston, c'ocupescha actualmeing 39 colavuraturas a colavuraturs, vean ear a porscher survetschs persistents par la gestiùn da rumients a d'aditivs reziclos ad interpresas ad Edinburgh, Fife ad igls Lothians.</t>
+  </si>
+  <si>
+    <t>Igl Scott Brewster, igl magnafatschenda, c'â fundo l'interpresa 2017 anzemel cun igl sieus bab Alex Brewster, â getg: "Igl samussa adigna ple fetg c'igl sectur da construcziùn an Scozia rancanuscha la nezessitad da redutgear la quantitad da resursas natiralas a las emissiùns da CO₂ da la branscha a d'augmantar igl madem mumaint igl diever da materials reziclos a secundars. Igl volumen digls rumients da construcziùn, da demoliziùn a da sulamaint reziclo igls davos sis ons e carschieu enormameing, a la nossa investiziùn an quella savunda sedia mussa fetg bagn c'igl dat spazi par ulteriuras expansiùns an que sectur.</t>
+  </si>
+  <si>
+    <t>La Scozia â gràndas ambiziùns quegl ca partutga la transiziùn an egn'economeia zirculara. La regenza preveza d'introdutgear egna nova taglia sen aditivs ca savess aczelerar igl pass davent d'egn diever da products novs.</t>
+  </si>
+  <si>
+    <t>Par sanar igl areal abanduno da las ovras Gartshore â l'interpresa angascho novs colavuraturs ca vignan sustanieus digl Green Jobs Fund da Scottish Enterprise. L'interpresa vean ear a reziclar igls rumients da minieras c'en restos anavos sen igl areal. Ultra da quegl vean igl areal transfurmo an egn parc rural par la cuminànza locala.</t>
+  </si>
+  <si>
+    <t>La politica sasbaglia cun las limitas maximalas digls tschains</t>
+  </si>
+  <si>
+    <t>Las politicras ed ils politichers en savens tantos da samascheder an tgossa, noua c'els manegian da saver far la diferenza. Sch'igl dess dantànt egna soluziùn sempla ad evidainta par egn problem, fuss quella sacapescha gea dagî vagnida messa an vigur d'anzatgi cun vera expertisa an que sectur.</t>
+  </si>
+  <si>
+    <t>Ascheia ân ign delibero avànt bunameing 18 mains egna lescha davart igls custs da viver, l'aschinumnada "Cost of Living (Tenant Protection) (Scotland) Act 2022". Quella degi sirar igls tschains par egn tains limito par cumbater las tgargias culieadas cun la crisa digls custs da viver. Las ple novas statisticas da la regenza scota mussan ussa c'igls tschains an media par abitaziùns da tut las gràndeztgas en carschieus suletameing igl on passo. Igl augment variescha dad 11,7 partschient par abitaziùns d'egna stànza antocen a 14,3 partschient par abitaziùns da duas stànzas. Par tut igls tips d'imobiglias (qvd. dad egna antocen a quater stànzas) en igls tschains carschieus par prozentualas da duas zefras davent da l'introducziùn da la lescha davart igls custs da viver igl october 2022 ad ân supero ascheia par seglmains tres geadas igls augmaints anuals an media digls dudesch ons prezedents.</t>
+  </si>
+  <si>
+    <t>Las numerusas adominaziùns da tut igls secturs da l'economeia imobigliara ca quegl vean a suczeder, en restos nunudieu. La refusa d'aczeptar c'igl e betg igl stadi, mobagn igl martgieu ca determinescha igls prezis, â caschuno augmaints enorms digls tschains. Quegl vess ign savieu evitar cun daple capientscha, debatas a discussiùns cun igl sectur a cun egn plan ca risguarda igls prinzipis da la dumonda a da la purschida.</t>
+  </si>
+  <si>
+    <t>Cunquegl ca la lescha davart igls custs da viver e me ànc antocen igls 31 da marz 2024 an vigur, degi egn nov documaint da consultaziùn extender la controla davart igls augmaints digls tschains lubieus igl on ca vean. Igls dascurs van a fegn gliendasgis cun la proposta da fixar igls tschains a màn da la ple bassa da las tres valurs da cumparegliaziùn: igl tschains digl martgieu liber, igl nov tschains proponieu digl locatur ad egn augmaint "raschunevel", quinto cun agid d'egn nov sistem da graduaziùn ca cumpareglia quella cun egna prozentuala digl tschains digl martgieu.</t>
+  </si>
+  <si>
+    <t>Igls locataris an Scozia ston quintar cun ulteriurs augmaints drastics digls tschains, sch'igl meni digls experts vean betga risguardo (maletg: Adobe)</t>
+  </si>
+  <si>
+    <t>La graduaziùn proponida prevasess augmaints digls tschains trànter 6 % ad egn maximum da 15 %, ca fussan ascheia - ironicameing - ple òlts c'igls augmaints anuals an media registros agl passo. Egna tala regulaziùn fuss dantànt surtut cumplitgeada, blear megna cumplexa ala sia survagliaziùn a realisaziùn nunpajevla. Igl exista gea egn mecanissem da protecziùn ca preveza ca l'amprema instànza da la dartgira par fatgs d'abitar dezeda davart l'adequatadad d'egn augmaint digl tschains. Igl vean peia creo obstacels birocratics suplementars ca portan ni agls locaturs ni agls locataris anzatge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgl documaint da consultaziùn para parquegl dad easser nut oter c'egna ulteriura amprova d'imponer controlas agl sectur. Egna soluziùn blear ple sempla fuss da lubir agl martgieu da returnar a la normalitad a da betga vuler controlar externameing igl nivel digls tschains. La consequenza fuss egn augmaint ple bass digls tschains ca quel c'ign â observo durànt igls 18 mains passos. Par stabilisar igls prezis digls tschains a lùnga vesta sto la regenza stimular las investiziùns a la carschientscha agl sectur da locaziùn privata a meter a disposiziùn igl madem mumaint daners par angrandir a moda considerabla la purschida d'abitaziùns sozialas. Daple investiziùns c'igl dat agl sectur da locaziùn privat a ple fetg c'igl martgieu imobigliar vean rinfurzo. Egn augmaint digl volumen agl sectur da locaziùn privat sco ear agl martgieu d'abitaziùns sozialas gida da stabilisar igls tschains agl dacurs digl tains, parquegl ca la purschida cuvearta la dumonda ad ign cuntànscha ascheia egn equiliber. Me cun agid da quellas masiras vagnagn nus da dar dumogn a la crisa d'abitaziùns actuala. Tut igl rest vean betg a funcziunar. </t>
+  </si>
+  <si>
+    <t>Ulteriuras filialas da Greggs, igls prezis restan cunstànts, par 'far panets ple grànds'</t>
+  </si>
+  <si>
+    <t>L'interpresa FTSE 250, ancunuschainta par igls seas sausage rolls a steak bakes, planisescha d'angrandir la sia reet da filialas, dantànt betga d'augmentar igls prezis.</t>
+  </si>
+  <si>
+    <t>La cadagna da pasternareias Greggs, c'â filialas an las veias da cumpra prinzipalas, â anunztgieu da betg augmentar igls seas prezis igl on ca vean a dad earver 160 filialas ordainfer igls zenters digls martgieus.</t>
+  </si>
+  <si>
+    <t>La directura generala Roisin Currie â getg viers PA c'ella "planiseschi igl mumaint" betga d'augmentar igls prezis, cunquegl c'ella quenti cun egna basa da custs ple stabila igl on ca vean. Ella â dantànt aschunto c'igl vean ad ir gî antocen c'igl deti egna deflaziùn ca pussibiliteschi a la cadagna da sbassar igls seas prezis. Igl comerzi an detagl s'oda tier las branschas ca segian cunfruntadas cun custs da paglias ple òlts parve da la ulzada da la paja minimala naziunala. Igl madem mumaint segi la tendenza a paglias ple òltas dantànt egna bùna novitad, parquegl c'ella porti daple daners an las bursas da las consumentas a digls consuments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greggs â ultra da quegl anunztgieu igls seas plans dad earver antocen 160 ulteriuras filialas igl on proxim ad â exprimieu la sia satisfacziùn davart igl bùn resultat final 2023. La cadagna â aviert 2023 egn diember da record da 220 filialas novas. Da l'otra vart stat la sarada da 33 filialas a translocaziùn da 42 posts, ascheia c'ella â aviert tut an tut 145 filialas novas. Quegl dat egn diember total da 2.473 filialas. </t>
+  </si>
+  <si>
+    <t>La fegnamira da l'interpresa FTSE 250 e d'augmentar igl on 2024 igl diember par 140 antocen 160 filialas, par migliurar igl aczess da la cliantela a quellas. Ella vut saconzentrar anavànt sen igls zenters da cumpra, las destinaziùns da turissem, igls liacs par lùng da las veias impurtàntas ad igls areals industrials. Currie â declaro: "La nossa fegnamira e dad ir dapertut là, noua c'ign cuntanscha igl mumaint betga a moda sempla egn Greggs."</t>
+  </si>
+  <si>
+    <t>L'interpresa planisescha ultra da quegl d'extender igls tains d'avertura da la sera an radund 1.200 da las sias fatschendas. Durànt igl quart quartal â l'interpresa registro egn augmaint da 9,4 partschient da las svieultas cumparaglievlas a las filialas manadas an atgna rescheia. Quegl mùnta egn augmaint retardo cumparaglieu cun la carschientscha da 14,2 partschient igls tres mains prezedents. Quegl e d'atribuir tanor Greggs ad egn'inflaziùn digls prezis ple bassa. Par igl antier on â Greggs registro egna carschientscha cumparativa da 13,7 partschient; la svieulta anuala totala â s'augmento par egn tschentgavel sen 1,8 miliardas glivras.</t>
+  </si>
+  <si>
+    <t>L'interpresa â ultra da quegl manziuno c'ella registreschi anavànt egna grànda dumonda dad opziùns veganas. Dacurt â ella lantschieu puspe igls steak bakes, la sia purschida da Nadal cun igl festive bake, igl chocolate orange muffin ad igl Christmas lunch baguette.</t>
+  </si>
+  <si>
+    <t>Tanor Matt Britzman, analist d'aczias da Hargreaves Lansdown, e 2023 sto par Greggs egn varitavel on da suczess: graztga a la prolungaziùn digls tains d'avertura, agl augmaint da las opziùns da furniziùn, a las miglras capazitads an la cadagna da furniziùn ad a la nova paleta da products. El â aschunto: "Igls festive bakes ad igls chocolate orange muffins en stos egn suczess durànt igl tains da Nadal. Igls speculànts da la bursa savessan dantànt far atent c'igl svilup da la svieulta â saretardo agl dacurs digl on a c'igl quart quartal e sto igl ple flevel digl on 2023. Quegl e d'atribuir surtut agl fatg c'igl e gartagieu a Greggs da limitar igls augmaints digls prezis, cur ca la quota d'inflaziùn â sasbasso. A lùnga vesta e quegl egn resultat positiv.</t>
+  </si>
+  <si>
+    <t>Egna da las fearmeztgas prinzipalas da Greggs e ca l'interpresa porscha products favurevels. Igl vean ad easser d'impurtànza zentrala da mantaner quella purschida, surtut cur ca las antradas da las consumentas a digls consuments sareduzeschan. Igl ple impurtànt vean ad easser da vaser ca las svieultas sasvilupeschan a moda positiva - a quegl e anavànt igl cass. La fegnamira e dantànt ànc betga cuntanschida. Par 2024 san ign quintar anavànt cun egna tendenza ansei, cunquegl ca las investiziùns a la purschida digitala, igls partenaris da furniziùn a l'extensiùn da la reet da filialas cuntinueschan."</t>
+  </si>
+  <si>
+    <t>La lescha da Sunak davart la liberaziùn da las santenzias nungiustifitgeadas a las sias consequenzas gravàntas nunintenziunadas - egn comentari da The Scotsman</t>
+  </si>
+  <si>
+    <t>Politicers ca manegian c'els setgian abolir santenzias giudizialas, metan sasez sur la lescha.</t>
+  </si>
+  <si>
+    <t>Sco The Scotsman ad oters aczentueschan davent dad ons e la santenzia nungiustifitgeada da tschients manaders da filialas da posta agl rom digl scandal da Horizon egn digls ple grànds sbagls da gisteia an l'istorgia. Las parsùnas partutgeadas en vagnidas messas an parschùn, ân pears lur datgea, lur letgs en idas dapart a lur clom e vagnieu destruieu. Ellas ân stuieu purtar las consequenzas psicicas dad easser vagnidas tractadas sco criminals, schabagn c'ellas ân risguardo las leschas.</t>
+  </si>
+  <si>
+    <t>Malgro c'igl sistem da computer Horizon e sto la raschùn prinzipala, â igl minister da posta Kevin Hollinrake getg ier avànt las parlamentarias ad igls parlamentaris ca las cumprovas palaintan "betga me l'incumpetenza, mobagn ear la malvuglientscha" da vart da la Posta. El â crititgieu ca me 95 da passa 900 santenzias segian vagnidas abolidas. Ussa degi egna nova lescha vagnir introdutgeada an l'Enghelteara ad a Wales par declarar nunculpàntas las unfrendas digl scandal. Tanor la Downing Street e'gl preveiu da discutar pass samagliànts cun la regenza scota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quegl mussa a moda remartgevla tge c'egn drama televisiv fatg bagn, sco la seria dad ITV "Mr. Bates Vs The Post Office", sa efectuar an egn on electoral. Suainter blears ons d'inactivitad po la politica tutanegna betga spitgear ple d'interprender anzatge. L'avaschinaziùn digl Rishi Sunak e dantànt betga nunproblematica. </t>
+  </si>
+  <si>
+    <t>Igl amprem problem e quel c'ear anzaquànts culpànts savessan nunvulieu profitar d'egna lescha pauschala ca preveza la libertad da castitg par pliras tschient parsùnas. Igl savund problem e ple gravànt: egna lescha ca meta ord vigur santenzias giudizialas sa crear egn cass da prezedenza privlus, surtut an egn tains, an igl qual igls populists metan an l'amprova igls cunfegns da la pussànza politica.</t>
+  </si>
+  <si>
+    <t>Agls Stadis Unieus amprova igl Donald Trump da profitar da l'imunitad ancùnter la persecuziùn penala. An la Grànda Britagna â Boris Johnson dispenso ilegalmeing igl parlamaint par saver realisar igls seas plans da Brexit. Igl Sunak vut revocar egna dezisiùn da la dartgira suprema, tanor la quala la Ruanda e betg egna teara siira, cun apruvar egna lescha ca declarescha ella malgro tut sco siira.</t>
+  </si>
+  <si>
+    <t>Igl conzept da la separaziùn da las pussànzas an la regenza, agl parlamaint ad an la gisteia e egn mecanissem da protecziùn impurtànt ancùnter la tiraneia. Las politicras ad igls politicers ca cren da saver abolir santenzias giudizialas, sametan sur la lescha. Igl e l'incumbensa da las electuras a digls electurs da far cler c'ellas ad els tolereschan egna tala tenuta me agl cass igl ple extrem.</t>
+  </si>
+  <si>
+    <t>Reintroducziùn da la survagliànza da las parschùns a Washington -  vetas da carstgàns dependan da quella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl sistem da las parschùns da Washington satgata an egna crisa existenziala. Quegl e egna da las vardads malamparnevlas, dantànt betg ignorablas, cun las qualas nus sco copresidents d'egna grupa da lavur legislativa eassan vagnieus cunfruntos. Nossa leztga e'gl sto d'examinar igl sistem da las parschùns da noss stadi a da proponer midadas ca migliureschan la siirtad agls stabilimaints d'arest. Malgro ca nus vagnagn da diferaints secturs, sco da l'administraziùn da parschùns, da la lavur par igls dretgs zivils a da l'experienztga parsunala sco arestos, eassan nus parschuadieu c'igl e nezessari da ver egna survagliànza independenta da las parschùns da Washington. </t>
+  </si>
+  <si>
+    <t>Igl on 2022 en ple ca 130.000 parsùnas vagnidas pridas sei an egn digls stabilimaints d'arest a Washington. Tutegna dat igl surprendentameing pocas infurmaziùns davart quegl ca capeta suainter lur antrada an parschùn. A Washington dat igl nign organ statal c'e raspunsavel da survagliear las parschùns a da comunitgear las datas a la publizitad. Las sulas infurmazùns disponiblas partutgan las baras durànt igl arest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quegl ca nus vagn cunstato mussa c'igl e nezessari d'agir imediat. Ear sch'ign risguarda la carschientscha demografica a Washington, e igl diember da baras an las parschùns da Washington bunameing samultiplitgeadas par tres trànter 2000 a 2019. Que augmaint surpassa par 16 geadas la media naziunala. Ascheia â Washington scho davos el oters stadis ad â ussa la quota la quart òlta da baras an stabilimaints d'arest. Quegl dastga betga cuntinuar ascheia. </t>
+  </si>
+  <si>
+    <t>Par dar cunterpesa a quella tendenza an las parschùns a cumbater igls numerus oters problems, cun igls quals nossas parschùns en cunfruntadas, drov'igl forza anqualas dezisiùns politicas profundas. Egna survagliànza independenta da las parschùns fuss dantànt egn amprem pass impurtànt par render igl sistem da parschùns ple siir a human. Graztga ad ella samigliurass la transparenza a la raspunsavladad, a Washington sco ear agl rest da la teara. Tanor nossa dumbraziùn disponan seglmains 25 stadis d'egn post da controla da las parschùns c'e raspunsavel par igl antier teritori naziunal. An tut quels stadis e igl diember da baras an las parschùns ple bass ca tier nus.</t>
+  </si>
+  <si>
+    <t>Ear a Washington ân ign creo dacurt organs da survagliànza independents par stabilimaints d'arest statals, par la polizeia, las scolas ad otras instituziùns near amplifitgieu lur leztgas. Quegl ca fa surstar e dantànt ca las parschùns en vagnidas exclusas da quella survagliànza c'e raspunsavla par la sànadad a la sirtad da dieschmelis carstgàns.</t>
+  </si>
+  <si>
+    <t>Egn organ da controla independent par las parschùns sa survagliear la situaziùn, sabratar cun igl parsunal ad igls arestos, raportar davart las cundiziùns ancunaschaintas d'amprem màn ed ear exprimer dubis, ànc avànt ca parsùnas vignian blessadas. El sa ear rimnar ad anunztgear datas c'ampurmetan a l'administraziùn, agls purtaders da dezisiùn politics ad a la publizitad da capir miglier igl noss sistem da parschùns a s'angaschar sen basa da quellas datas par soluziùns ca gidan d'evitar baras ad oters problems an conex cun las parschùns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da la survagliànza degian dantànt betga me las parsùnas arestadas profitar. Nossa grupa da lavur e vagnida a la conclusiùn c'egn organ da controla savess porscher a noss sistem da parschùns surcargeadas igl sustegn a las racumandaziùns urgentameing nezessarias - cumprieu conzepts intelligaints par augmentar la sirtad digl parsunal a reduzir la criminalitad rezidiva. </t>
+  </si>
+  <si>
+    <t>A Washington â'gl do durànt egn curt tains, da 1981 antocen 1987, egn'autoritad da survagilànza da las parschùns sen plàn statal, c'e vagnida ludada da gliez tains digl ministeri da gisteia american sco model par igls stabilimaints an l'antiera teara. Deplorablameing â igl legislatur abolieu la survagliànza da las parschùns, malgro las objecziùns digls administraturs da parschùns, da grupas par la defensiùn digls dretgs zivils a d'otras vuschs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egna survagliànza independenta rinfurzass la cunfidànza da la publizitad ad igls prozess da dezisiùn basos sen datas an egn sectur ca sto vagnir a frida gea megna gî sainza prozeduras transparaintas. Nus apelagn parquegl agl legislatur da determinar an la lescha la recumandaziùn da nossa grupa da lavur da restabilir egna survagliànza da las parschùns independenta agls martgieus, agls counties ad an las regiùns da noss stadi. Vetas da carstgàns dapendan da quegl. </t>
+  </si>
+  <si>
+    <t>La Hailey Ockinga e activista ad organisatura digl movimaint anti-arestaziùn a magnafatschenda da Beyond These Walls agl stadi da Washington.</t>
+  </si>
+  <si>
+    <t>Igl Ethan Frenchman e advocat da Disability Rights Washington a s'angascha par carstgàns cun impedimaints an las parschùns.</t>
+  </si>
+  <si>
+    <t>Sgulaz vus gest cun egna Boeing 737 MAX?</t>
+  </si>
+  <si>
+    <t>Par las blearas viagiaturas ad igls blears viagiaturs gioia igl tip d'aviùn betga egna rola zentrala durànt la reservaziùn d'egn sgol. Egna grànda part digls jets digl tip Boeing 737 MAX 9 ân dantànt survagnieu egn scumond da sgol an l'antiera teara, suainter c'egna part digl best digl aviùn e vagnida scarpada davent durànt egn sgol da l'Alaska Airline igls 6 da schaner. Davent da lura sa'gl easser c'egn near l'oter passaschier sadumonda forza tutegna, co c’el sa eruir cun tge tip d'aviùn c'el vean a sgular e tge models d'aviùns c'en igls ple siirs. L'amprema amparada e sempla da raspunder. La savunda e ampo ple cumplitgeada.</t>
+  </si>
+  <si>
+    <t>Igl tip d'aviùn vean par regla inditgieu an las infurmaziùns da reservaziùn digl sgol. Tier Google Flights figurescha el agls detagls digl sgol, sch'ign extenda igl modus da vesta. Par regla vean igl tip d'aviùn ear numno sen las paginas da reservaziùn da las singulas sozietads aviaticas. Sch'ign tgata el ord l'egn motiv near l'oter ni tier Google Flights u sen la pagina da reservaziùn, san paginas-web sco Expert Flyer a Seat Guru furnir infurmaziùns da sgol cumplessivas sco igls plans digls plazs ad igl tip d'aviùn.</t>
+  </si>
+  <si>
+    <t>Igl e betg aschi sempel da cunstatar tge tips d'aviùn c'en igls ple siirs. Igl National Transportation Safety Board magna bàncas da datas cumplessivas cun infurmaziùns davart aczidaints ad incaps. Ear la Federal Aviation Administration (FAA) meta a disposiziùn sen la sia pagina "Aviation Safety Information Analysis and Sharing" (analisa a barat d'infurmaziùns davart la siirtad da sgol) raports privisorics davart igls aczidaints ad incaps digls davos diesch gis, ca numnan ear igl construider digl aviùn partizipo.</t>
+  </si>
+  <si>
+    <t>Egn'ulteriura funtàna d'infurmaziùns nizevla, a la quala igl dat egn link sen la pagina da la FAA, e la "Boeing Worldwide Statistical Summary of Commercial Jet Airplane Accidents (1959-2022)". Qua vean la sirtad digls tips d'aviùn evaluada cun atribuir igls aczidaints agl tip d'aviùn coraspundaint. Tanor igl raport publitgieu igl satember 2023 en Boeing 787 ad Airbus A350 igls models d'aviùn cun las ple pocas spearsas totalas, vut gir aczidaints, durànt igls quals igl aviùn e vagnieu destruieu cumpletameing. Igl raport numna ànc anzaquànts ulteriurs models ca ân ànc mena gieu egna spearsa totala, trànter oter igl jet gigantic da dus plàns Airbus A380. Quels models vevan dantànt registro ànc ple poc c'egn miliùn partenzas igl mumaint da la publicaziùn digl raport.</t>
+  </si>
+  <si>
+    <t>Que raport includa ear egna cumparegliaziùn da las quotas d'aczidaint cun spearsas totalas sen egna miliùn partenzas, ca tegna quent digl fatg ca zaquànts models en ple derasos near gea ple gî an funcziùn c'oters. Cun egna quota da 2,53 aczidaints sen egna miliùn partenzas â igl Airbus A310, c'e vagnieu introdutgieu 1983, la ple òlta quota da spearsas totalas trànter igls tips d'aviùn ca vignan ànc duvros sco aviùns da passaschiers. Igl miglier resultat, cun egna quota da 0,11, cuntànscha la famiglia Airbus 320, ca cumpeglia ear igls models A321 ad A319neo. Boeing 737 MAX, c'e an funcziùn davent digl on 2017, â egna quota dad 1,48.</t>
+  </si>
+  <si>
+    <t>Ear scha quellas quotas vignan inditgeadas sen egna miliùn partenzas, e'gl da risguardar ca zaquànts digls models d'aviùn numnos - par exaimpel la Boeing 727 introdutgeada 1964 - en gea davent da dezenis segl martgieu ad ân consequentameing gieu blear daple tains par rivar an la statistica d'aczidaints ca oters models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl Perry Cooper, incumbenso da medias digl Port of Seattle, c'e ear raspunsavel par igl eroport internaziunal Seattle-Tacoma, â aczentuo an egn e-mail c'igls aczidaints setgian ver numerusas raschùns. Igl spectrum tanschi da sbagls d'equipamaint antocen a sbagls humans. Igl e peia forza sempel da determinar igl tip d'aviùn, cun igl qual ign vean a sgular, mo da gir tge consequenzas ca quegl â par la sirtad, e ple cumplitgieu. </t>
+  </si>
+  <si>
+    <t>Ear scha las datas disponiblas ampurmetan da cumparagliear igls tips d'aviùn, scunzeglia la FAA da cumparagliear las sozietads aviaticas sen basa da lur datas d'aczidaint. Tanor egn raport zito da l'autoritad aviatica "dat igl actualmeing nigna indicaziùn an las datas d'aczidaints ca giustifitgeschan egna rangaziùn da singulas sozietads aviaticas sen basa da lur bilàntscha da sirtad".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl e tutaveia ascheia ca la bilàntscha da sirtad da las singulas sozietads aviaticas sa variear fearmameing tut tanor la perioda. Tanor la FAA e quegl d'atribuir surtut agl fatg c'igls aczidaints da sgol en rars, ân dantànt consequenzas catastrofalas. Las diferenzas trànter las sozietads aviaticas s'anguliveschian agl dacurs digl tains. Egna dumonda da prender posiziùn â la FAA refuso. </t>
+  </si>
+  <si>
+    <t>Sco la Betta Edu e davantada l'unfrenda d'egn sistem politic disfuncziunal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betta Edu, la ministra par fatgs umanitars ad igl cumbat ancùnter la povradad an la regenza da president Bola Ahmed Tinubu, e dacurt vagnida scatscheada ord ufezi cun inculpar ella da frod. La ranfatscha partutga egn fond par la tgira paliativa cun egna suma da 585 miliùns naira nigerians (NGN). Suainter c'ign â publitgieu egna notiztga, an la quala ella degi ver assignieu agl contabilist general da la federaziùn, Oluwatoyin Madein, da transferir 585 miliùns NGN sen egn conto privat, e la ministra stada confruntada cun egn'oposiziùn considerabla da vart da la publizitad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An quella notiztga ca datescha digls 20 da dezember 2023, degi Edu ver incumbenso el d'assignear igls daners digl conto digl National Social Investment Office segl conto privat da Bridget Oniyelu, c'e la cuntabilista d'egn project da la regenza federala ca s'angascha par cumbater la povradad a sanumna "Grants for Vulnerable Groups" (contribuziùns par grupas perizlitadas), egn project ca vean mano digl ministeri dad Edu. </t>
+  </si>
+  <si>
+    <t>Igl Rasheed Zubair, igl cunzeglieader da medias dad Edu, sinzerescha ca que agir segi legal tanor las reglas digl survetsch public nigerian. Tutegna e'gl da cunsiderar ca que agir violescha diferaintas disposiziùns digl reglamaint da finànzas nigerian da 2009. Tanor quel en igl frod ad otras furmas da corupziùn explicitameing scumandos agl rom da fatschendas guvernamentalas. Ascheia stat igl agl capetel 7, passascha 713: "An nigns cass dastgan daners privats vagnir assignos sen egn conto da la regenza near daners publics sen egn conto privat". Ad igl vean preziso: "Sch'egn funcziunari assegna daners publics sen egn conto privat, vean quegl considero sco intenziùn frodulainta."</t>
+  </si>
+  <si>
+    <t>An egn'intervesta cun Ventures Africa â egn giurist directiv betga numno cun num d'egna bànca comerziala cun posiziùn da leader, comento: "Igl dat qua plirs problems: Igl ministeri mano dad Edu e relativameing nov a la sia antezessura, l'amprema possessura digl post, Sadiya Umar-Farouk, e stada involvada an activitads c'en sco'gl para stadas ilegalas. Quegl sa dar egn'impressiùn co igl vean luvro an que ministeri. An tuts cass violescha l'assignaziùn da daners publics sen contos privats las prescripziùns davart las incumbensas publicas." El â aschunto c'igl stotgi betg exnum easser egn'intenziùn frodulainta, sch'ella setgi betga preschantar egn motiv valevel par l'apruvaziùn digl pagliamaint. Mo tutegna satracti d'egn sbagl ad igl restian anavos dubis.</t>
+  </si>
+  <si>
+    <t>An egna cuntribuziùn sen Twitter â igl expert par comunicaziùn politica a digitala, Akin Akinwale, exprimieu igl meni c'igl setgi betg easser falo digl ministeri da far diever d'egn conto privat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'advocata Iyabo Awokoya, analista politica a cunzeglieadra par svilup a management, â valito la situaziùn a moda samagliànta sen igl sieus conto da Twitter ad â exprimieu la sia simpateia par la ministra suspendida. Ella â managieu ca Edu vegi probablameing fatg egn sbagl an la sia premura surfatga, sainza easser cunzianta da quegl. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quels menis d'expertas a d'experts datan da suponer c'igl dat diferaintas ideias trànter la regenza federala ad otras instituziùns parastatalas davart l'interpretaziùn da las leschas da finànzas. Quella situaziùn e escalada, cur c'igl documaint e vagnieu a la publizitad a Betta Edu ad ascheia davantada l'unfrenda d'egn sistem politic disfuncziunal. </t>
+  </si>
+  <si>
+    <t>An general ple a mei l'interacziùn digls dus giois fetg bagn. Igl avantatg da las istorgias curtas e c'ign sa "saglir tier la bùna part". Quegl sa easser ple interessànt a cuntantevel. Igl avantatg da las istorgias lùngas e c'ign sa dar agls elemaints d'acziùn egna pesa emoziunala blear ple grànda. Igl capeta dantànt betga imediat anzatge, parsuainter survean ign ear daple.</t>
+  </si>
+  <si>
+    <t>Probablameing stuess jou ancurir egn job, mo jou sund megna marsch. Angascha me imediat. Jou bev davent tut la tia gervosa.</t>
+  </si>
+  <si>
+    <t>@user13 La mia opiniùn parsunala e, c'igls evenimaints cuminevels en essenzials par tut quegl ca nus fagiagn. Tut igl rest para dad easser curius (savens, natiralmeing betg'adigna).</t>
+  </si>
+  <si>
+    <t>@user13 Easser sen igl mund mùnta da ver relaziùns cun oters.</t>
+  </si>
+  <si>
+    <t>@user9 Jou s'ampear, scha quegl â da far anzatge cun SLAs. Sch'egna interpresa e obligada cun contract da porscher egna fidevladad da 99,999 % near ascheia anzatge, sa ella a+F340lura sabagliafar or davart igl tains d'interrupziùn cun pratender dad ànc betga ver verifitgieu quegl (intern). Sco scha l'actualisaziùn da lur pagina da status statica fuss egna confessiùn da culpa? Forza sund jou ear me paranoid/zinic.</t>
+  </si>
+  <si>
+    <t>@user10 Quegl fa sen</t>
+  </si>
+  <si>
+    <t>Igl mieus cirurg partratga propi veda tut. El â telefono a mei igl gi avànt, parquegl c'igl dueva vagnir a sbischar, a cura c'igl team da tgira â s'ocupo cun me igl mumaint c'jou sund vagnida alearta da la narcosa an la stànza da sadasdar, â igl mieus cirurg realiso c'jou ve aviert igls îls a la fascha eara avànt igls meas îls. Jou maneg tut quegl, plus ànc far l'operaziùn. Mo tutegna eara quegl confus. Quegl e sto egna da las tgossas c'â fatg a mei la ple grànda sgarschur. Jou ve durmieu a gea e'gl sto passo.</t>
+  </si>
+  <si>
+    <t>Jou ve gieu la mia perioda, mo ve stuieu satrer or. Parquegl ân els do a mei quella vastgadira sutaint da reet c'ign porta suainter quegl c'ign â parturieu. Mo an la sala d'operaziùn ston ign satrer or cumpletameing ad ign vean curvato cun egna tela. Anzacuras, avànt c'jou sund vagnida alearta, â alura egna tgirùnza curtasevla mido a mei la vastgadira sutaint. Oter ca durànt las naschientschas, noua c'jou sund stada alearta a ve survagnieu agid, near sco popa, â ànc nign fatg anzatge aschi privat par me. Quegl e ear sto la suleta geada sen la staziùn intensiva. Jou ve stuieu ir sen la staziùn intensiva sco masira preventiva, parve da la sort d'operaziùn.</t>
+  </si>
+  <si>
+    <t>Jou ve stuieu pussar blear parve da la mi'operaziùn, peia ve jou vurdo las staflas 1-3 da Grey's Anatomy. A mei â gido c'igl McDreamy eara egn neurocirurg. Jou ve fatg stem co c'igl paztgaint e vagnieu posiziuno, par saver s'imaginar tge c'e capito cun me. Davent da la mi'operaziùn igl on 2018 â la Hospital Playlist musso daple davart neurocirurgeia ca mintg'otra emissiùn da madaschegna c'jou ve vieu davent da Grey's. Quànt bi c'igl dat l'art ad igl divertimaint par dar egn sen a la nossa veta.</t>
+  </si>
+  <si>
+    <t>@user32 Graztga a la Hospital Playlist savess jou transplantar egn dir.</t>
+  </si>
+  <si>
+    <t>@user33 Wow!</t>
+  </si>
+  <si>
+    <t>Oz sa ign betga partir digl fatg ca mintgegna a mintgegn capeschi anzatge, ear sch'igl sadarasa an moda virala.</t>
+  </si>
+  <si>
+    <t>Igl dat blear megna blear ad igl dat nigna pussevladad da sistematisar quegl. Scha nus vagnagn anzuma puspe or da quella stuftgantada?</t>
+  </si>
+  <si>
+    <t>Jou ve gest scuviert igl upgrade, noua c'ign veza, noua c'ign e sto.</t>
+  </si>
+  <si>
+    <t>Suainter ver ligieu tras quegl, paran tschearts digls proxims cumbats d'easser dira lavur. Atgnameing vi jou me ir ampo a spassagear a rimnar mintgatànt egn peer bulieus.</t>
+  </si>
+  <si>
+    <t>Quel c'atarescha â zirca la gràndeztga d'egna viglia cabina da telefon anglesa ...</t>
+  </si>
+  <si>
+    <t>Sco agls ons nula. Lura dev'igl Bionivles. Quegl eara atgnameing avanturiers/heroxs cun forzas fetg elementaras a cun parsunalitads a hobis diferaints ad ascheia, mo avànt a suainter â'gl do me ple da quegl sco Warhammer, Gundam, Battletech, noua ca tut e conzepieu par easser egn'arma a vean inszeno an las medias acumpagnàntas an egna moda cumpletameing betg nezessaria.</t>
+  </si>
+  <si>
+    <t>A cler, quellas otras funtànas SAN ca "la gueara e noscha", mo lura vendan ellas anavànt maschinas da mazar sco figuras merchandising. Tge lagn nus peia far?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @user24 Jou salegr gea da vaser la famiglia da roboters pazifistica da Berry squitschada an 3 D ;)</t>
+  </si>
+  <si>
+    <t>Egn anarcist cunfesso agl qual c'igl e cumpletameing tutegna da tàner secret sia identitad, dat la sia DNA ad egna firma da biotechnologeia par survagnir egna survesta dubitevla da la sia "darivànza". Tge sa peia ir an las tgòltschas?</t>
+  </si>
+  <si>
+    <t>La mia duna â lieu quegl sco punct da partenza. Sainza antrar qua megna fetg an la profunditad, mo ella cre c'anzaquànts digls seas antenats segian atgnameing betga igls seas antenats. Jou less sustaner ella a vaser igl efect d'egn drift genetic a basa d'egna pintga amprova da controla. Nus savagn detg blear da nossa famiglia</t>
+  </si>
+  <si>
+    <t>Forza dat igl propi egn near l'oter an la mia famiglia c'e sto malfidevel, mo sch'ign risguarda las mias rischs famigliaras, par grànda part povras, en tut las aferas probablameing suczididas an vischnàncas par grànda part homogenas, an martgieus pintgs a ghetos etnics, lol.</t>
+  </si>
+  <si>
+    <t>La mia tata â banduno igl sieus um par igl frar da quel, a jou ve egn suroc da l'otra vart da la famiglia c'â banduno la sia duna par l'onda da quella. La mia famiglia va forza spassagiànd, mo propi lientsch vean ella betga.</t>
+  </si>
+  <si>
+    <t>Igls resultads en qua ad - tùns da schumbers - els corespundan perfectameing a la mi'istorgia da famiglia. 89,9 % Britanic ad Irlandes, igls blears conzentros an la regiùn digls Scottish Borders, agl ost da l'Irlanda, Wales a Cornwall. Igl â dantànt betga blear breton, forza parquegl c'igl e u aschi datier da Cornwall c'igl salascha betga disfranztgear tier me near ca mia famiglia bretonica dariva betga da là.</t>
+  </si>
+  <si>
+    <t>Duna cumplitgeada: Ussa, cugl test da DAN, veans tei peia a sareferir a las tias parts scotas ad irlandesas?</t>
+  </si>
+  <si>
+    <t>Jou, an egn kilt cun quaders da Johnston a ligiànd la "Elders of Ireland": Na, quegl nass betg anzemel cun la mia veta.</t>
+  </si>
+  <si>
+    <t>Sasfurzar ple fetg da publitgear daple magna betga adigna a miglers resultats. Ign dastga betg amblidar da sarecrear, sch'ign less davantar egn miglier szienzio.</t>
+  </si>
+  <si>
+    <t>Sco szienzio nizagiagn nus an general la vart analitica digl noss tscharvi. Mo sch'jou nizeg la vart creativa (p.ex. Par sunar ghitara, malagear, etc.) ad ear la vart analitica digl mieus tscharvi, ve jou l'impressiùn da ver augmento las mias capazitads mentalas. Ascheia samigliuresch jou an amadus secturs.</t>
+  </si>
+  <si>
+    <t>Sport e betga me anzatge par triatlets futurs near glieud ca less vaser or miglier. Sport migliurescha ear la qualitad da viver. Igls partratgs, igl stadi d'anim, la productivitad: tut e culiieu. Far egn'eada egna pausa a s'alontanar digl pult renda igl tains vid ved igl pult blear ple productiv.</t>
+  </si>
+  <si>
+    <t>Igl va sen la gnearva. Okay, jou sund ussa peia fito cun quegl, da trer or l'isolaziùn.</t>
+  </si>
+  <si>
+    <t>Ussa vignt jou sco proxim matem ad angravar egna lingia agl palantschieu sura a trer surangiou tut ad alura meter sei la nova aschi speart sco pussevel.</t>
+  </si>
+  <si>
+    <t>Jou creg c'el â custo 18 dolars, mo sch'ign varda tge ca vess tut savieu tatgear veda me, â'gl an mintga cass valieu la fadeia.</t>
+  </si>
+  <si>
+    <t>Partge vignan las coordinatas da GPS arundadas sen igl proxim grad antier? Quegl fa absolutameing nign sen.</t>
+  </si>
+  <si>
+    <t>@user29 @user30.engineer Oh Dieu, dat igl propi parsùnas ca dovran quegl ordainfer l'instrucziùn da trigonometreia?</t>
+  </si>
+  <si>
+    <t>@user39 Jou ve gest par casualitad scuviert igl sieus essai d'avànt egn tains, cura c'ella â partizipo a debatas, a jou sto gir ca quel exprima clerameing partge c'jou ve egna tenuta negativa anviers egna tschearta furma da podcasts ca vignan cunsideros sco pilasters da la 'discussiùn infurmativa'</t>
+  </si>
+  <si>
+    <t>Igl motiv par la furma curiusa da la cista da plastic e la vart laterala girabla da la stgafa da cuar. Jou ve cumpro ella scheia a ve betga savieu modifitgear ella, ascheia c'jou ve stueiu construir tut anturn quella.</t>
+  </si>
+  <si>
+    <t>An la cista grischa ca palenda da la vart da la stgafa da cuar, satgata la batareia.</t>
+  </si>
+  <si>
+    <t>Quegl e egn'eada egn feature sco'gl s'oda. Quel dat ear agls utscheals ampo sfera privata.</t>
+  </si>
+  <si>
+    <t>A l'antscheata sund jou betga sto siir, sch'igl internet agl noss iert tanschi par quel'instalaziùn. Igls vigls puncts d'aczess c'jou ve ramplazo igl atùn igl on passo vessan betga tanschieu.</t>
+  </si>
+  <si>
+    <t>Forza fetsch jou quegl ànc, cur c'jou/sch'jou montesch ulteriuras stgafas da cuar cun cameras. Probablameing dovr+F218 jou quegl par las parts c'en ple lientsch davent da la tgea.</t>
+  </si>
+  <si>
+    <t>Ussa e la camera offline a jou se betga partge. Ella e satschantada giou me egn'ura suainter c'igl sulegl e ieu da randieu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forza â la batareia betga ple cargieu anavànt tres uras avànt c'igl sulegl e ieu da randieu, parquegl c'igl veva betga glisch avu+F226nda. </t>
+  </si>
+  <si>
+    <t>Ah ea, ad egn oter objectiv.</t>
+  </si>
+  <si>
+    <t>Mo jou sund gea a la tscheartga da tocs tier Digikey, par ca setgi construir egn'atgna plata exactameing par que cass.</t>
+  </si>
+  <si>
+    <t>Igl â samusso ca 5 V a GND earan baratos segl silkscreen digl breakout USB-C c'jou ve duvro par culiear cun igl tgargiabatareias.</t>
+  </si>
+  <si>
+    <t>Jou creg c'jou stotgi spitgear antocen damàn par saver, sch'igl tànscha par instalar near sch'jou dovr igl miglier panel c'jou ve pusto.</t>
+  </si>
+  <si>
+    <t>Igl vigl sco ear igl nov tetel da la glista inditgescha c'igl satracti d'egn 12V 10W.</t>
+  </si>
+  <si>
+    <t>Forza â igl panel cargieu la batareia gest gitg avunda par egn tains da funcziùn da 38 secundas. Par quegl â el duvro me ampo daple ca duas uras.</t>
+  </si>
+  <si>
+    <t>Funfact: Jou dovr l'integraziùn da Ping agl Home Assistant par vaser, sch'el e online near betga.</t>
+  </si>
+  <si>
+    <t>Igl tains da culiaziùn munta an media a 102 ms. Betga grandius, mo ear betga masiravel.</t>
+  </si>
+  <si>
+    <t>Scha tei es sco amprem là, alura prenda betga cun tuts, le anavos egn peer par igls oters.</t>
+  </si>
+  <si>
+    <t>Scha nign tgata els oz, alura tgata probablameing igl parsunal els.</t>
+  </si>
+  <si>
+    <t>Scha jou sund tier egn event, ve jou adigna cun me egn peer. Igls suls events agl proxim tains agl mieus calender en actualmeing:</t>
+  </si>
+  <si>
+    <t>Huara K1100! Â ella egna suleta struba c'e betga blocada?</t>
+  </si>
+  <si>
+    <t>Finalmeing ve jou or la batareia. Igl e gartagieu da prender or ella sainza prender or la davosa struba, mo da quella sto jou ear ànc s'ocupar. Quegl fetsch jou damàn marvegl.</t>
+  </si>
+  <si>
+    <t>Rivo! Ussa ve jou me ple da farmar puspe igl sez cun las strubas.</t>
+  </si>
+  <si>
+    <t>Manar egna fatschenda sco parsùna introvertada e dar igl madem mumaint blear pesa a la sfera privata, quegl de betg easser egna cuntradicziùn, e'gl dantànt mintgatànt tutegna. La grànda part da las funtànas online a digls coachs cusseglian da colavurar cugls (noschs) gigànts da tech a sacumpurtar a moda extrovertada. Faged reclama qua, suandad agl algoritmus, mussad la Vossa parsunalitad. Faged egna crusch blaua tier quel a quel sarvetsch, segian cuntanschevla 24 uras agl gi, raspunded ad amparadas cun egn video sur da Vus, raspunded imediat. Video, video, video.</t>
+  </si>
+  <si>
+    <t>Jou less betga pavlar igls gigànts da tech cun daners, datas a la mi'energeia. Near igls coachs c'ân lur atgna schleiaziùn extrovertada ad imponan quella a mintgegn. Jou sund sen la tscheartga da novas pussevladads par far ir la mia fatschenda a cumbat igl madem mumaint ancùnter la mia parschuasiùn da blears ons c'ign stotgi far anzatge an egna tschearta moda par ver suczess.</t>
+  </si>
+  <si>
+    <t>Da curt ve jou abono egn CRM europeic par ver egn miglier suport da GDPR, a jou vignt a transferir la mia fatschenda las proximas eandas.</t>
+  </si>
+  <si>
+    <t>Jou sund prest an egna situaziùn samagliànta. Jou drov egna nova pagina da web a sund landervei da far egna glista da tut quegl c'jou vess bugent par egn'aczessibladad sainza barieras a la protecziùn da datas (peia nign Google Analytics, etc.) ad amprov d'eruir sco jou se nizagear Signal sco standard par cloms da video. Igl dat siir egna massa lavur da declarar quegl a la clientela, mo jou maneg c'igl vali la fadeia!</t>
+  </si>
+  <si>
+    <t>Igl mastargner e ussa veda far cugl tschetschapulvra. Sprànza vut quegl gir c'el segi prest a fegn.</t>
+  </si>
+  <si>
+    <t>El e ieu ordafora par tagliear anzatge (igl tùna seglmains ascheia). Jou ve vurdo dascus quànt lientsch c'el e. Igl dat ànc detg blear da far :-(</t>
+  </si>
+  <si>
+    <t>Ussa â el gest puspe antschiet a far cugl tschetschapulvra. Sprànza e quegl egn bùn segn.</t>
+  </si>
+  <si>
+    <t>Quegl e la mi'amprema visita tier igl daintist parve dad egna crùna: oz la preparaziùn, an duas eandas alura schar drizar ella. Jou exerzitesch gea egn'eada dad earver fetg la mia buca.</t>
+  </si>
+  <si>
+    <t>Igl Stumpi a jou eassan ussa puspe a tgea a suainter egn peer scariolas tee sasantagn nus miglier. An duas eandas va'gl anavànt ad a+F464lura e igl tractamaint a fegn.</t>
+  </si>
+  <si>
+    <t>Igl daintist e betga sto cuntaint cun la moda co ca la crùna eara drizada, schizund suainter ver elavuro a glimo ella. Parquegl ân els fatg oz novas improntas par produtgear egna nova crùna.</t>
+  </si>
+  <si>
+    <t>Las sfidas antschevan gea a samussar. Igl vean probablameing ad easser FETG greav da survagnir egna lubientscha medicala, a quegl parve da la tenuta da la FAA an conex cun tschearts medicamaints.</t>
+  </si>
+  <si>
+    <t>La FAA e betga egn fan dad ADHS. Ella lascha definitivameing betga dar ad ign egna lubientscha medicala, sch'ign prenda medicamaints par quegl.</t>
+  </si>
+  <si>
+    <t>Sch'jou stgess eliger egn agen numer par la cùa d'aviùn, lura savez vus c'igl sto an mintga cass easser egna variànta da N1337_ igl _ stat par igl davos bustab alfabetic c'e disponibel.</t>
+  </si>
+  <si>
+    <t>Quegl e gea cler sch'igl dat sulegl, cur c'jou sund davent, lol. Tge tgutga.</t>
+  </si>
+  <si>
+    <t>Quegl e betga sco egn'excursiùn da las dumeingias cugl auto. Igl e pletost egn sport c'egna spassageada, tanor la mi'opiniùn nova.</t>
+  </si>
+  <si>
+    <t>Damàn vont jou puspe. Alura exerzitagn nus interrupziùns digl curaint d'aria ad igl sgol plàn.</t>
+  </si>
+  <si>
+    <t>Igl dat endesch unitads d'amprender, par cass c'anzatgi vut saver quegl.</t>
+  </si>
+  <si>
+    <t>Egna beala dumeingia,</t>
+  </si>
+  <si>
+    <t>Dumeingia, cuntinuaziùn:</t>
+  </si>
+  <si>
+    <t>L'eanda passada e l'ora betga stada cooperativa, peia ampruvagn nus oz ànc egn'eada.</t>
+  </si>
+  <si>
+    <t>@user48 Bootstrap fuss egn grànd daletg an cumparagliaziùn cun Tailwind</t>
+  </si>
+  <si>
+    <t>Geabagn, jou fetsch la miliùn. Tei sas c'igl e egna vera fegnamira, scha tei documenteschas quegl an egna tabela. Puspe dumagnieu egn mains, a jou sund ànc adigna oravànt agl plan da tains. #remar #peloton</t>
+  </si>
+  <si>
+    <t>@user21 Jou rem me durànt l'eanda, peia e'gl an media antocen ussa ampo daple ca 5km/luvergis. Jou repart quegl diferaintameing. Sen egn ergometer.</t>
+  </si>
+  <si>
+    <t>Fagiainsa saro igl satg par l'amprem'eanda digl on nov</t>
+  </si>
+  <si>
+    <t>Aschùnta: ussa me ple egn. Me "Trimming The Herbs" mànca ànc, a jou se propi betga, sch'anzatgi dumogna quel anzacuras sainza cuglianar. Igl livel e crass greav.</t>
+  </si>
+  <si>
+    <t>Jou ve vurdo tier ad egn peer amprovas, a sco anzatgi c'â do detg savens greavs livels da Mario, e'gl - abstraho da tut igl rest - schon ascheia ca "Trimming The Herbs" (igl davos level restànt) para d'easser nungetg greav.</t>
+  </si>
+  <si>
+    <t>Ad a+F511lura â'gl samusso c'igl livel e tutegna vagnieu cargieu sei cun egn TAS, peia quenta quegl betga ple, a la victorgia e stada clera. Par gir la vardad ampo dischilisiuno, mo GG par tut la glieud c'â dumagnieu tut antocen là!</t>
+  </si>
+  <si>
+    <t>Igl agl sasvilupescha bagn (seglmains quel cugl culiez lom, quel cugl culiez dir veza or dad x-egn motiv or blear ple setg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jou reutilisesch tut la teara da vascheals da flurs c'jou ve duvro igl on passo a tir las plàntas da zetgas. Egna measadad e teara da vascheals duvrada ca dariva da l'acziùn da zarclar d'egn camarat a l'otra measadad da teara or da las eras digls meas geniturs. </t>
+  </si>
+  <si>
+    <t>Igl tarladieu cheminé electric ad igl fùns digl cheminé ston vagnir alontanos. Nus stuagn far egn mir anturn igl cheminé, ramplazar la ligiadira ca sadistatga a stirar el. Ad alura construir la stgafa da vastgadira tanor mesira.</t>
+  </si>
+  <si>
+    <t>Igl fundamaint da corc e mess, jou ve zambargieu egn extrahader da rolas da rasgem da pulpier da hisli par igl tschetschapulvra.</t>
+  </si>
+  <si>
+    <t>Fito, mo miez morta! Igl punct culminànt e stada la sgarschevla instrucziùn da montascha par igl nov litg. Questa notg vagnagn nus a durmir bagn!</t>
+  </si>
+  <si>
+    <t>Ier eassan nus vagnieus a fegn cugl palantschieu agl zuler! Lura eassan nus ieus la damàn marvegl a las 5 a Heathrow par igl Object 1, egn curt cupid a spurt final an zuler, las glistas en montadas. Las cuvas vignan fatgas, cura ca la cola e setga.</t>
+  </si>
+  <si>
+    <t>Alura procurass igl navigatur ca las secziùns 1 antocen 6 vagnessan visualisadas sen la pagina da web *sur* la secziùn 7.</t>
+  </si>
+  <si>
+    <t>Igl cuntegn savess vagnir streamo an quella moda, ad alura integrass igl navigatur tut igls &lt;contents&gt; an la &lt;div&gt;.</t>
+  </si>
+  <si>
+    <t>@user23 Ea. Igl problem e, ca la suczessiùn visuala (quegl c'igl utilisader veza) corespunda betga a la suczessiùn DOM. Igl fuss nizevel da ver egna funcziùn da HTML ca lubescha da betga streamar egna sequenza suainter l'otra, mo igl navigatur ordinass igl cuntegn suainter a la suczessiùn DOM.</t>
+  </si>
+  <si>
+    <t>@user22 oh, vol tei, c'igl navigatur curegi la suczessiùn DOM?</t>
+  </si>
+  <si>
+    <t>@user23 Ea, quegl e l'ideia. La secziùn 7 vagness streamada sco amprem, par c'igl utilisader sa vurdar el aschi speart sco pussevel. Scha quegl nass sainza influenzar la suczessiùn DOM, fuss quegl bien, alura procurass igl navigatur ca la suczessiùn DOM resulada corespundi a la suczessiùn visuala.</t>
+  </si>
+  <si>
+    <t>Peia de la secziùn 7 vagnir streamada sco amprema, mo igl resultat final de vaser or ascheia, sco scha tut las secziùns fussan vagnidas streamadas egna suainter l'otra</t>
+  </si>
+  <si>
+    <t>@user22 '@user23 Varda egn'eada PHOOOS sainza JS: https://github.com/niutech/phooos</t>
+  </si>
+  <si>
+    <t>ve gieu blear plascher cun kneadatite (quella roba verda), igl e sco da modelar cun schlogns, mo ign sadisa veda quegl, ad igl e lom a flexibel cur c'igl vean dir</t>
+  </si>
+  <si>
+    <t>@user26 Ad aschi frestga. Jou ve bugent ELLA*</t>
+  </si>
+  <si>
+    <t>@user27 hehe graztga user26</t>
+  </si>
+  <si>
+    <t>OK, suainter igl proxim video vignan igls tetgers ad easser noschs sen me, mo igl e betga par els! Igl e par te - a bagn, scha tei s'odas tier quels, ca san betga prastar egn tetger, alura stos tei vurdar que video. Là vezas tei, co ca tei sas biagear sez egna cuvrida sur egn tetg vigl, c'e gea existaint. Igl e fetg sempel: Egn sistem, c'ign sa semplameing trer giou a tatgear landervei.</t>
+  </si>
+  <si>
+    <t>Hoi a tuts. Ussa vurdad egn'eada: Jou ve ànc gnànc maglieu avunda, da schubargear la mia buca, mo jou gitg a vus, a mei cura l'aua an buca. Vus savez, tge c'jou maneg? Jou se prest betga spitgear. Par plascher scrived sut, tge ca vus fagessas. Tge verdira sarvessas vus cun quegl? Betga amblidar, c'igl degi easser egn damagliear bùnmartgieu, ok? Ussa dearsch jou semplameing ampo da que Kool-Aid d'ieuvas agl mieus magiel. Oh ea!</t>
+  </si>
+  <si>
+    <t>Bagnvagnieu a Cosa, Itaglia. Cosa de easser sto egna coloneia romana Que liac e vagnieu tgavo or seglmains quater geadas agl davos tschantaner. Tge dat igl da tgavar or a Cosa, sch'igl eara egn'eada egna coloneia romana? E igl Pantheon vagnieu tgavo or a Ruma? Na, igl Pantheon stat schizund segl madem palantschieu sco bietgs cuntemporans agl conturn. Veda tge sche quegl? Veda quegl, c'igl Pantheon e probablameing vagnieu biagieu durànt igl tains digls romans. Igl e prest ear drizo or anviers la direcziùn digl tschiel tge ca mussa, c'igl sa betg easser aschi vigl.</t>
+  </si>
+  <si>
+    <t>Ussa sto jou speart numnar igl num digl reactur, cunquegl c'el eara egn implànt da prestaziùn da nula. Cunquegl c'egn implànt da prestaziùn da nula e agl cass da mantaner egna reacziùn da cadagnas da fissiùn, sainza d'ulzar near sbassar la speartadad da reacziùn. Quella moda d'instalar e fetg impurtànta par rimnar experienztgas da la funcziùn digl reactur, sa dantànt ear easser mortala, scha la pesapaja sensibla vean betga risguardada.</t>
+  </si>
+  <si>
+    <t>Quegl e propi egn project surprandànt fetg sempel. Igl e anzuma betga greav da posiziunar tut anzemel. Quegl e igl bi veda que project. Quegl e peia fatg, ok? Peia antschev jou uss ascheia. Jou met sei igl tatgeader a fetsch egna pagina suainter l'otra. Exact ascheia. Jou vont egn'eada anturn l'antiera bescla... la ur... igl ur da la bescla. Oje. Jou prend peia semplameing quegl a strocl ancùnter.</t>
+  </si>
+  <si>
+    <t>Jou ancuraschesch els da cuntergir agls surmesters, sch'els tratgan, c'igl surmester a fatg falo anzatge. A mei par'igl bien, sch'igls carstgàns amprovan anzatge a prendan betga tut ascheia sco'gl e. OK. Ea. Quella sort da libertad-. Els en ancunaschaints par quegl, c'els ân sco delego digl congress adigna declaro sen facebook par tgi c'els ân voto - egna cunzessiùn rara d'egna autoritad, da gir, "Okay, parquegl ve jou fatg quegl". Ea, ad atgnameing, savez Vus, â quegl betga plaschieu a blears manaders ad agl congress, c'jou ve fatg quegl, parquegl c'jou ve do a las parsùnas a tgea la pussànza da cuntergir. Ea.</t>
+  </si>
+  <si>
+    <t>L'amparada e, sco tier blearas otras ruegnas neoliticas: Co ân els cumplanieu ascheia egna prestaziùn? Co ân els savieu ulzar crapa aschi grànda? Earan els, sco quegl ca nus vagn gea savens tartgieu, igls rests d'egna cultura antica fetg avanzada c'e ida ampaglia? A nus para quella pussevladad, surtut qua tier igls carstgàns da Er Grah, fetg parschuadainta.</t>
+  </si>
+  <si>
+    <t>Suainter quegl ca tut e fatg, sfrusch jou davent la pulvra danvànza cun ampo alcohol a cun egna tela da pulpier. Igl e fetg sempel da schubargear. Alura met jou sei igl ieli d'ùnglas. Atgnameing e quegl egn ieli par la fatscha da Truly, mo jou ve betga gieu bugent igl fread fearm. Jou ve betga lieu meter egl sen la fatscha, parquegl dovr jou egl sco ieli par las ùnglas. A quegl e igl davos product par las mias ùnglas. Jou ve aschi bugent ellas a sund tut nar dad ellas. Egn peer amparadas frequentas: Quànt gitg tegna igl set dad ùnglas? Jou port las ùnglas normalmeing duas eandas. Mintgatànt prend jou davent ellas ple bòld, parquegl ca vus tuts savez, c'jou fetsch seza igls meas tgavels, a jou dovr igls pezs digls dets par igls tgavels, par tschifar els sempel.</t>
+  </si>
+  <si>
+    <t>"Egna notg an cursa da galaxeia" digl Kenji Miyazawa. Quegl e egn'istorgia giapanesa da dus buabs, ca fan egn vieadi mistic agl tren da tschiel, ca va tras egna galaxeia. Els fan pliras experienztgas alegoricas a vignan cunfruntos cun temas filosofics. Durànt igl vieadi digls buabs tras igl tschiel da notg va'gl par veta, mort a pigl easser carstgàn, a l'istorgia magna igl ligider sen egn vieadi da parscrutaziùn cun grànda muntada tier igl tema existenza ad univers. Igl roman e vagnieu scret anturn igl on 1983 tier egn manga a 1985 e el davanto egn anime.</t>
+  </si>
+  <si>
+    <t>Ok, halt, halt, ussa fe ampo ple poc canera, par plascher! Bab, cura savagn nus prastar egn auto ple grànd? Scha tei es anturn 10 ons ple vigl a sas maridar egn miliunari. Agl mieus tgaret d'unfànts ve jou gieu daple plaz. Ea, a quel ve jou ear ànc betga paglieu giou. Jou debitesch schizund agl spital ànc duas ratas, antocen ca tei s'odas a mei.</t>
+  </si>
+  <si>
+    <t>Oz bagliafainsa sur digl Ben Affleck an egn'intervista. Greg, partge raquentas tei betga ampo davart igl video, ca nus vagnagn a vurdar. Ea, also, avànt anturn duas eandas â igl Ben Affleck gieu egn'intervesta da duas uras cugl Howard Stern. El â bagliafo da la separaziùn da la sia duna ex a da la famiglia, a quegl â gieu consequenzas, also igl antscheva. Qua e el, igl Ben Affleck!</t>
+  </si>
+  <si>
+    <t>Igl anamitg digl mieus anamitg e igl mieus amitg. Quegl e falo! Sch'igl anamitg fuss igl tieus amitg, alura fuss el explizitameing igl tieus amitg. Forza pon las parsùnas luvrar par egn tains anzemel, parquegl c'ellas refuseschan tutas duas anzatge near anzatgi. Mo scha quella relaziùn sabasa sen egna refusaziùn vizandevla near tge ear adigna, alura dat igl nut c'impedescha ca la relaziùn saschleia near davainta hostila suainter c'igl problem e vagnieu schliieu, near? La basa d'egna amizeztga e blear ple stabila c'ascheia anzatge. Mo sas, jou capesch ear la strategeia da curta durada ca stat davostier, peia cuntergitg jou semplameing.</t>
+  </si>
+  <si>
+    <t>A parquegl sas tei betga ple fidar a las medias, c'ellas comenteschan las novitads da maniera faira a corecta. Dantànt sund jou tutegna ànc da l'opiniùn ca las medias da mainstream vegian lur valeta. Me parquegl c'ellas surfan near en partischàntas less quegl betga gir c'ign setgi anzuma betga fidar ad ellas. Or da quellas funtànas sa ign ànc adigna trer blearas infurmaziùns nizevlas. Tei stos me saver co ca tei analiseschas corectameing. Igl madem vala betga exnum par las "medias alternativas", las fatschendas las ple pintgas near parfegn parsùnas singulas ca bagliafan davart novitads sen paginas sco Youtube a Facebook.</t>
+  </si>
+  <si>
+    <t>Suainter igl download stuessas tei ver egna gràndeztga da datoteca spearta a pintga. Tei âs lura egn'aplicaziùn ca veza or sco quella, bien? Scha jou clicesch ussa se qua, e quegl la vesta ca tei vezas alura imediat. Ad ussa vi jou bagliafar davart egn peer tgossas an conex cugl lab. Egn punct impurtànt e ca las indicaziùns da lab par igl fegl da lavur da lab, veda quel ca tei veans a luvrar, e atgnameing autoexplicativ. Igl intent da que video e peia atgnameing quel da mussar a tgei co ca tei dovras l'aplicaziùn.</t>
+  </si>
+  <si>
+    <t>Mo bagn, igl tùna ànc adigna miglier ca Pink Floyd. An Manic Miner sas tei peia rimnar tut igls objects sen igl monitur ad ir antocen a l'arivada. A quegl sas tei far igl miglier avànt ca tei âs nign'aria ple near laschas tgapar egn obstacel. A tgenegn exactameing? Igl zarclem! Tei sas murir, scha tei laschas tgapar l'earva. Sco'gl para la measadad digls meas fans. A vez vus vieu c'jou sund mort, parquegl c'jou ve scho tgapar igl zarclem c'eara sen egna tut otra platafurma? Jou ve semplameing traverso la platafurma a ve tutgieu igl zarclem. Quegl e egn grandius design da games. Ad alura ve là quella rusna tgil ca fa rrrr!</t>
+  </si>
+  <si>
+    <t>Hi, Rob. Hi, Marion, sco va'gl? Fetg bagn. Partge es tei vastgida sco egna guardia? La gestiùn â amparo a mei da crear egna nova partiziùn da novitads par la sireztga agl sectur da sànadad ad igl manual par igls cumpraders. Jou ve tartgieu c'jou sasainti miglier an la rola cun egn outfit andretg. Ea, jou capesch. Ea, forza funcziunescha quegl, Rob. Nus vagn ussa egn sectur da novitads ca varda segls problems a las schànzas anturn la sireztga da datas a la sireztga da la reet agl sectur da sànadad.</t>
+  </si>
+  <si>
+    <t>Damena po igl mieus bab betga purtar me a la lavur. A jou ve egn vieadi da zirca 27 miglias par ir a luvrar. Ir a turnar fussan qua bunameing tschient dolars par gi cun Uber. Jou ve ànc betga vurdo tier Lyft. Quegl vess jou savieu far, quegl fa sen. Mo tier la mia sigurànza digl auto e prender a tschains betg'egna part, quegl e peia la mia cualpa. Jou vess peia savieu ampruvar d'instalar quegl a da prender a tschains egn auto, durànt c'jou sund sto bancrut a vev nign auto ple. Mo ear prender a tschains cuvress betga seat gis. Jou sto me speart sturnidar, egn mumaint. Que sturnidar eara nosch.</t>
+  </si>
+  <si>
+    <t>Mo, tei vessas me igls persequitaders penals agl culiez a purtassas anavos els, ad alura fuss tut ple nosch c'avànt. Sa easser. La veta fa dantànt semplameing nign sen. Nus vagn nigna schànza. Mo Chris, tge gis tei qua. Nus vagn tuts egna schànza. Igl mund e plagn bealas tgossas. Betga par nus gidànters. Bagn, igl mieus tgear, par nus tuts.</t>
+  </si>
+  <si>
+    <t>Hallo Psych2Goers, a bagnvagnieu anavos segl noss canal. Graztga fetg par tut quella amur ca vus vez tarmess a nus. Igl voss sustegn cuntinuànt â gido da render aczess a la psicologeia a sànadad mentala par tuts. Fagiainsa anavànt. Mintgegn da nus â durànt la sia veta fatg anzatge autodesctructiv. Piglple suczedi betga cun intenziùn a davainta nigna disa. Cumpurtamaints autodesctructivs en tals ca fan don corporalmeing a mentalmeing. Forza fas tei quegl betga cun intenziùn, near forza sas tei exact tge ca tei fas, mo igl desideri e megna fearm da controlar el. Cugl tains po quegl dar problems, scha quella moda da cumpurtamaint saschlueta aint. An egna parsùna autodestructiva dat igl seat cumpurtamaints frequents.</t>
+  </si>
+  <si>
+    <t>Co vez Vus gea bòld partartgieu near cunstato ca, mo bagn, la tecnica e semplameing egna part da la sfida? Spezialmeing c'ign mussa a nus sco inschigniers ca nus vagnagn a frida cun problems, never? A ca nus catagn schleiaziùns. Quegl e la nossa leztga. Ea, siir. Sco vez vus cato or gea aschi bòld? Bien, quegl eara egna casualitad betga usitada, sa ign gir. Natiralmeing sund jou carschieu sei agls ons 70. Jou ve survagnieu la mia cunzienztga politica a la mia capientscha academica agls ons 70 a que contet e natiralmeing extrem impurtànt.</t>
+  </si>
+  <si>
+    <t>La band da quater cumembers The Now da la Valisa digl Sid salegra segl sieus amprem album, Too Hot To Handle, sur True Music, ad igl Callum e ussa tier me. Sco va'gl Callum? Tut an urden? Ea, tut e bien. A tei âs ear bien? Ea, a mei va'gl prima. Graztga fetg. Igl e egna honur par me da bagliafar cun vus, parquegl c'jou ve tarlo fetg savens la vossa musica davent digl on 2023. A mei ple quella musica fetg bagn, a tanor me e ella anzatge ca nus duvragn definitivameing oziglgi an las paradas da hit.</t>
+  </si>
+  <si>
+    <t>Peia, cura vez Vus antschiet a cumponer a performar musica, suainter quella preschantaziùn sen la tribuna avànt la Vossa tata ad igl Voss tat? Mo bagn, quegl e sto pletost egna performance. Jou ve ear cumponieu ampo, mo gliez ve jou surscho agls profis, savez, cur c'jou ve registro cun cumponists professiunals ad â gieu enorm suczess agl antier mund.</t>
+  </si>
+  <si>
+    <t>La gestiùn ad igl alontamaint corect da rumients agl Voss manaschi da reparatura d'autos e impurtànt par la sànadad digls colavuraturs ad ampurmeta ear d'evitar multas near custs òlts d'acordànza. Ultra da quegl less la cliantela far fatschendas cun interpresas ca sastaintan a moda proactiva da schurmagear igl ambiaint a ca lavuran a moda durevla. Tgenegnas en las seat veias par far quegl? Primo: rafinar ànc egn'eada igl ieli duvro. Fiered betga semplameing davent igl voss ieli vigl. Cugls dretgs prozess sa igl ieli vagnir rafino danovameing a sa vagnir reutiliso ilimitadameing sainza spearsa da qualitad.</t>
+  </si>
+  <si>
+    <t>Hop, Hop. Igl crap bata la forbesch, la forbesch bata igl pulpier ad igl pulpier bata igl crap. Tei gudognas. Igl pardider pearda egna stéla. A la fegn digl gioi meta igl arbiter las tgartas puspe an la stgatla da rezicladi. Sch'amadus giujeaders eligian natiralmeing la madema tgarta, dat igl peer a nign pearda egna stéla.</t>
+  </si>
+  <si>
+    <t>Hallo, qua e igl World PDR par vus cun egn Yukon Denali reschnov digl 2018. El â egna pintga bota qua davos. Jou ve betga mess el sen calira. Sen 95. Quegl e forza ampo megna tgòld. Jou vont ampo anavos. Nus fagiagn semplameing egna spearta lavur da cular. Jou ve gea scaldo la cola ad ella e prùnta. Vasez vus, noua ca la bota e? Jou lasch cular ella exact an qua, ad alura savainsa forza schizund prender davent la calira.</t>
+  </si>
+  <si>
+    <t>Vurdad bagn sen quella claveglia. Qua â ella ampo ruegna sen la surfatscha, mo ella e ànc duvrabla. Nus mussagn a vus sco'gl e gartagieu a nus da zincar que sempel toc fier. Scha vus vez igl material adigna a tgea pigls màns, savez vus spargnear egn peer raps ad igl vieadi an la stizùn da fier, scha vus lez zincar egn toc fier. Nus mussagn a vus tut quegl ca vus stuez ver agls màns par zincar quella claveglia a par far ella ascheia resistenta a l'ora.</t>
+  </si>
+  <si>
+    <t>El â getg, "Tei âs egn tattoo". A jou ve getg, "Jou ve plirs." Mo, "Sen igl tieus màn". Jou ve egn banjo, a quegl ve jou getg ad el. El eara egn amitg da me, igl Darryl Adams. Ad igl e egn banjo. Âs tei el? Oh, ea, quegl e egn banjo ca tei âs là segl tieus màn. Stgagn nus vaser el? Vurdad, igl e egn banjo. Quegl e egna sort da tetovaziùn ca tei stuessas atgnameing ver segls schanugls, sas? Ea, ea. Near, near ... Egn banjo segl schanugl, anzatge ascheia. Oh, egn banjo segl schanugl! Ea. Eaa!</t>
+  </si>
+  <si>
+    <t>Quegl e l'antiera istorgia digl Danny a digl Sam. Eassas samtgieus? Samtgieus. Igl Danny Fenton ad igl Sam Manson en igls migliers amitgs, ad anzemel cugl Tucker passaintan els practicameing tut igl tains egn cun l'oter. Graztga agl Sam â igl Danny anzuma las sias forzas da spiert. Tge pulenta, Danny, egna zona da spierts? Quegl stos tei vaser. Sas tge? Tei âs raschùn?</t>
+  </si>
+  <si>
+    <t>Betga lientsch davent e igl Basil vagnieu svaglieu d'egn alarm da sirenas, cur c'egna brenta da gas tufànta â sadaraso sur igl antier teritori. Las abitàntas ad igls abitànts en vagnieus admonieus da betga bandunar lur abitaziùns a da taner saro tut las faneastras ad igls eschs. Que alarm e dantànt vagnieu giuditgieu sco betga mortal. Igl eara betga l'aria, mobagn surtut l'aua ca vess savieu easser contaminada fearmameing, a surtut l'aua ca vagneva duvrada par stizar igl fiac vess savieu caschunar egna catastrofa. Las cumposiziùns d'argientviv fetg toxicas earan sco fungizids an trucs maritims agl magazin a marcadas cun calur cotschna fluoreszenta sco Rhodamin B.</t>
+  </si>
+  <si>
+    <t>Protocol par cumbater delinquents 1.2747. Jump City e plagn criminalitad. Sulet se jou betga purtar gisteia sen las veias. Jou dovr egn sidekick, igl miglier gest plirs. Par easser gentil numn jou els colegas digl team, mo tuts san c'els en me sidekicks. Aplicaziùns par crear reets. Bagnvagnieu, RobDog_747. Lainsa meter anzemel egna squadra. Modus da crear egna squadra. Betga ple viglia ca jou.</t>
+  </si>
+  <si>
+    <t>Kim Jong-il â getg agls ufizials: "Jou ve partgieu igl auto cun egn grànd leader, ve sarvieu a las massas luvrusas a fetsch flurir schizund sen egn grep, sch'igl pievel giavischa quegl. Quegl e igl mieus alpha ad igl mieus omega. Que partratg e vagnieu amplanto an tut igls aspects da la veta digls carstgàns, par exaimpel an la schleiaziùn digl problem da trafi.</t>
+  </si>
+  <si>
+    <t>Quegl ca nus fagiagn sco amprem e maschadar la calur. Ella vean maschadada egn ad egn cun egn schlunganider. A nus maschadagn ella madem sco par dar sei calur. Qua ve jou duas unzas da calur. Ussa truschagn nus quegl egn'eada. Ella sa ussa vagnir amplanida an la pistola a sprizada.</t>
+  </si>
+  <si>
+    <t>Quegl e aluminium. Aluminium par la noss'industreia ad aluminium par igls noss datgeas. Aluminium par igl bietg, igl transport, la comunicaziùn, l'agricultura near la defensiùn naziunala. Co e igl aluminium, egn digls ple giuvens cumembers da la famiglia digls metals, davanto egn material aschi exzelent? La rasposta e da catar an la sia diversitad surprendainta ad an la cumbinaziùn betg usitada da las sias caracteristicas: la sia cumparsa elegànta a moderna an diferaintas finiziùns natiralas near caluradas. La sia farmeztga cumbinada cun la pesa extremameing bassa e egn avantatg betga cumbatevel an bunameing tut las aplicaziùns da metal.</t>
+  </si>
+  <si>
+    <t>Las ampremas dumondas d'admissiùn a Harvard par egn master an psicologeia en vagnidas refusadas, mo a la fegn e el tutegna vagnieu admess. Las ampremas disgetgas ân da far cugl fatg c'igl Milgram veva absolvieu nigns curs an psicologeia soziala. Anturn que tains e el ear davanto professur assistent a Yale.</t>
+  </si>
+  <si>
+    <t>Quegl ve jou betga getg. Quegl stos tei ear betga. Tei sas miglier ca tut igls oters ca violenza magna mintg'eada a daple violenza. Igl cunzegl â prieu la dezisiùn. Igl cunzegl dat igl betga ple! Nus vagn deditgieu la noss'antiera veta, melis ons, a la protecziùn da la veta.</t>
+  </si>
+  <si>
+    <t>A quegl e anzatge c'evocescha egn profund sen da respect. Ad exact quegl less jou intermediar questa sera. Jou sper ca vus segias prùnts da far egn beal vieadi recreativ tras l'istorgia da l'Egipta antica.</t>
+  </si>
+  <si>
+    <t>Scha tei dovras catram par sigilar, rumpa el. Jou muss quegl a tgei. Jou alontanesch igl silicon, quegl e egn digls no-gos, la sigilaziùn cun silicon. Mo anzatgi â prieu qua catram ad â do calur agl catram. Jou muss quegl a tgei. Tge â quegl purto? Igl e gea me egn mied par amplanir.</t>
+  </si>
+  <si>
+    <t>Sco um stund jou anzaco ple mal par el ca par ella. Qua sa ign far nut. Cun lur feglia va'gl puspe mender. Agl spital manegian els c'ella survivi betga igl gi. Quegl sto easser nunsurpurtevel Jou ve ànc mai pears anzatgi. Ella vean a vagnir a frida cun quegl. Oh, jou stund aschi mal, Mrs. Leslie. Oh, quegl e an urden, Miss Rone. Ign vean a frida cun quegl. Anzacuras.</t>
+  </si>
+  <si>
+    <t>Igl e las 6:03 uras da quella measeanda marvegl, a nus raportagn oz an damàn d'egna istorgia tragica. Egna giuvna e morta. La polizeia â cato la sia bara an egn foss sen la Eastside. La teribla scuvretga e vagnida fatga pliras uras suainter c'igls seas geniturs vevan anunztgieu ella sco sparida. Els ân getg c'ella levi far egna spassageada la notg passada. La Tawny Davis da News 4 raporta oz an damàn an directa da las zircumstànzas ca savessan ver caschuno la sia mort a da l'inquisiziùn da la polizeia. Bun gi, Tawny.</t>
+  </si>
+  <si>
+    <t>Igl e gea passo egn mains, ad jou ve ànc adigna igl santimaint da star là sper la sia fossa. Jou se betga bandunar el. El e betga ple qua, ad jou se ànc adigna betga bandunar el. Jou vez el an mintga suldo unifurmo c'jou antop, a davent digl bumbardamaint en els dapartut.</t>
+  </si>
+  <si>
+    <t>Okay, jou sund mort. Igl â do là egn tardamaint, cur c'jou sund samano. Ea, parquegl ve jou sagito dasperas. Igl mieus ping e an urden. Mo bagn, tge amporti. Ea, vus vasez ved la framerate tge c'jou maneg. Quegl e quegl ca ple betga a mei veda que aparat. El e megna plàn par igl gioi. Cur c'jou ve sagito segl adversari, ve jou atgnameing adigna sagito segl falo liac, betga parve digl mieus ping, mobagn surtut parve da la tgarta grafica plàna digl smartphone. Ok, nainsa anavànt tier igl CoD.</t>
+  </si>
+  <si>
+    <t>Tge â quegl purto a tgei? Co e quegl peia aplitgevel par la tia atgna veta? Mo bagn, atgnameing rogan els tuts a Dieu par pardunamaint. Tuts anzemel. Scha tei âs peia ligieu da giuven igls cudeschs davart tut quels conquistaders ad e sto curt avànt davantar campiùn da pesas greavas ad âs ampruvo da partartgear sco igls conquistaders, ad alura âs tei cunstato c'els rogan tuts par pardùn. Ea. Tge efect â quegl gieu sen te? Quegl e sto detg cool, parquegl c'ascheia ve jou amprieu ca la gràndeztga cunsista agl fatg dad easser prùnt da murir.</t>
+  </si>
+  <si>
+    <t>Hallo a tutas ad a tuts! Tgi c'ancanuscha me ànc betga, jou sund la Janica, a jou sund egn'experta da la Finlanda a viv an la Holanda. Bagnvagnieu tier que vlog. Oz eassan nus agl martgieu da Haarlem. Haarlem e egn balteztgas martgieu an la provinza da la Holanda digl Nord.</t>
+  </si>
+  <si>
+    <t>Jou se ca blearas a blears da vus ân safatg legher davart la mia vigliadetgna avanzada. Vus vez avànt curt schizund culiieu la mia operaziùn cun la mia vigliadetgna. Mo bagn, jou sto easser sinzera cun vus. La madem'operaziùn ve jou gea fatg egn'eada, cur c'jou eara giuvna, a jou ve sasantieu aschi bagn, c'jou ve lieu repeter ella avànt c'jou sund megna viglia. Jou sund dantànt tutaveia cunziainta da la mia vigliadetgna. Sch'jou lasch intercurir me, ampeara nign ple quànt viglia c'jou segi. Els dateschan me semplameing cun la metoda da radiocarbon.</t>
+  </si>
+  <si>
+    <t>La batareia e bùna. Ussa vasagn nus c'igl ziruqit integro â sadistatgieu da la plata electronica. Nus vasagn igl stadi da que zirquit. Que track s'oda qua. Que track e donagieu.</t>
+  </si>
+  <si>
+    <t>Graztga agl sieus muster militar multifar fa'gl nut agl pestg-balùn perlo da vagnir vieu. Igl pestg luschard atlantic sacamuflescha gnànc. El satgava semplameing agl sablùn. Ascheia sa el anganar tànt la sia preada sco ear igls catschadurs. Mo la patruglia da pestgs-balùns cugliùna el betga ascheia.</t>
+  </si>
+  <si>
+    <t>Jou port bugent guànts, parquegl c'igls urs sainza ruegna en par regla aschi gits sco cuntis da far la barba, a jou less betga satagliear durànt c'jou fetsch els. Jou dovr la mesa savens sco tgar. Igl dat ear marteals spezials, near mintgatànt vignan els ear numnos marteals da juveliers. Ad igl dat mazas da tagliear. Mo nus vagn qua egn grànd toc plat, peia dovr jou semplameing igl mieus marti da tender.</t>
+  </si>
+  <si>
+    <t>Oz zambargiagn nus egn peer balteztgas decoraziùns da Pastgas agl stil da vintage. Sted landervei! Jou sund igl Brandy, a vus vurdaz "Making It My Own DIYs". Bagnvagnieu! Igl amprem project en dus ornamaints da Pastgas. Jou antschev cun quels dus pintgs motivs qua, a vus savez duvrar quegl ca vus vez gest pigls màns. Jou ve prieu quels pintgs ovs decorativs da Dollar Tree.</t>
+  </si>
+  <si>
+    <t>Igl retg Lalibela de easser viagieu las 1.600 miglias tocen a Gerusalem. Tanor la legenda de igl Lalibela ver cumando da crear egna nova patria par igl cristianissem, suainter c'el eara da return ad igl martgieu da Gerusalem eara vagnieu conquisto da forzas islamicas. Mintga baselgia e vagnida stgalprada or d'egn sulet grep par simbolisar la spirituaitad a la umilitad. Numerus simbols ân survagnieu nums biblics inspiros da la cardientscha cristiana. Schizund igl flem da Lalibela â num Jordan. Lalibela e stada la capitala da l'Etopia davent igl 12. avel antocen igl 13. avel tschantaner.</t>
+  </si>
+  <si>
+    <t>Segl Mars, egn planet c'e miez aschi grànd sco la Teara. Avànt egn lùng lùng tains dev'igl fetg blear'aua segl Mars. A parve da quegl … Segl Mars dat igl egn vulcan c'e 81.000 pes òlt, el e bunameing tres geadas aschi òlt sco igl Everest. Mo quegl c'e capito durànt egn tains aschi lùng e propi daple ca la mia imaginaziùn sa tschifar. Mo tutegna, l'amprem'aua. L'amprema veta: 3,7 miliardas ons. Nus giagn semplameing la veta. Peia fetg, fetg bòld peia a l'antscheata digl svilup da</t>
+  </si>
+  <si>
+    <t>Igl Festival Transeuropa â liac mintga dus ons ad e egn event/egn forum/egna conferenza politica, culturala ad artistica c'unescha blears formats diferaints. Nus, l'organisaziùn European Alternative ca stat davostier, fagiagn quegl ussa davent da 10 ons. Nus vagn peia gea blear'experienztga. Igl satracta d'egna ocurenza ambulànta c'â liac mintg'eada an egn oter martgieu. La davos'eada, avànt dus ons, eassan nus stos a Belgrad, peia egn martgieu ordainfer l'Uniùn europeica. Uon, 2017, vagn nus lieu ir par diferaints motivs a Madrid.</t>
+  </si>
+  <si>
+    <t>Igl movimaint islamic an la Nigeria â dascret la libertad c'e vagnida cunzidida agl sieus leader El-Zakzaky ad a la sia duna sco victorgia sur da la persecuziùn antras igl president Muhammadu Buhari ad igl guvernatur Nasiru El-Rufai digl stadi federal Kaduna. La grupa gi ear ca la santenzia vegi rehabilito igl sieus leader a cumembers da la grupa. Hallo. Jou sper ca las novitads vegian plaschieu a vus. Faged aschi bagn ad abunad igl noss canal da YouTube ad amblidad betga da clicar sen "Avertir" par easser infurmos davart tut las actualisaziùns da las novitads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallo a tutas ad a tuts, qua e igl TS Madison. A scha vus lez ca la vossa fatschenda, la vossa marca near igl voss product sasvilupeschi, partge betga far reclama cun me? Tarmated a mei egn'e-mail a booktsmadison@gmail.com par s'infurmar davart igls noss pacets da reclama cumplessivs. Visitas unicas, abunamaints unics, las mias tgearas ad igls meas tgears, egna grupa an mira multifara. Faged ànc oz reclama sur me. </t>
+  </si>
+  <si>
+    <t>Igl film documentar ca vus vagnez a vaser dalùnga, e vagnieu musso agl Alexander Kerenski, igl president da la regenza provisoria russa, c'e vagnida darschida igl 1917 digls comunists. Igl Kerenski e sto d'acord da gir egn peer pleds introductivs davart igl noss film. Nus mussagn igl Alexander Kerenski an la vigliadetgna da 80 ons agl sieus apartment a New York City igls 10 d'october 1962.</t>
+  </si>
+  <si>
+    <t>La Vossa anur, igl mieus mandant aczeptescha igls giros ascheia sco els sacumponan actualmeing. En amaduas partidas d'acord cugls giros? Nus aczeptagn igls giros. Nus eassan d'acord cugls giros. Schad prastar igls giros igl angiramaint.</t>
+  </si>
+  <si>
+    <t>Igl Kid Durango dad Arizona: The Dust Devils. La rugada ca cuvreva la prareia e svanida speart, cur c'igls radis digl sulegl en curdos sen las frastgaziùns da las muntognas. La gliegna e stada vasevla ànc egn'ureala ad e alura ida da randieu lientsch davos igls cualms. Igl gi â antschiet sco melis oters gis ad Arizona. Antocen c'igl nivel e vagnieu.</t>
+  </si>
+  <si>
+    <t>Ad jou ve blear'experienztga. Jou ve luvro segl plàn internaziunal. Jou ve luvro sen que continent. Jou ve luvro an divers stadis ad an segmaints da martgieu diferaints. Ad jou ve cunstato ca quegl interessescha propi la glieud. La glieud vut saver sco'gl e davos las culissas. Egn peer da quels videos en peia tips dad anzatgi c'â propi luvro an quella branscha, ad jou maneg ca quegl distingua me ampo digls oters bloghists da vieadi ca vus suandaz forza. Jou ve forza betga luvro an l'industreia da cruschadas, mo pigl mieus diplom an l'hotelareia ve jou stuieu frequentar curs respectivs. Peia, ear sch'jou ve betga luvro an que sectur, ve jou tutegna egna scolaziùn coraspundainta.</t>
+  </si>
+  <si>
+    <t>Tei es egn idiot, Tom. Mo Celia, nus stuagn sadeditgear a las nossas passiùns. Tei âs la tia robotica, a jou less semplameing easser egn grandius tip agl spazi. Partge das betga semplameing tier ca tei âs tema digl mieus màn robotic? Jou ve betga tema, igl e ... Ok, tei âs raschùn. Jou ve tema. Jou ve darschalets c'jou vigni persequitada da quella grefla robotica gigànta. Tge ear adigna, Tom!</t>
+  </si>
+  <si>
+    <t>Hallo. Tge e cun que telefonet digl Albany? Ocupo? Lura telefonad a la zentrala a ged da taner arviert la lingia. Afar ufizial. Igl va par veta a mort. Jou sper ca Vus gitgias la vardad a mei, Miss Kennedy. Quegl vean a fitar mal, scha Vus fagez quegl betga. Jou gitg a Vus, mintga pled e ver. Igl Dirken â tgapo me. El â scarpo la mia rassa. Nus vagn sapugnieu.</t>
+  </si>
+  <si>
+    <t>Ok, quella davosa reparatura fagiagn nus ved igl dies. Egna tala reparatura digl dies e ampo ple cumplitgeada. Ella sacumpona da daple pass, mo scha vus suandaz me, stuessas vus, maneg jou, ear saver far quegl a moda relativameing sempla. Igl amprem pass par reparar igl dies e d'alontanar igl vigl. Sprànza se jou salvar l'inscripziùn ad alura tatgear quella segl nov material ca nus matagn segl dies. Alura sto jou far nigns quitos da crear egn'eticeta da pulpier near da schar davent ella digl tut. Peia, jou tagl igl amprem davent quella part a muss a vus ple tard sco ign schubregia quegl.</t>
+  </si>
+  <si>
+    <t>Bagnvagnieu. Bagnvagnieu a tutas ad a tuts. Jou less me easser siir ca tut funcziuneschi qua. Quegl va me egn curt mumaint. Parquegl sund jou ieu ampo ple bòld live, me par easser siir. Jou ve gest lavo igls meas màns a ve sapreparo. Jou fitesch ànc speart tut qua. Jou creg ca nus setgian antschever. Jou vignt a far sbagls. Jou saint egl. Igl e egn da quels gis. Jou spetg ànc ampo antocen ca daple parsùnas en da la partida ad alura antschavagn nus.</t>
+  </si>
+  <si>
+    <t>La mama gi ca tei viglias betga visitar nus. Gi ella quegl? Ea. Mintgegn â la sia istorgia, igl mieus buab. Jou supon ca quegl segi la sia. La veta e magari curiusa, sas?</t>
+  </si>
+  <si>
+    <t>Avànt anturn 4,5 miliardas ons e la veia da latg colidada cun egna galaxeia nanigna vaschegna. Quella colisiùn â aczelero la furmaziùn da las stélas. Igl noss sistem solar fa part da la veia da latg. Davains igl sistem solar â la rotaziùn digl material cuntinuo.</t>
+  </si>
+  <si>
+    <t>Oh, Dieus partgiri. Glieud, tarlad bagn, jou salegr aschi fetg, parquegl ca que comedy spezial e gea anturn 23 ons an elavuraziùn. Ea, jou declaresch gest a vus sco jou maneg quegl. Avànt 23 ons sund jou vagnieu par l'amprem'eada tier igl Comedy Store a sund davanto egn hosp regular, ad alura comicer a ve trumpo igls meas geniturs imigrànts digl Iran.</t>
+  </si>
+  <si>
+    <t>Avànt anturn 450 miliùns ons ân las plàntas fatg egn sagl evolutiv gigantic digls ozeans or sen la teara - ad en davantadas las plàntas ca nus ancunaschagn oz. Mo co ân ellas survivieu? Szienzios digl John Innes Centre ân forza scuviert quegl ussa. Las plàntas da la teara survivan, parquegl c'ellas ratiran aua a substànzas nutritivas digl taratsch. Quegl fan ellas graztga a lur relaziùn particulara cugls bulieus ca vivan agl taratsch, igls bulieus da micorrhiza. Igls fils digls bulieus da micorrhiza tànschan lientsch agl taratsch a tiran las substànzas nutritivas a l'aua seiador an las plàntas. Mo cur ca las ampremas algas satschaintan segl taratsch: co ân ellas savieu surviver gitg avunda par crear quell'amizeztga impurtànta?</t>
+  </si>
+  <si>
+    <t>Igl e probablameing ascheia sco ca nus vagn schmino: las cumprovas s'acumuleschan a cunfirmeschan la suposiziùn blear ple logica ca l'ierta d'egna zivilisaziùn avanzada, mo pearsa, e vagnida angulada da diferaintas zivilisaziùns ple modernas agl antier mund. Qua sen la Teara â'gl do egn'eada egna zivilisaziùn flurainta - egna c'e vagnida suprimida, angulada, explotada a tanida gea blear megna gî sacreta. Graztga fetg ca vus vez vurdo, las mias tgearas ad igls meas tgears, antocen l'otr'eada, sted bagn.</t>
+  </si>
+  <si>
+    <t>Jou vignt mena ad easser egn superherox. Tei âs la forza. Mo igl problem e ca tei âs tànta ca tei sas betga controlar ella. Jou se tgi ca sa gidar a nus da trenar miglier. Natiralmeing! Nus antschavagn cun egn trenamaint virtual! Quella VR e super-realistica. Nus eassan gest vagnieus sperasvei a vagn tartgieu, he, lagn meter a l'amprova que nov falomberet.</t>
+  </si>
+  <si>
+    <t>Hallo a bagnvagnieu tier que vlog da vieadi. Oz lagn nus scuvrir igl martgieu da Rotterdam. Rotterdam satgata an la provinza da la Holanda digl Sid. Igl e egn martgieu ca divida igls menis, parquegl c'el â egn'arcitectura moderna, pletost urbana. Rotterdam e bunameing vagnieu destruieu cumpletameing durànt la Savanda Gueara mundiala, cur c'igls Tudestgs ân atatgieu igl martgieu. Parquegl â igl martgieu stuieu vagnir reconstruieu. A parve da que motiv veza el or tut oter c'igls oters martgieus da la Holanda.</t>
+  </si>
+  <si>
+    <t>Mobiglias DIY favurevlas en adigna igl hit qua tier Lone Fox, peia ve jou lieu mussar a vus sco c'jou ve construieu quella meseta da notg or d'egna sempla cesta dad IKEA. Quegl e la cesta "Knagglig" c'igl dat par zirca 10 $ tier IKEA. A jou ve tut sempel antschiet a biagear anzemel ella tanor l'instrucziùn. Ign sto semplameing strubagear anzemel tut las parts. Cur ca tut las strubas en farmadas, â ign egna sempla cesta da len. Suainter ve jou lieu aschuntar egna tgomba agl fùns da la cesta, peia ve jou ulzo ampo la cesta cun quellas pintgas stgafetas da len par bischutareia, sco pintgs tablets da len, c'jou ve ear cato an la stizùn da zambargear. Ellas en da len sempel, samagliànt sco igl len dad IKEA, a quellas ve jou semplameing culo vetier. Igl va ear cun egna pistola da gutas. A schon vagn nus egna meseta da notg sempla, minimalistica.</t>
+  </si>
+  <si>
+    <t>Co va'gl, igls meas tgears? Qua e igl Zach da Veteran Construction. Blears da vus en par l'amprem'eada sen YouTube par vurdar egn video da tetgers. Parquegl ve jou lieu banavantar vus parsunaleming a far que video c'e fetg impurtànt par me. Igl tema da que video e: Sch'jou less far que tetg a jou ve ànc mai mess schendlas, sco fagess jou quegl, sch'jou savess tut quegl c'jou se ussa? Que video vean a gidar agls mastargners amaturs near neo-tetgers d'evitar sbagls a prender las andretgas masiras da prevenziùn par far que job corectameing a sainza pearder tains. Igl amprem stuagn nus amprender d'ancanuscher que material.</t>
+  </si>
+  <si>
+    <t>Durànt ca las forzas da salvamaint fan patruglia tras igl martgieu survagliagn nus igl museum an la cesta. Igl fuss betg egna bùn'ideia, sch'igls canagls ampruvassan d'angular la Cabbonita durànt ca nus spitgagn andavains. Nus vagn nigns daners ple! Nus stuagn angular que diamànt a vender el! Schiglioc stuagn nus far igls noss experimaints cun Sodapop! Sco vagnagn nus dad ir cugls bots agl intern? Igl e vagnieu partartgieu veda tut.</t>
+  </si>
+  <si>
+    <t>La fossa digl suldo nunancunaschaint e egn monumaint deditgieu agls suldos c'ân do tut par defender la nossa teara. Quella fossa segl Arlington National Cementery, Virginia, visiteschan mintg'on miliùns parsùnas, a las guardias en loschas da proteger la fossa digl suldo nunancunaschaint. Igls suldos digl tearz United States Infantry Regiment, la Old Guard, ân surpieu igl avregl 1948 la leztga da far guardia a la fossa ad els adampleschan ànc oz quella obligaziùn. La fossa digl suldo nunancunaschaint vean survaglieada davent da 77 ons durànt 24 uras agl gi, 7 gis l'eanda a 365 gis agl on.</t>
+  </si>
+  <si>
+    <t>Igl e uras pigl canal digl Scotty Kilmer. E igl lac digl voss auto sblihieu? Alura sted qua tier me, jou muss a vus co ca vus savez renovar igl lac sblihieu. Tut quegl ca vus duvraz e egna scadeala cun aua, egn sdratsch da pulir ad egna buteglia Ultimative Compound da Meguiar.</t>
+  </si>
+  <si>
+    <t>Culiead igl tschetschapulvra cun quegl, quegl gida da redutgear la pulvra, ad ascheia sas tei ear preparar igl betùn. Nus fagiagn quegl igl ple bugent cun mulets da màn, mintgegna da las metodas funcziunescha dantànt bagn. Sch'igl â gea egna stresa dad epoxy, funcziunescha igl mulet da màn normalmeing ampo miglier, mo cun quella tgossa qua va'gl propi ear detg bagn. Suainter samtgagn nus tut igls scarps a las rusnas cugl noss material da reparatura, ad alura mulagn nus quellas parts antocen c'ellas en glieschas. Suainter schubargiagn nus igl betùn a preparagn el par l'amprema strischeada. Igl satracta da 100 % epoxy par material cumpact, quegl vean do sei an pliras prozeduras ad an diferaintas fasas.</t>
+  </si>
+  <si>
+    <t>Igl text zoroastric "Videvdad" gi c'igl Yima vegi construieu sen cumond digl Dieu Ahura Mazda egn martgieu sutteran par proteger igl sieus pievel d'egn unviern catastrofal. Samagliànt sco an l'istorgia digl Noah an la Bibla â igl Yima survagnieu igl cumond da rimnar peers digls migliers animals a carstgàns ad igls migliers sems par resemnar la teara suainter igl unviern fatal. Quegl e sto avànt igl davos tains da sglatsch, avànt 110.000 ons.</t>
+  </si>
+  <si>
+    <t>Also, schad declarar me quegl. Okay, peia, igl problem e, scha vus vurdaz aint qua … Vasez vus la tavladira? Quegl e la viglia tavladira, ad ella tànscha antocen tier las schendlas là. Ad alura ve jou mess suravei quegl. Igl problem e ca la mearda saremna là, veda quella cuvrida.</t>
+  </si>
+  <si>
+    <t>Hallo, vus tgears, qua e igl Thunder E, bagnvagnieu tier igl video ca vus vez spitgieu. Jou bagliaf da dar giois sen ASUS ROG Phone 5. La seria da Phone ROG e ancunaschainta par la sia fearma prestaziùn da giois, mo an que video lagn nus catar or, scha ROG Phone 5 sa propi puspe ir cun la plema da tut igls smartphones da gaming.</t>
+  </si>
+  <si>
+    <t>Igl e dezember 1997 a la Imperial Sugar Comany cumpra da Savannah Foods and Industries egn nov liac da producziùn a Port Wentworth. Quegl e atgnameing nut spezial, semplameing anzatge ca las interpresas fan, acquirir ad expander. An que liac â ign produtgieu ad elavuro vivàndas gea davent da l'antscheata digl 20. avel tschantaner. La Savannah Industries Incorporated â antschiet a biagear igls implànts par produtgear zucer cristaliso a Port Wentworth igls ons 1910 ad â termino els igl on 1917.</t>
+  </si>
+  <si>
+    <t>Igl proxim cumember da la 85 South Show. Preschantar el sto jou betga. "Where my ladies at?!" Nus preschantagn el tutegna. El dariva dad Atlanta, oriundameing da Mississippi. Forza vez vus vieu el an "Wild'n Out" sen MTV. Ladies, el e actualmeing "the coldest in the game". Igl voss baby daddy, Karlous Miller, e an tgea!</t>
+  </si>
+  <si>
+    <t>Nus schagn star quegl curtameing ascheia, par c'igl setgi rehidrar egn peer minutas. Cuschinar a moda ultra sempla less atgnameing betga propi gir cuschinar sen la plata da fiac. Nus buglagn an amprema lingia aua par rehidrar la nossa vivànda. Quegl e ear egn digls motivs, par igls quals nus duvragn tschaveras instàntas. Egn tains da cuir ple curt dovra ple poc gas a pesa ple poc. Oh, ea! Ascheia e'gl peia cun quegl ca nus fagiagn qua. Egna cunsistenza perfecta.</t>
+  </si>
+  <si>
+    <t>La grossa cuvearta da brenta â impedieu ca la glisch digl sulegl cuntanschi la surfatscha da la Teara. Igl â do egn tains da sglatsch global sen la Teara, ancunaschaint sco "Teara bota nev". Quegl â caschuno egn'ulteriura extincziùn globala da las spezias. Mo puspe ân tschearts easser vivaints survivieu egn ulteriur greav tains sur la cuvearta da sglatsch.</t>
+  </si>
+  <si>
+    <t>La Kaboom City e egn martgieu digls heroxs. Igls Super Things ad igls Kazoom Kids cumbatan l'egn l'oter cun las forzas c'els ân survagnieu da Kazoom sez. Quegl e la funtàna d'energeia la ple pussainta da tut igls tains, ad ussa vean ella exponida agl museum digl martgieu, noua c'ella sa vagnir admirada da tutas a tuts. A nus vagnagn ad angular ella! E'gl privlus da saschluitar là tras? Negativ. Da là vignan igls Kazooms.</t>
+  </si>
+  <si>
+    <t>Cugls utensils digitals e'gl ple sempel ca mai da crear la tia ovra, d'elavurar ella a da publitgear ella agl antier mund. Mo quegl â igl sieus prezi. Igl e ear ple sempel ca mai da darasar infurmaziùns sbaglieadas, a las fake news en davantadas igl davos tains egn ver problem. Nus vasagn quegl tier las scularas ad igls sculars. Tanor egn studi da Stanford en me 25% da las scularas a digls sculars digl scalem secundar stos capavels da disfranztgear egna vera novitad d'egna novitad falsifitgeada. Las scularas ad igls sculars ân ear gieu bregias da disfranztgear fotografeias veras a falsifitgeadas sco ear videos vers a falsifitgieus.</t>
+  </si>
+  <si>
+    <t>Avànt 30 miliùns ons â egn monster traverso la teara. Nus bagliafagn d'egn digls animals igls ple privlus c'igl â probablameing do anzacuras sen la Teara. Igl e sto igl ple grànd animal an l'America digl Nord davent digls dinosaurs. Vurdad la gràndeztga da quella tgavaza. Vurdad quels daints an qua. Egn tal animal dat igl nagliur.</t>
+  </si>
+  <si>
+    <t>Lainsa ir cun quel ve là. Spetga, spetga, igl mieus grànd! Tei es ampo megna stagn pigl aszensur. La sirànza â prioritad, ok? 30 bancnotas? Tge cuglianada. Jou ve getg a tgei. Vegias quito!</t>
+  </si>
+  <si>
+    <t>Jou vont a California. Tei vas a California. A tge vol tei far a California? En igls Stadis Unieus betga avunda par te? Ah! Tei es igl detg burghes, sas gnànc ca California satgata agls Stadis Unieus! Mo tge dat igl qua da rir? Jou sto rir, parquegl ca tei es aschi tgutg, tei âs gnànc santieu c'jou ve fatg egna sgnoca cun te.</t>
+  </si>
+  <si>
+    <t>Hallo a bagnvagnieu tier egna sort pilot d'egna nova seria. Jou less raquintar egn peer istorgias digls ple grànds scandals digl mund - anzaquànts ancanuschez forza, oters betga. La seria s'orientescha par part ad egna seria da RTE cugl num Scannal. Mo jou less betga me saconzentrar sen evenimaints culiieus cun l'Irlanda, mobagn cuvrir egn tgomp ple vast. Peia, lainsa betga spitgear ple gitg, mobagn schar liber.</t>
+  </si>
+  <si>
+    <t>Ea, jou ve peia … Jou ve retschartgieu ampo par sapreparar par quella sera, parquegl, sco getg, sund jou propi egna tgutga -. Igl sul c'jou se da la regenza e igl motiv, par igl qual ca nus eassan qua, numnadameing c'ella lavura betga par nus. Quegl e propi tut quegl c'jou se. Igl e peia sto bien da s'ocupar da quegl. Mo jou ve retschartgieu ampo co c'egn project davainta egna lescha. Peia ve jou vurdo igl video digl Schoolhouse Rock. Ea, quegl vurdagn nus tuts aschi bugent.</t>
+  </si>
+  <si>
+    <t>Tei, tei mund! Tei es propi plagn surpresas, never? Jou saragord da ver vurdo avànt egn peer ons igls films da "Residence Evil" cun la Milla Jovovich tartgànd "mender ca quegl sa'gl betga ple vagnir!" Ea, quegl e probablameing sto tains ple sempels. Mo durànt c'igl on 2021 deva las sias davosas fladadas, â el purto ànc "Resident Evil: Welcome to Raccoon City", ear ancunaschaint sco "Bagnvagnieu agl ufiern".</t>
+  </si>
+  <si>
+    <t>Hallo a tutas a tuts, bagnvagnieu anavos an la show da cuschinar "Ist Dwight". Oz muss jou a vus egn rezept par egna salata da macarùns cun ton. Deliziusa a sempla. Egn rezept fetg sempel. Qua vasez vus egna glista da las mias ingredienzas, igls meas peperonis, las mias tschigolas verdas, las mias tschigolas alvas, egn miez tschadùn da cafe sal par cungir, pever ner, near scha vus vez pever mulo, savez duvrar quel, igls meas macarùns, tres ovs par cuir dir, ad igl mieus ton.</t>
+  </si>
+  <si>
+    <t>Oz eassan nus a Tokeh Beach. Tokeh Beach e egn resort qua a Sierra Leone. Jou sund qua cun las mias cusregnas. Igl de dar egn fetg beal gi. Semplameing chillar sper la riva. Igl cura betga blear ad igl e betga planiso anzatge, me … Ok, igl veza or sco scha quegl fuss egna ratschavida da nozas. Tuts maridan. Oh, quegl para dad easser egna noza near egna sort da spusalezi. Igl e bi or qua. Never?</t>
+  </si>
+  <si>
+    <t>Par igl Bob Anderson, spezialist d'utscheals da rapegna, e la tenuta digls pioniers stada nut oter c'arogànta ad ignorànta. Tut igls utscheals da rapegna en semplameing vagnieus consideros sco parasits. Jou maneg, els earan tuts sprears. Els earan tut noschs utscheals, segi quegl egn tschissùn marin cun tgieu alv, egn tschissùn near egn girùn da la cùa cotschna. Tuts en vagnieus sagitos.</t>
+  </si>
+  <si>
+    <t>A sco amprem less jou bagliafar cun dr. Vishal Sikka, igl CEO dad Infosys. Vishal, Vus eassas igl fegl d'egn inschignier da veiafiers. Vus vez vieu la tecnologeia an quella fasa, a Vus eassas ear egn surfist, peia savez Vus co untgir las undas. Da tge disturbis stuagn nus far spezialmeing stem an conex cun las novas tecnologeias a partge? Partge dagn nus easser aschi atents agls disturbis?</t>
+  </si>
+  <si>
+    <t>Par la cula da brùnz da pareta antica ve jou semplameing prieu egna stresa da Rub'n Buff a caluro l'antiera cula cun quegl. A natiralmeing stuagn nus crear que look antic cun agid dad Alcohol Ink. Peia ve jou prieu igl amprem Ginger. Jou ve mess egn dagut sen la cula a distribuieu quel. A jou ve fatg quegl aschi savens, antocen c'jou vev tàntas stresas sco jou ve lieu, ad ella vaseva propi or viglia, sco egn'andretga cula da metal. Suainter ve jou aschunto ànc ampo da que spray da lac bregn doro, semplameing sen la surfatscha, par c'ella vezi or ampo sco da ruegna, sco nus vagn fatg cugls zens. Ad ascheia ve jou creo quellas culas da brùnz ca vezan or anticas. Fetg sempel a leav, mo serius: ellas paran propi d'easser da ver metal ad en fetg bealas.</t>
+  </si>
+  <si>
+    <t>A TGAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl svilup da la carstgànadad cuntinuescha an egn cuntegn. Ear an tains difizils sasvilupagn nus anavànt a s'adatagn. Agls martgieus e la prosperitad ànc adigna grànda ad igl progress tecnologic s'avànza. Cun scuvrir da curt Ignniat e la carstgànadad sacatapultada an òlteztgas nungetgas; mo anzatge blear ple grànd spetga nus ànc. Quella nova savida acquistada sa me vagnir valitada sco intervenziùn divina ad igls Dieus vignan a salegrar da nossa preschietscha agl tschiel. La firma Karascene â scho examinar Ignniat intensivameing a schazegia igl potenzial da que mineral sco fetg òlt. A betga safar quitos: tanor las examinaziùns e'gl ni da quintar cun efects secundars ni cun problems da decumponer Ignniat. Que mineral e destino par intents ple grànds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egn clic. Igl madem stream sarepeta an egn cuntegn: igl gi c'igl mund e vagnieu devasto. Igl mieus bab stizava mintg'eada, cur c'el vaseva ca jou savev betga volver davent igls îls. Igl mieus magùn satargeva anzemel vasànd la sia fatscha inquietada. Jou sasaint adigna mal, cur ca que stream vean, parquegl c'el sveglia tàntas ragurdientschas an me, dantànt betga fetg bùnas. Cun egn suspir stund jou sei par vagnir sen oters partratgs. Jou amprov trasor da legrar el a scatschar la sia schleata luna cun far seglmains egn pintg palscher, mo oz sund jou stàncla. </t>
+  </si>
+  <si>
+    <t>Jou s'avaschegn plànsieu igl esch a clom agl mieus bab: "Jou vont ampo ordafora, la tschagna e an frestgera." Nigna rasposta. Tge oter. Piglple oda el me, el vean schon a vagnir a frida sulet. Bufatg sear jou igl esch a suspir ànc egn'eada, cur c'el saseara digltut an la seara. Jou ve bunameing amblido da meter igl mieus màn segl scanner da metal fred par sarar igl esch. Sch'igl deva anzatge particular veda quella abitaziùn, alura eara quegl igl equipamaint cun tecnologeia moderna, quegl eara dantànt igl cass tier la grànda part digl bietgs. Gea da gî duvrav'ign nign'otra tecnologeia.</t>
+  </si>
+  <si>
+    <t>An quella notg freda a plievgiusa ve jou fatg la mia spassageda explorativa gea gî planisada tras Paltricus - egn privilegi reselvo a quellas ad a quels c'earan mitschieus cun fugir near cun egna furtuna nungetga. La notg eara iluminada da stélas targlischaintas c'earan gea meli ons viglias. Igl sto easser solitari agl univers. Paltricus eara egn beal martgieu, mo ign sasanteva pletost sco an egn cloter a betga sco an egn liac d'abitar luxurius. Igl martgieu eara fulano cun apartmaints, tgeas ad oters bietgs; la grànda part veva pliras tschient ulzadas, graztga ad Ignniat. Que mineral veva samusso sco vera furtuna par la tecnologeia a l'arcitectura a veva angrandieu la nossa basa da viver. La publizitad sa dantànt me poc davart que mineral, surtut parquegl c'el vean tanieu strictameing sacret.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par sadeliberar digls meas partratgs stgirs, ve jou samess sen veia par egn cafe agl mieus local preferieu. El vean evito da la grànda part da la glieud parquegl c'igl vean bagliafo c'egn ampesto segi sto là danturn. Ascheia vignan numnos quels c'ân s'infecto cugl virus. Me â quegl mena inquieto - jou ve gieu nunadieu blear cletg an la mia veta - ad igl possessur e egn super tip. Tgi desistess ear d'egn cafe gratuit ancùnter egn dascurs da notg tardiva? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cur ca jou sund antrada, e igl mieus maleasser vagnieu scatscho d'egn fearm scalegn a l'odur da cafe frestg e sadarasada agl mieus nas. Anton, igl possessur digl local, steva sco adigna davos la teca. Igl local eara practicameing vid, cun exzepziùn d'egna parsùna an la part davostier. Suainter la lùnga spassageada s'avaschegn jou stàncel mort la bar, salasch curdar sen egna da las sutgas a susd. Jou vez igl Anton ad el porta a mei igl usito. "Hallo Lilith, egna lùnga notg?", e sia vusch ruha resunada atras igls stierts digl mieus tscharvi. "Zirca ascheia", ve jou raspundieu tut debel a sund vagnida da secunda a secunda ple stàncla. </t>
+  </si>
+  <si>
+    <t>Par scatschar mia stancladad ve jou prieu egn peer geadas egn schuf digl cafe avànt me. "Va la fatschenda ànc adigna mal davent da quell'istorgia cugls ampastos ... ?" Jou ve bagliafo dascus par betga scatschar ànc igls davos giasts agl local dad Anton. El â do digl tgieu durànt c'el schubargeva egn magiel cun egn sdratsch. Que local e atgnameing egna bar, mo jou sund mena vagnida qua par bever egn drink. Davos me eara dad udir egn murmagnem, mo igl dascurs trànter Anton a me e pletost rasto curt questa sera. Cun egna curt'anzena d'adia a cun ampo daple energeia c'avànt ve jou banduno igl local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl eara pigl solit betga la miglra ideia da tgaminar la sera tard par las veias stgiras. Mo igl eara ànc adigna miglier ca da star an quella abitaziùn stetga a tarlar sco c'igls vaschegns vevan sex. Quels udev'ign ple savens ca l'atgna musica. Cun egn curt suspir ve jou puspe drizo la mi'iglieada sen la veia avànt me. Jou vont probablameing tier la stizùn da pègn dad Al par far ir igl tains cun vurdar, sch'igl â danturn roba viglia interessànta. Cur ca jou od zaps gest davos me, s'andriclesch jou da la mia dezisiùn. Forza fetsch jou megna blears quitos, mo an que quartier samov'ign atgnameing me, cur c'ign vut vagnir splundargieu near patango. Igl quartier e ancunaschaint par la sia mafia a la criminalitad da bandas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E quegl betga legher? Me gest la measadad digls carstgàns e ànc avànt màn a tutegna calagn nus betga da far mal l'egn a l'oter. Jou sund ida ple speart, la stizùn da pègn eara gest anturn igl cantùn ad andavains ear'jou siira. Cur ca jou sund stada avànt egna tavla iluminada cun l'inscripziùn "stizùn da pègn dad Alborn", â egna curta iglieada sur igl givi cunfirmo ca jou vignt betga ple persequitada. Cun egn zap puspe ple ruassevel sund jou antrada an stizùn. Quella eara ampo sper la veia, parquegl c'Alborn prandeva savens sei mutànts ca vivevan sainza lubientscha a Paltricus. An stizùn ear'igl stgir ad Al eara curiusameing ear betga danturn. Nign fugitivs. Nut. Anzatge cunsteva qua betga. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precautameing sund jou saschluitada an la part davos da la stizùn, noua c'ign udeva egn murmagnem a cunversaziùns dascusas davo egn giater da metal c'ign saveva alontanar cun egn peer manetschas. Jou sund saragatada an la tgeava da ventilaziùn - igl mumaint la metoda la ple sempla a siira. Cur ca jou stumpl atras, od jou egn dascurs trànter dus umens, vastgieus da maniera curiusa. Alura ve jou vieu igl Al, an cadagnas. Eara gea cler c'igl vignan a pajear el egn gi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jou vev propi bugent Alborn, mo quegl eara egn numer megna grànd par me. Ad anzuma sto jou betga adigna catschar igl nas an las tgossas dad oters, sutut betga, sch'els ân gest daspeta cun las autoritads digl martgieu. Tutegna ve jou betga savieu far oter. Cun egn bufatg suspir ve jou ulzo plansieu igl giater sut me or da sia fràncada a sund sglischeada giosut an la stànza silenziusa. "Psst, Al. Al!" Jou ve scutino a cur c'el â betga raspundieu ve jou ulzo la vusch. "Lilith?" Tge fas tei qua? Tei stos ir, schiglioc tschefan el te ear ànc." </t>
+  </si>
+  <si>
+    <t>"Tge ca tei me gis...", ve jou getg dascus a mei. Durànt ca nus vagn ampruvo da far liber las cadagnas anturn la sia bratscha, vagn nus udieu s'avaschinar vuschs ad igls zaps silenzius en vagnieus ple a ple dadòlts. "Speart! Saragata anavos an la tgeava a svanescha. Turna an nign cass. Scha nus savasagn, alura betga an que martgieu." El â bagliafo speart a la panica agls seas îls â betga gido da calmar me. Jou ve suando igl sieus cunzegl. Jou saveva betga star ple gî. Mearda, Al! Suainter ver banduno la tgeava da ventilaziùn, sund jou curida davent. Igl fageva mal da pearder egn amitg aschi fidevel. Levan els ir cun el an l'oter ... martgieu? Aschi blearas tgossas en idas tras igl tgieu a mei. Jou sund stada aschi vilada, mo ear tresta. Jou sund safatschandada intensivameing cun igls martgieus externs a cun la capitala digls ampestos. Ella veva num Alcatraz, gest madem sco la parschùn. Igl num nava bagn a pro cun quegl ca jou veva ligieu. Betga da manzunar c'igls nunmuntànts vevan interrut tut las culiaziùns cun las cuntradas digls ampestos. Egna tragedia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egn silenzi canerus â acumpagnieu me sen veia a tgea. Igls partratgs agl mieus tgieu cupitgeavan a scarpavan bunameing parmiez me, parquegl ca jou veva betga savieu gidar agl Al. Cur ca jou sund finalmeing arivada a tgea suainter quella teribla spassageada, sund jou stada curt avànt bargir ad igls tùns digls tgametgs, ca vagnevan or digl nivel sur me, savevan far tema ad anguscha a mintgegn. Igl mieus bab eara gea sadurmanto segl canape. Igl vagneva gest egna repetiziùn d'egn film d'avànt 10-12 ons. Cun egn suspir sund jou ida musch muschet an la mia tgombra. Jou ve sascho curdar segl litg. Igls îls ve jou strusch ple pudieu taner aviert a sund bunameing sadurmantada dalùnga.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl tains passava sco da sgular. Avànt egn peer gis eara igl Alborn vagnieu transpurto davent. Noua savev jou betg. Me c'els vevan purto el anzanouas. La vastgadira digls umens eara vagnida avànt ancunaschainta a mei, mo a mei lev'igl semplameimg betga vagnir andamaint da noua. Cun egn suspir ve jou mess igls mieus màns sen igl sistem avànt me ca targlischava cotschen a violet - hacar el fuss sto egna bagatela par me. Jou dubet c'els ân siiro el suplementarmeing ... Mo igl e miglier da betga far. Mo natiralmeing ve jou stumplo da la vart las mias resalvas moralas. La mia deta â samuanto sainza studagear sur la tastatura ad â clamo sei diferaints moniturs. Giavelaint, sund jou bùna. Jou sund stada detg ancunuschainta sen tscheartas paginas-web, ign numnava me là "SPIERT". Egn num c'ign tegna andamaint bagn. Mo jou dund tier ca jou dovr sen mintga pagina-web igl num SPI3RT, mo a mei ple igl partratg c'jou ve survagnieu el dad oters.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jou ve cargieu igls maletgs da las cameras da survegliànza sen igl mieus aparat mobil a ve observo mintgegn intensivameing. Nut. Sco sch'els fussan mena stos là. Quegl fa nign sen. Las cameras en siiradas bagn, ear ancùnter egn aczess sen distànza. Co ...? MEARDA. Plagn greta sund jou stada an pes par scatschar igls partratgs or digl mieus tgieu. Jou sund ida tier igl esch a ve tgapo las mias clavs. "Jou sund prest puspe anavos, bab." Silenzi. Quegl e normal, el raspundeva gea mena. El eara probablameing puspe ocupo cun anzatge ple impurtànt ca me. </t>
+  </si>
+  <si>
+    <t>Cur ca jou ve banduno l'abitaziùn, ve jou santieu egna snavur digl dies giou. Jou ve ignoro el a sund sasfurzada dad ir tier la stizùn digl Al par far egn peer investigaziùns. Las mias tgombas ân dantànt purto me tier la pintga bar digl Anton. Igl eara detg ruassevel là a jou duvrav urgentameing anzatgi par bagliafar. Tgi fuss sto ple adato c'egn barman c'â dabets tier me?</t>
+  </si>
+  <si>
+    <t>Igl eara nunusitadameing plagn, bagnplagn glieud ca jou veva ànc mena vieu. Anton luvrava atgnameing adigna sulet ad eara siir detg an stress parve da la bleara glieud. "Jou vess bugent egn cafe." Jou ve bagliafo aposta cun egn tùn bass par iritar el ampo. El â savieult curtameing a jou ve stuieu rir dascus, cur ca jou ve vieu igl leavgiamaint an la sia fatscha. "Giavelaint Lilith, tamainta me betga ascheia ...", â el getg dascus, cun vusch stàncla. "Veza or sco scha tei vessas blear da far ... Dueg jou gidar a tgei? Igl cura detg blear a qua." Jou veva bagn nign gust da survir quels sturns, mo jou steva mal pigl Anton, parquegl c'el stueva dar amogn sulet a quella catschada. "Fagessas tei quegl? Tei surveans igls teas daners ple tard ...", â el murmagnieu a vurdo sen me cun igls seas îls da tgàn. Tactica da gueara avanzada ...</t>
+  </si>
+  <si>
+    <t>Suainter ca jou ve gieu barato la mia vastgadira cun egna mondura da lavur, ve jou gido agl Anton ved la bar. Malgro las amprovas cunstàntas da flirtar a d'atrer la mi'atenziùn, c'ân par gir la vardad gnànc disturbo me, e la lavur ida tgientsch gioud màn. Jou vignt a bagliafar cugl Anton suainter la squadra. Jou sto survagnir igl Al or digl mieus tgieu, malgro ca jou se ca jou vignt a far ulteriuras investigaziùns an la sia stizùn da pégn suainter quella squadra an la bar, mo tutegna ...</t>
+  </si>
+  <si>
+    <t>Flomas en rutas or da la gula da Thassalin, cur c'igl Thraki gigantic â do fiac ad egn toc digl gòld spezific ad e alura zirculo suror par scuvrir movimaints. Curiusameing e igl rudi tamantànt vagnieu met davos el, cur c'el e vagnieu ple plàn. Thassalin veva amblido igls passaschiers sen igl sieus dies.</t>
+  </si>
+  <si>
+    <t>"Tge de quegl, Tenuk, tei âs schon egna'eada samido an egn Thraki!"</t>
+  </si>
+  <si>
+    <t>"Cur c'jou sgol sez e quegl tut oter ca da vagnir tgapo tutanegna a tratg an l'aria d'egn dragùn rosa!"</t>
+  </si>
+  <si>
+    <t>"Aschi nosch e'gl gnànc sto, near betga, Kayel?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl Kayel eara evidaintameing betga digl madem meni sco la Nyssi. El vaseva or mains ner ca schiglioc a las sias greflas earan sastgeavadas aschi profundameing agl dies digl Thassalin c'igl Thraki sanganava. Agl Thassalin  pareva quegl dantànt da far or nut. Tutegna â el realiso c'el veva fatg tema agls seas novs amitgs, ad â satschanto an egn sclarieu. </t>
+  </si>
+  <si>
+    <t>"Mo âs tei stuieu strer nus cun te?", â igl Tenuk murmagieu, cura c'el e saragato giou digl dies da Thassalin a ruschno da la sia cua giou. "A nus vagn scho anavos igl Retvik! Igl noss grànd a fearm cumbatànt vagn nus scho an la mearda! Co de el peia puder suainter a nus?"</t>
+  </si>
+  <si>
+    <t>"El vean siir a saschar dar anzatge agl tgieu …", â la Nyssi murmagnieu. "Igl Retvik e betga igl ple speart, mo el e betga stupid."</t>
+  </si>
+  <si>
+    <t>"Gliez bagn, mo sa igl Retvik ir cun auto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Nyssi ha tschignieu ad â savieult viers igl Tenuk. "Natiralmeing sa el ir cun auto." </t>
+  </si>
+  <si>
+    <t>"Âs tei gea vieu egn'eada igl Retvik ir cun egn vehicel? El â betga egn camiùn sco tei, ad jou ve ear ànc mena vieu ir el cun egn auto aschi elegànt sco quel digl Kayel. Ad el â ultra da quegl me antschiet ad ir cugl auto a luvrar, parquegl ca tei vas adigna cun igl vehicel. El â me igl sieus velo."</t>
+  </si>
+  <si>
+    <t>Els vignan interruts d'egn lahargnem. Igl Thassalin pareva tutanegna da sadivertir enorm d'anzatge, mo nign saveva parveda tge c'el rieva. Igl â cuzo ampo megna gî antocen c'igl Thassalin â saquieto.</t>
+  </si>
+  <si>
+    <t>"JOU STUND MAL, MO JOU VE SAMESS AVÀNT IGL VOSS AMITG GIGANTIC AN ARMADIRA SEN ASCHEIA EGN MINIVELO PAR UNFÀNTS DA TEMTHAN. QUEGL E STO DA RIR DA SCHLUPAR! JOU GIAVISCHASS C'JOU VESS EGNA SORT DA TELEPATEIA. EGNA BALTEZTG'IMAGINAZIÙN! EGNA C'JOU SE BETGA PARTGIR!"</t>
+  </si>
+  <si>
+    <t>Igl Kayel â cihargieu, parquegl c'el saveva s'imaginar tge ca nava tras igl tgieu agl Thassalin. "Ea, tei âs raschùn. Mo tge âs tei fardo a partge es sgulo davent aschi anetgameing?"</t>
+  </si>
+  <si>
+    <t>Igl Thassalin â grugnieu, â s'ulzo ad e svanieu. Cur c'el e returno suainter curt tains, â el fiers a la Nyssi anzatge mort avànt igls pes. Igl eara egn Orothrack, egna creatira draghesca fetg rara, alv dorada. Mo igl sieus tgieu eara davent. "ÀNC EGN MORT. JOU OD IGL SIEUS SGARGNEM. FREAD IGL SIEUS SÀNG. ANZATGE TGATSCHA ME DA PROTEGER A DA FAR TGATSCHA. SCO IGL YISINI CUMONDA. ELS EN FETG DATIER."</t>
+  </si>
+  <si>
+    <t>Igl Thraki gigantic e vagnieu anetgameing tut eri. Ear la Nyssi ad igl Kayel en samarvantos ad ân drizo lur îglieada sen egna largia agl sclarieu. Anzatge grànd a ner fixava els sburflànd. Tutegna tge c'igl eara, el â standieu dus peers d'alas giganticas ad â safiers ancùnter agl Thassalin sainza s'intressar digls tres eassers ple pintgs trànter els. Igl Kayel ad igl Tenuk ân gest ànc savieu sameter an siirtad, mo igl Nyssi e vagnieu stratg suainter ad e bunameing vagnieu catapulto segl Thassalin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl Thassalin â reago sen quell'ataca cun tgapar la Nyssi a fierer ella cun la sia cua anschignusa ad incrediblameing lùnga sen igl sieus dies, avànt ca smanar an l'aria. La creatira nera cun alas dublas â persequito els cun grànda speartadad. </t>
+  </si>
+  <si>
+    <t>Igl Kayel â schlapato cun la lieunga durànt c'el â prieu la sia buis giou digl dies ad â aviert egn satget ca cuntaneva egna tschenta da muniziùn. El â palando la tschenta anturn igl pèz, mo â realiso speart ca la Nyssi, igl Thraki ad igl monster earan betga ple vasevels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Hei, Tenuk, savessas tei samidar an anzatge ca sa sgular?", â igl Kayel dumando. </t>
+  </si>
+  <si>
+    <t>"Ea, ad alura? Jou sund qua cun egna buis da vaglia aintamàn a savess immediat sagitar. Mo jou stuess natiral schon vaser el par saver tutgear el."</t>
+  </si>
+  <si>
+    <t>Igl Tenuk â targino, alura â el fatg in zap anavos par ver daple plaz. Cun egn bufatg grofel dalurus â igl tgierp digl Tenuk sastandieu a la lùnga, la sia palegna â samido an squamas a la sia bratscha an alas. El â samido speart an egn Thraki normal, cler blau, mo igls seas îls en restos cotschens.</t>
+  </si>
+  <si>
+    <t>Sco egn Thraki da cumparsa normala veva igl Tenuk ussa veras squamas par lùng digl sieus dies. Ad or digl sieus dies earan ear carschidas duas spegnas, quegl c'eara pratic, ascheia saveva igl Kayel sataner veda quellas. Igl e ieu ampo megna gî antocen c'igl Tenuk e vagnieu da partir, mo egn'eada c'el e sto an l'aria, â el s'oriento speart ad â antschiet a persequitar.</t>
+  </si>
+  <si>
+    <t>Igl Tuenuk ad igl Kayel ân realiso speart c'els earan betga sulets. Egna savunda creatira stgira e sagitada sut els an l'òlteztga ad igl Tenuk â savieu evitar egna colisiùn me par poc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Quegl e peia tschel monster gigantic sgarschantus, digl qual c'igl Lanex veva tema?" Igl Kayel â rabaglieu igl frùnt. El â ampruvo da sagitar sen la savunda bestga, mo â tutgieu dasperas ad â speart cargieu da nov. </t>
+  </si>
+  <si>
+    <t>Igl Tenuk â betga do rasposta. El eara megna ocupo cun saconzentrar segl sgol an direcziùn da la Nyssi a digl Thassalin, ear scha l'otra bestga persequitava els. Igl Kayel â savieult a moda malanschignevla par ver an îl igl monster. C'el persequitava els, eara pigl Kayel egn avantatg, ascheia saveva el prender miglier an mira el a sagitar. Dus culps ân tutgieu las alas sura da la bestga. Ella â brilo digl mal ad â sasbasso sut las plàntas. Igl Kayel eara betga siir, sch'ella persequiteschi ànc adigna els, mo ella vagneva siir betga da taner pass cun els.</t>
+  </si>
+  <si>
+    <t>Egn bùn toc avànt els sataneva la Nyssi cun desperasziùn a cun tuta forza, durànt c'igl Thassalin pitgeva anturn el a spidava flomas segl monster neraint. La creatira eara definitivameing blassada. Ella pareva d'easser nungetg ravgiantada, mo betga prùnta da dar luc. Las buras digl fiac parevan betga da ver igl efect giavischo. Cur c'igl Thassalin â sastandieu, â la Nyssi prieu la caschùn par prender naador la sia atgna arma, egna bùna, viglia flenta. Ear sch'ella eara betga fatga par tals intents, forza c'igls haghels savevan seglmains stamantar la bestga nera?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na, sco'gl pareva betga. La creatira â me sgnuflo ad â ampruvo da sgular directameing viers igl Thassalin. Par cletg eara igl Thassalin avunda agil, malgro la sia gràndeztga, ad e guntgieu, mo la Nyssi â scho mitschear egn sgregn, cura c'ella vess pigl ner d'egna ùngla pears la balàntscha sen las squamas megna glieschas digl Thassalin. </t>
+  </si>
+  <si>
+    <t>"CO SAVAGN NUS MAZAR ELLA?", â la Nyssi sgargnieu.</t>
+  </si>
+  <si>
+    <t>"VARDA SEN IGLS SEAS TGIEUS!"</t>
+  </si>
+  <si>
+    <t>"QUEGL VEAN AD EASSER GREAV!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl Thassalin â sburflo ad â alura tratg egn rudi, ple datier digl cualm c'el numnava igl sieus datgea. La bestga stgira e suandada, mo e vagnida leavameing an panica, cur c'egn radi da fiac â tutgieu ella da davos. Ella veva betga realiso c'ella eara betga ple suleta. Ella e vagnida ànc ple fetg an panica, cur c'igl Thassalin e vagnieu ple plàn ad â spurno la sia cùa ancùnter igl sieus tgieu a stumplo ella giou da la sia veia. </t>
+  </si>
+  <si>
+    <t>Marmugnànd a sburflànd e ella sgulada ansei ad â spido an l'aria. Cun egn'eada e tut vagnieu stgir, sco sch'igl monster tschitschess sei la glisch digl tschiel, ramplazànd ella cun egn nivel da notg parpetna.</t>
+  </si>
+  <si>
+    <t>Cur c'igl Thassalin â tutanegna vieu nut ple, â el ampruvo da saratrer. El â santieu sco c'el â sasgriflo ancùnter las crùnas da las plàntas, avànt c'el e la finala curdo an egn sclarieu. La bestga pareva da saver exactameing, noua c'igl Thassalin eara curdo ad e directameing ida an la sia direcziùn, ascheia c'ella â tratg cun igl nivel ner.</t>
+  </si>
+  <si>
+    <t>"Kayel!", â igl Tenuk sgargnieu, cur c'el e sglischieu or digl nivel ad â antschiet a far rudis, par catar ad agur agl stgir la Nyssi ad igl Thassalin. "Tge lainsa ear far ussa? Kayel …? Kayel, noua es?"</t>
+  </si>
+  <si>
+    <t>Sut e la Nyssi vagnida cun fadeia da star sen pes. Ella eara siira da ver rut anzatge, mo las sias curiusas forzas curativas surnaturalas antschavevan gea ad agir. Par igl Thassalin valeva quegl deplorablameing betga. El sapusava schino ancùnter la sula plànta c'eara betg'ida an paglia sut la sia pesa. La Nyssi â sado tuta bregia da s'avaschinar agl Thassalin, mo ella vaseva strusch daple ca dus meters avànt ella. Tut eara stgiraglia a zuglieu an umbrivas tamantàntas. Ad an quella umbriva crischleava a sgargneva anzatge.</t>
+  </si>
+  <si>
+    <t>Egna sgarschevla cùa cuirassada e sfarageada giou plàn sper la Nyssi ad â fiers anturn ella. Ella â dantànt santieu ca la cùa pitgeva me sco egna salvadia an tutas direcziùns, sainza ampruvar da tutgear ella. La bestga, quegl poc ca la Nyssi vaseva near udeva dad ella, grugneva ad ampruvava da puder tier cun las sias greflas las umbrivas c'ella veva creo. Anzatge e sagito tras la stgiraglia, furava igl monster ad iritava el.</t>
+  </si>
+  <si>
+    <t>Tutanegna e egn plùnt da la buis rampluno tras igl nivel ad igl monster e vagnieu silenzius, e crudo sen teara ad e resto là immovibel. La stgiraglia anturn els e scumparida ad els ân vieu tge c'eara schabagieu. Sen la bestga steva tut bufànt igl Kayel, ca taneva ainta màn la sia buis.</t>
+  </si>
+  <si>
+    <t>"Quegl e sto... igl sagl d'umbriva igl ple spectacular ca jou ve fatg... Thanto kat'olon…", â igl Kayel tgapo suainter aria. Igls seas îls earan ners ardaints ad egn'energeia stgira â anzuglieu igl sieus tgierp. Mo durànt c'el bagliafava ànc e la calur returnada an la sia armadira ad igls seas îls ân puspe survagnieu la calur melna usitada.</t>
+  </si>
+  <si>
+    <t>Igl e ieu egn mumaint antocen ca la Nyssi â capieu tge c'eara capito. Els savevan tuts c'igl Kayel dumagneava quellas forzas d'umbriva particularas. El nizageava darar ellas, parquegl c'ellas inquietavan a tamantavan igls blears. Mo la Nyssi veva betga savieu c'igl Kayel saveva duvrar quellas forzas ear an mintga sort da stgiradetgna. A sco igl Kayel sacumportava, pareva el ear dad easser detg sursto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"E tut an urden cun te?, â la Nyssi amparo sen quegl. </t>
+  </si>
+  <si>
+    <t>"Ea, cun me e tut ok. Jou ve mazo anzatge, igl e gest puspe tut bien." Igl Kayel â contemplo la sia ovra, durànt c'igl Tenuk e sgulo angiou, â satschanto sper el ad â samido puspe an sia furma normala da spast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ussa ca la bestga samuantava betga ple, pudevan els vaser miglier tgi c'igl eara. La sia peal eara nera sco la tschendra a gliescha, mo igl sgliem tatgeva ved'igl sieus tgierp. La creatira veva quater alas a quater extremitads ca fitavan tutas an greflas lùngas a sateglias, a duas cornas angulivas vargavan or da la sia tgavaza. </t>
+  </si>
+  <si>
+    <t>Avànt c'igl Tenuk ad igl Kayel san amparar, tge pigl giavel c'els ân qua avànt els, ân els udieu crischlagear anzatge a saglir or d'egna tgaglia vaschegna. Quella creatira e dantànt betga rivada tocen tier els, parquegl c'egn vehicel famigliar e saglieu da la vart aint ad ella, ascheia c'igl monster e schglischieu par lùng ad â safarmo avànt igls pes da la Nyssi. La Nyssi â lieu ristgear nut. Ella â tgapo la sia flenta, â sagito sainza partartgear sen la sia tgavaza a la creatira e stada morta agl liac.</t>
+  </si>
+  <si>
+    <t>"Ups…", â igl Retvik murmagnieu digl sez digl manischùnz anor, avànt c'el â mess giou malanschignusameing igl motor ad e vagnieu or digl camiùn. "Ehm, quegl ve jou atgnameing betga lieu. Es tut an urden cun vus tuts?"</t>
+  </si>
+  <si>
+    <t>"Tei â mancanto l'antira action", â igl Tenuk savilo. "Noua es tei ear sto?"</t>
+  </si>
+  <si>
+    <t>"Vus vez semplameing scho sulet me. Jou sund vagnieu aschi speart sco pussevel …", â igl Retvik suspiro. "Dastg jou dumandar tge oriblas bestgas ca quegl en?"</t>
+  </si>
+  <si>
+    <t>Par cletg â igl Thassalin c'eara puspe sto sen pes, savieu raspunder a l'amparada digl Retvik. El eara cuviert da tagls a sgrefels a pareva ampo turbelo, mo betga blasso megna greavameing.</t>
+  </si>
+  <si>
+    <t>"TEI ÂS MAZO IGLS CORUPTIDS! IGLS MONSTERS INFECTOS. CREATIRAS C'EN IDAS DAVENT DA QUA, CUR CA LA CORUPZIÙN Â ATATGIEU IGLS VOSS DIEUS."</t>
+  </si>
+  <si>
+    <t>"Tei manegias… l'oribla creatiradieus ca nus vagn… gido da mazar?", â igl Tenuk balbagieu.</t>
+  </si>
+  <si>
+    <t>"EA. EXACT QUELLA. FORZA DAT IGL ÀNC PLIRAS. MO JOU VE BETGA SAVIEU SAGITAR AD EL AGL TGIEU. JOU VE NIGN'ARMA DA FIAC. A DUS ANCÙNTER EGN E MALGEST, NEAR BETGA? Igl Thassalin e zopagieu tier igl Kayel ad â splunto sen igl sieus tgieu. "GRAZTGA FETG, PINTGET. TEI RAGORDAS ME AGL MIEUS VIGL AMITG ARKADIN. ME CA TEI ES BETGA ASCHI TERIBEL A BETGA ASCHI CAPAVEL DA MAZAR ANTIERS UNIVERS."</t>
+  </si>
+  <si>
+    <t>"Ehm … graztga … jou creg … â igl Kayel tratg las givealas. "Peia, eassan nus fitos qua?"</t>
+  </si>
+  <si>
+    <t>La Nyssi â ulzo las spatlas. Ella â tgapo la sia camera ad â fatg egn peer fotografeias da las bestgas c'earan ussa definitivameing mortas. Alura â ella prieu anavànt la sia arma preferida, igl stilet orno cun igl Dieus digls morts, ad â antschiet a rasgear giou egna da las cornas da la bestga. Suainter e ella ida tier la savunda. Gest cur ca  la Nyssi e stada fitada, en las bestgas cun egn'eada idas sei an flomas a samidadas an secundas an egn mantùn tschendra. Igl madem e schabagieu cun las cornas ca la Nyssi veva taglieu giou.</t>
+  </si>
+  <si>
+    <t>Also, quegl e ussa pratic a nunpratic an egna…, â la Nyssi suspiro. "Mo jou ve gea seglmains la fotografeias, sper jou."</t>
+  </si>
+  <si>
+    <t>Prolog</t>
+  </si>
+  <si>
+    <t>"Jou suplitgesch te!", â la rigegna Eirwen rugo, "betga tarmeta davent ella! Ella e ànc egn unfànt!" Igl retg digl sglatsch, assisto digl sieus cunzaglieader, â vurdo giou digl sieus tron sen la sia duna. Ella veva parturieu egna buaba. Partartgànd ve da quel, â la sia îglieada sastgirantada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La buaba samaglieva fetg a la sia mama. Ella veva îls blaus sblehs a tgavels alvs cun zoclas blauas. Agls îls digl retg digl sglatsch eara egna buaba egna flevleztga. La finala veva el antocen que mumaint schendro me fegls. </t>
+  </si>
+  <si>
+    <t>"Tei âs duas pussevladads: u ca tei mazas igl unfànt near ca tei tarmetas el an la cuntrada salvatga. Quegl e igl tieus castitg par la tia disgetga, Eirwen." El â spido or igl num, sco sch'el fuss tistganto. Quegl fageva el adigna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frostfell eara betga adigna sto egn reginavel unic. Ple bòld cunsisteva el da duas parts, digl nord a digl sid. Agl nord eara igl reginavel nunmagic, agl sid eara igl reginavel plagn pussànzas fantasticas. Mo parve da l'angurdientscha digl nord e'gl vagnieu tier egna gueara trànter igls reginavels ca leva mai fitar, antocen c'igl sid â a la fegn ofero egn armistezi. </t>
+  </si>
+  <si>
+    <t>La desperaziùn agl sid eara aschi grànda, ca la famiglia roiala e stada prùnta da far tut igl pussevel par meter egna fegn a que mazacrem sànguinus. Ella â fatg amogna da tarmeter la sia sula prinzessa sco rigegna agl nord, noua c'ella dueva parturir egn fegl, igl retg futur. An que cass s'uness igl nord cun igl sid an egn reginavel unic. Igl nord â aczepto la proposta a la prinzessa Eirwen â marido igl prenzi Akull.</t>
+  </si>
+  <si>
+    <t>"Jou suplitgesch Vus, igl mieus retg, faged tge ca Vus lez cun me, sarad aint me, bandischad me near mazad me, mo schinagead igl mieus unfànt", â la rigegna Eirwen rugo, cun igl unfànt agls màns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgl retg digl sglatsch â vurdo giou plagn disgust sen la sia rigegna. Forza, dantànt me forza, vegi el misaricorgia cun ella. Cun la duna, cun la quala el eara marido daple ca 22 ons, ca veva sustagnieu el agls seas tains igls ple teribels a ca veva schincagieu ad el igls seas fegls.  </t>
+  </si>
+  <si>
+    <t>"Bien, peia. Igl unfànt sa rastar agl palaz", â el getg, tge ca la rigegna â prieu par ancunaschientscha cun egn suspir. "Mo", â el aschunto, "tei veans executada."</t>
+  </si>
+  <si>
+    <t>Igl cunzaglieader digl retg a la rigegna Eirwen ân vurdo egn sen l'oter plagn schnavur. Plànsieu â ella sbasso la si'îglieada viers igl plantschieu. "Ea, igl mieus retg." Ella â fatg stgava.</t>
+  </si>
+  <si>
+    <t>Igl retg digl sglatsch â ordino agl sieus cunzaglieader dad ir cun la feglia da la rigegna an egna da las stànzas libras dad Eirwen. Senaquegl â el cumando a las guardias da manar la Eirwen sen la plaza d'execuziùn, noua ca tut igl pievel digl martgieu saveva vurdar tier.</t>
+  </si>
+  <si>
+    <t>Durànt ca las guardias ân escorto ella tier la plaza d'execuziùn, â la glieud sarevolto, cur c'ella â realiso c'ign leva mazar lur sula rigegna aschi careztgeada. Anzaquànts ân do is, oters sgargnevan ad atatgeavan las guardias. Puspe oters s'amparavan partge ca quegl stotgi capitar, mo tuts earan d'acord.</t>
+  </si>
+  <si>
+    <t>"Schad liber ella!"</t>
+  </si>
+  <si>
+    <t>"Partge fa ign quegl cun ella?"</t>
+  </si>
+  <si>
+    <t>Cur ca la Eirwen â s'avaschino agl pal da len, e la parsùna ple tamida an que reginavel cumparida. Igl darschader da fiac. La duna c'eara gest ànc stada rigegna, dueva vagnir arsada. Nign veva marito egna tala mort, gnànc delinquaints. Igl eara igl ple sgarschevel c'ign saveva far cun egn carstgàn a Frostfell.</t>
+  </si>
+  <si>
+    <t>La Eirwen e vegnida lieada ved igl pal da len ad igl retg â tanieu egn pled, declarànd ca la rigegna vegi tradieu els tuts. Las abitàntas ad igls abitànts da Frostfell ân refuso da crer quegl ad ân betga lieu aczeptar igls seas pleds. Sen quegl â igl darschader do fiac agl pal da len ad egna singula larma e rulada sur la fatscha da l'anteriura rigegna.</t>
+  </si>
+  <si>
+    <t>"Betga de sei, Kari." Quegl e sto la fegn da la regenza da la rigegna Eirwen.</t>
+  </si>
+  <si>
+    <t>Silenzi profund agl palaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suletameing egn spluntem or da la stànza igl ple saniester da l'ala agl sid digl palaz eternameing fred eara d'udir. Igls surviaints ca passavan, s'amparavan trasor tge ca segi an quella stànza. Els vevan tema da quegl. Trànter las fantschealas digl palaz nava la cureala. Ign raquintava ca la duna digl retg digl sglatsch, la Eirwen, segi an quella stànza a spetgi c'ign laschi vagnir or ella. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lur suposiziùn vess betga savieu easser ple sbaglieada, â la Ivory tartgieu ad e ida an direcziùn da l'ala agl sid, durànt ca las surviaintas ad igls surviaints navan anturn a scutinavan anzatge l'egn a l'oter. Els vevan nign'ideia tge ca sazupava davos igl esch. </t>
+  </si>
+  <si>
+    <t>Las curealas partutgeavan natiralmeing ear la Ivory, parquegl ca la Ivory eara la sula ca stgeva antrar an la stànza.</t>
+  </si>
+  <si>
+    <t>Splùnt, splùnt. "Lady Kari, es tei qua?", â la Ivory scusato avànt igl esch decoro artisticameing cun scrotas da nev ad egna crùna, igl simbol da la famiglia roiala.</t>
+  </si>
+  <si>
+    <t>La Ivory â s'amparo, sch'ella laschi quell'eada - oter ca tier la davos'amprova  - propi antrar. Jou ve ànc adigna nodas blauas da la davos'eada. La Ivory â cihargieu cun da partartgear landervei. La Kari veva fiers egn cudesch ancùnter igl givi da la Ivory, el â dantànt saparstgiso imediat, cur c'ella veva vieu tgi c'ella eara.</t>
+  </si>
+  <si>
+    <t>Egna singula splùntada e stada d'udir dad andavains, probablameing par gir c'ella segi là. Noua dueva ella ear easser?</t>
+  </si>
+  <si>
+    <t>"Dastg jou antrar?", â Ivory amparo. Ple bòld eara Ivory antrada sainza dumandar.</t>
+  </si>
+  <si>
+    <t>Dad andavains or e vagnieu egna splùntada. Quegl pareva da muntar  "ea". La fardaglia a la ramur ân fatg peal gagliegna a la Ivory. Igl eara curius d'udir egna ramur or d'egna stànza sco'gl para vida, schagea ca la Ivory nava gea davent da plirs ons an quella.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jou vignt aint", â la Ivory getg ad â plansieu aviert igl esch. La vesta ca sapreschantava cun vurdar an la stànza eara par carstgàns normals nunusitada, mo par la Ivory betga nunspitgeada. Dapartut vev'igl pulpier. Cudeschs earan sdrisos or, la mesa da scriver eara ruta a pliras sculpturas da sglatsch earan stearnas anturn. Igl deva nignas faneastras a poca antocen nigna glisch. Ad igl eara ple fred c'agl rest digl palaz (quegl ca geva gea blear). La stànza vaseva ora sco sch'egna malora vess fiers anturn tut. </t>
+  </si>
+  <si>
+    <t>La buaba eara rulada sen igl sieus litg, zuglieada agl tarbet, a ligeva an egn digls cudeschs da notiztgas. Egna pintga litearna sclareva la stànza.</t>
+  </si>
+  <si>
+    <t>"Tge cudeschet e quegl?", â la Ivory amparo ad e sasida segl litg sper la Kari.</t>
+  </si>
+  <si>
+    <t>Ella â sfiglieu tier egna pagina vida ad â nudo la data. Sutvei â ella scret „11-5-648 – 13-12-648“.</t>
+  </si>
+  <si>
+    <t>"Lez reviver viglias ragurdientschas?", â la Ivory amparo ad â vurdo sen igl vigl cudesch da notiztgas. La Kari â do digl tgieu. "Cres c'igl laschan vagnir or te da Nadal? Igl va gea me ple egn peer gis."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Kari â splunto duas geadas ved la litearna. "Na", sco la Ivory â suponieu. Igl retg digl sglatsch vagneva mena a schar vagnir or la Kari, parquegl c'ella eara egna "macla" par el. Ella e naschida surda a sco sula buaba an la sia famiglia, tut igls oters earan buabs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cun la Ivory ear'igl samagliànt. Cura c'ella veva do tier d'easser nunbinara, ear'igl ear sto sco sch'igl mund vess samido. Sco castitg par la sia diversitad veva la Ivory survagnieu leztgas c'ign fageva par grànda part an solitariadad. </t>
+  </si>
+  <si>
+    <t>A la Ivory e ear vagnida sfurzada da luvrar sco surviainta da la prinzessa. Mo quegl fageva betga or aschi blear a la Ivory, cunquegl c'ella â gea ear gudagnieu egn'amitga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tei âs prest natalezi, never?", â Ivory dumando, cura c'igl e vagnieu andamaint ca la prinzessa veva gi da naschientscha an egn peer gis. Kari â do igl tgieu cun egn tramblar trest an igls îls cler-blaus. </t>
+  </si>
+  <si>
+    <t>"Vol tei festivar igl tieus gi da naschientscha?", â la Ivory amparo, partartgànd ved la davos'eada ca la prinzessa veva do rasposta a quell'amparada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Na", â la Karin splunto. La Ivory saveva ca quegl eara egn greav tema par ella. Igl sieus natalezi eara igl gi c'ella eara vagnida sarada an la sia tgombra a la sia mama eara vagnida bandischada. La Ivory eara da que tains ànc egna popa, saragurdava dantànt quànt vilo c'igls surviaints a las abitàntas ad igls abitànts digl martgeiu earan stos. La Ivory veva udieu ca la Eirwen eara stada egna rigegna bagnvazida. A c'ella eara curiusameing ear apavla da pregir tgossas ca capitavan. </t>
+  </si>
+  <si>
+    <t>"Peia, tge vol tei far?", â Ivory dumando. Kari â vurdo tut agitada sen Ivory. Ella taneva agl màn egn toc pulpier. Sen quel savev ign liger:</t>
+  </si>
+  <si>
+    <t>lanziel 15 x 15</t>
+  </si>
+  <si>
+    <t>alva, diferaints tùns blaus</t>
+  </si>
+  <si>
+    <t>pinel an las sis diferaintas gràndeztgas</t>
+  </si>
+  <si>
+    <t>tgavalot</t>
+  </si>
+  <si>
+    <t>"Quellas tgossas dueg jou cumprar par te?", â la Ivory amparo a la prinzessa silenziusa ca spluntava aschi fetg ca las sias tartscholas balantschavan anvei ad annà. "Ea?" La Ivory â cihargieu dascus. La prinzessa c'eara schiglioc aschi reservada, mussava egn tal entusiassem. Igl eara l'amprem'eada c'ella â amparo par anzatge ca veva da far nut cun cudeschs a c'eara ordainfer sia tgombra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Okay! Nus savasagn ple tard?", â la Ivory amparo, e stada sen pes ad e scarpitscheada tras igl caos da pulpier a cudeschets. </t>
+  </si>
+  <si>
+    <t>La Kari â do digl tgieu, â puspe savieult viers las sias notiztgas ad â sazuglieu agl sieus tarbet.</t>
+  </si>
+  <si>
+    <t>La Ivory â banduno la stànza, leavgeada ca la prinzessa e finalmeing vagnida or da la sia zona da cunfort ad â amparo par tgossas or digl agen radius d'acziùn, sco calurs da malagear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Ivory e puspe ida tras igls zulers ad â ampruvo d'ignorar igl scutinem da las surviaintas. </t>
+  </si>
+  <si>
+    <t>"Jou ve udieu ca la rigegna Eirwen vegi prieu possess dad ella a c'ella va parquegl adigna puspe an quella stànza."</t>
+  </si>
+  <si>
+    <t>"Jou ve udieu c'ella magli unfànts an quella stànza."</t>
+  </si>
+  <si>
+    <t>"Ella veza or sco egn um, quegl e bagn betga normal?"</t>
+  </si>
+  <si>
+    <t>La Ivory â tanieu las ureglias, parquegl c'ella saveva betga semplameing ignorar igl batarlem, ad e ida anavànt. La tgombra digl pictur digl retg sacatava an l'ala agl ost davos igl savund esch da la vart saniestra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Ivory â s'avaschino agl esch c'eara orno aschi artisticameing sco quel da la Kari. Quel mussava egn dragùn alv, egn digls dragùns primars, sco ign geva , c'igl Frostfell vegi creo. Par egn pictur passiuno d'istorgia fageva igl dragùn alv tutaveia sen. </t>
+  </si>
+  <si>
+    <t>La Ivory â aviert igl esch, spitgànd igl caos usito. Tatgs da calur dapartut, egn pinel ad igl pulpier starnieu an l'antiera stànza, tgavalots ca cuvrevan mintga zentimeter da la pare. Nunspitgeadameing â dantànt sapreschanto tut egn'otra vesta ad ella. La stànza eara schubra, ad egna sutga eara avànt igl fùns cotschen da valé. Sen la sutga saseva igl prenzi irtavel Aquilo ca vagneva gest portreto.</t>
+  </si>
+  <si>
+    <t>"Bun gi, Ivory! Vol tei vurdar sco igl tieus retg futur vean portreto?", â igl Aquilo amparo ad â tschignieu viers la Ivory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jou stund mal, pintg prenzi" â la Ivory getg, â ignoro el par grànda part ad â ancuretg las tgossas ca la prinzessa silenziusa leva. "Jou sund me qua par vagnir par igl urden da malagear." </t>
+  </si>
+  <si>
+    <t>"La mia buabeta less schon puspe ir?", â igl Aquilo amparo. "Mo jou vi ca tei stetias qua!"</t>
+  </si>
+  <si>
+    <t>"Mo jou betga." La Ivory â cato igl urden da malagear da la glista ad â mess tut an la cesta. "A jou sund betga egna buabeta."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl prenzi eara dantànt d'egn oter meni. "Ah, la mia tgeara, quegl e me egna fasa! Cun la vigliadetgna crescha quegl or!", â el sburbato. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jou sto ir", â la Ivory getg a sasanteva mal da la rasposta digl prenzi. Alura en vagnidas andamaint a la Ivory tut las noschas remartgas c'el ad oters vevan fatg agl passo parve da l'identitad sexuala da la Ivory. Jou vi semplameing svanir da qua. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tei vas schon?" Tutanegna e igl prenzi cumparieu sen igl esch, ignorànd las protestas digl pictur digl retg. </t>
+  </si>
+  <si>
+    <t>"Quegl e betga egn bùn cumportamaint par egn retg futur!", â la Ivory getg.</t>
+  </si>
+  <si>
+    <t>"Nign vean a vagnir sessur. La glieud vean betga a crer a tgei ad igl pictur vean a tascher quieu scha la sia veta vala anzatge ad el. El â do egna curta îglieada agl pictur ad e alura sasgubo ple datier a la Ivory. "Tge manegias d'egn date?" La Ivory eara gea vagnida mulastada pliras geadas agl passo, dantànt mena d'egn prenzi, nungetg d'egn prenzi irtavel.</t>
+  </si>
+  <si>
+    <t>"Sas tei atgnameing tge c'igl pled 'na' vut gir?", â la Ivory managieu ad â stumplo davent igl prenzi irtavel.</t>
+  </si>
+  <si>
+    <t>"Na", â igl Aquilo raspundieu cun egn surrir. Natiralmeing sa igl prenzi irtavel, ca survean tut quegl c'el vut, betga tge c'igl pled 'na' vut gir.</t>
+  </si>
+  <si>
+    <t>La Ivory â strubagieu igls îls. "Partge vol tei gest ver egn date cun anzatgi sco me? Tei âs siir anturn 100 aduraturas?"</t>
+  </si>
+  <si>
+    <t>"Efectivameing e'gl 50", â el interrut la Ivory, ànc adigna cun egn rir. El â fiers anavos igls seas tgavels c'ân fatg turnicels an l'aria freda.</t>
+  </si>
+  <si>
+    <t>"Ussa capesch jou egl finalmeing! Partge gest jou? Jou sund egn prievel pigl palaz." La Ivory â mess an crusch la bratscha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Tei es la ple beala buaba c'jou ve vieu anzacuras." Igl Aquilo â ulzo cun egn det igl mantùn da la Ivory ad â sfurzo ella da vurdar sen el. </t>
+  </si>
+  <si>
+    <t>Capetel 1</t>
+  </si>
+  <si>
+    <t>Cohren</t>
+  </si>
+  <si>
+    <t>0430 tains d'Itania. Cohren odiava da sadastar aschi bòld. El odiava quegl surtut, parquegl c'el eara raspunsavel da dasdar tut igls oters da la sia cumpagneia. Bufatg e el lavo sei da la sia cutscha, â tratg aint la sia mondura da cumbat, â mess anturn igl sieus bastuir da protecziùn ad â prieu igl sieus urden or da la stgafa, durànt c'el nava anturn tut precaut cun egna cisteta particulara. El â prieu la sia buis sen igl givi ad â palando la sia tgaplegna ved egn crutschet da la sia tschenta. Veda quella palandava tut quegl c'el duvrava, sco igl sieus raspiratur near igls seas spieghels spezials. Suainter ver controlo las sias tastgas da muniziùn, â el banduno tut dascus la baraca. Ordafora sgriztgeavan la buglia ad igl sglatsch sut igls seas stivals.</t>
+  </si>
+  <si>
+    <t>El â prieu egn batafiac ord egna tastga da sia giaca ad egna zigareta ord l'otra. El â anvido ella a do egna curta tratga, avànt c'el â aviert leavet igl esch. L'eanda passada veva el stuieu easser creativ par svagliear igls umens a las dunas c'earan sutamess ad el. El veva calo da duvrar igl alarm digl svagliaregn preselecziùno, parquegl quel funcziunava par igl solit semplameing betg ad igl sulet ca vagneva ord igls òltplidaders eara egn leav schuschurar.</t>
+  </si>
+  <si>
+    <t>"Dasdas Vus els?" Igl Cohren â savieult ad â vieu s'avaschinar igl litinent Nemic.</t>
+  </si>
+  <si>
+    <t>"Ea", â igl Cohren raspundieu.</t>
+  </si>
+  <si>
+    <t>"Cun tge vulez Vus ampruvar quell'eada?"</t>
+  </si>
+  <si>
+    <t>Avànt c'el saveva raspunder e igl esch ieu aviert ad igl Harris, igl Craith ad egn peer oters en vagnieus ancùnter ad el an mondura cumplagna.</t>
+  </si>
+  <si>
+    <t>"Bun gi", â igl Craith getg.</t>
+  </si>
+  <si>
+    <t>"Tge â dasto Vus?" â igl Cohren amparo.</t>
+  </si>
+  <si>
+    <t>"Also, par l'egna vagn nus betga gieu gust da spitgear sen quegl ca Vus schez puspe dar igl tgieu. A par l'otra astgan las trupas d'atatga ca leavan sco amprem, ancurir or la raziùn da la damàn", â egn digls umens raspundieu, igl Ravik. "A Vus savez gea quànt teribel c'igl damagliear sa easser."</t>
+  </si>
+  <si>
+    <t>"Quegl e egn bùn punct, premsergent", â igl Cohren getg. El e ieu aint cugl màn ad â struclo egn interruptur. Egn alarm fearm a git â resuno an las baracas. Andavains â el udieu egn schlamar dascus a glieud ca cureva anturn.</t>
+  </si>
+  <si>
+    <t>"Pigl giavel, Valturi", â igl Nemic getg. "Ign pudess crer c'els vessan dantànt amprieu da vagnir aleart igl madem mumaint sco Vus."</t>
+  </si>
+  <si>
+    <t>"Mobagn, la mia glieud digl tgomp da trenamaint â amprieu egl", â igl Cohren replitgieu a musso segl Harris, igl Craith ad igl Ravik. "Igls manaders da trupa a da secziùn san dantànt ear c'els ston lavar avànt lur unitads."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secundas ple tard vean igl rest da la cumpagneia naador. Els vevan cun els tut quegl c'els duvravan, da las tgossas parsunalas antocen igl equipamaint nezessari. Anzaquànts digls recruts ple novs parevan cunfus, oters pletost vilos. </t>
+  </si>
+  <si>
+    <t>"Bun gi", â igl Cohren getg da bùna luna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cun tut respect, sir, partge stuez Vus clamar nus an quella moda?", â egn premsergent da las trupas d'atatga amparo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Parquegl c'igls alarms regulars valan egna mearda a parquegl ca Daybreak dorma betga giou", â igl Cohren getg. </t>
+  </si>
+  <si>
+    <t>"Tgapad tut las Vossas tgossas parsunalas", â igl Cohren cuntinuo. Sco colonel litinent ad ufizier executiv da la cumpagneia veva el la raspunsabladad da survagliear a sustaner els anzemel cun igl manader da la cumpagneia, capitani Boradin Shaw. "Nus returnagn betga ple qua. Premsergents a litinents, Vus a Vossas trupas vez 15 minutas par far las davosas controlas a pacatar las raziùns dad oz."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igls cumembers da la cumpagneia Exodus ân sparpaglieu speart. Els fagevan part da la savunda divisiùn da trupas d'atatga, savunda armada. Avànt ca vagnir reunidas earan ellas stadas duas cumpagneias separadas, Cohort a Dagger. La cumpagneia eara dividida, a quegl eara la raschùn prinzipala partge c'igl Cohren veva santimaints maschados an vesta da la sia promoziùn agl premlitinent. </t>
+  </si>
+  <si>
+    <t>Igl Cohren ad igl Nemic, igl manader da l'amprema secziùn, tgaminavan l'egn sper l'oter an la glisch da las numerusas cazolas alimantadas da generaturs da la basa d'acziùn avanzada. La grànda part veva veder caluro cotschen ca gidava da sazupar digls bumbardaders anamitgs. Par cumbater els veva Daybreak recurieu ad atatgas da Wild Weasel ord l'aria a davent digl taragn.</t>
+  </si>
+  <si>
+    <t>"Egn nov gi ad egna nova leztga par igls topcumbatànts infernals", â igl Nemic getg cun egn rir schetg. "Noua tarmetan els nus?"</t>
+  </si>
+  <si>
+    <t>"Egna basa d'acziùn avanzada ordainfer Ianlos. Nus vagnagn a sustaner l'atatga segl taragn", â igl Cohren raspundieu ad â tratg ved la sia zigareta. El deva egna part da la cualpa agl Craith c'el veva antschiet a fimar, mo egn on an cumbat fageva blear cun ign, parquegl â el getg nut.</t>
+  </si>
+  <si>
+    <t>"Mearda. A la front vean igl adigna mender", â igl Nemic murmagnieu. "Tut las novitads tùnan: "Sustaned las staintas da gueara. Tarmated agid a la front da Kurgan." Co fuss igl cun agid a la front da Howland?"</t>
+  </si>
+  <si>
+    <t>"Amen, frar", â igl Cohren getg ad â fiers igls rests da la sia zigareta an la glieta. "Seglmains partagn nus cun l'amprema secziùn armada a stuagn betga marschar. Igl Capitani Shaw duess schon easser là."</t>
+  </si>
+  <si>
+    <t>" Â igl Shaw organiso egna pussevladad da sear?", â igl Nemic amparo ampo sursto.</t>
+  </si>
+  <si>
+    <t>"Ea. Par gir la vardad e el betga aschi mal sco c'jou ve tartgieu. Betga gest genial, mo ign sa taner or egl cun el."</t>
+  </si>
+  <si>
+    <t>Igl Cohren â tanieu igl polesch ad igl det-mussader ved igl sieus microfon da la gula ad â ulzo segl dies igl sieus satgcadoss. "Tut las unitads da la cumpagneia Exodus s'antopan tier igl parc da vehicels West, cur c'ellas en fitadas. Nus partagn cun l'amprema secziùn armada a las 0500."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agl ritmus da secundas survagneva el rasposta digls manaders da trupa. Igl Harris, igl Craith ad igl Ravik earan sutufiziers da rang inferiur, cur c'els en arivos qua. Tuts quater dad els earan davent da lur return sen teara stretgs amitgs. Igl Cohren veva igl santimaint d'ancanuscher els gea da gî, malgro c'igl eara segl ple dus ons. Els earan manaders da trupa, mo igl Craith manava davent d'egn'eanda la savunda secziùn, parquegl c'ign veva relascho igl manader prezedaint par motivs medizinals, suainter c'el eara vagnieu tutgieu d'egn tiradur d'elita da Daybreak. </t>
+  </si>
+  <si>
+    <t>Sen veia tier igl parc da vehicels e egna grupa da ver otg panzers da cumbat Kronos a quater panzers da grenadiers do an îl agl Cohren ad agl Nemic. Lur squadra nava anturn e procurava ca lur maschinas segian prùntas par l'acziùn. Speart â igl Cohren cato ad agur igl capitani Boradin Shaw ca bagliafava cun igl cumandànt da la secziùn armada. Cur c'els en vagnieus ple datier, â Shaw vurdo vei sen els ad e s'avaschino, sco adigna cun egna fatscha sainza emoziùns.</t>
+  </si>
+  <si>
+    <t>"Litinent Nemic… litinent Valturi…" El â getg c'igl Cohren segi ple plàn, durànt c'el â do egn'îglieada sen igl etui da pistolas ad alura puspe ansei. "Jou supon ca la cumpagneia segi samtgeada?"</t>
+  </si>
+  <si>
+    <t>"Geabagn, signur capitani. Els duessan dantànt easser sen veia, els ân ànc gieu tains dad ir an la cantina par lur raziùns. Exact a las 0500 â la cumpagneia Exodus sarimno tier igl parc da vehicels. Igl Shaw e saragato sen egna cista ad â antschiet a bagliafar.</t>
+  </si>
+  <si>
+    <t>"Nus vagnagn transferos tier la basa d'acziùn avanzada I-131, tschuncànta miglias ordainfer Ianlos. La nossa leztga e'gl da sustaner l'ocupaziùn permanenta a l'ulteriura atatga sen Ianlos par scatschar igls rebels. Là vagnagn nus ad andrizar egna basa agl pe da las muntognas", â igl Shaw declaro. "Marschad tier las vossas trupas ad aszanded igls vehicels."</t>
+  </si>
+  <si>
+    <t>La cumpagneia â schlieu sei an direcziùn da las trupas respectivas ad igls schuldos en vagnieus repartgieus digls premsergents sen igls panzers. Igl Igl Cohren â aszandieu egn digls panzers ple davànttier agl convoi, noua c'el e vagnieu anzemel cugl Nemic, cugl Craith a dus recruts novs. Igl Cohren â saragurdo da l'arivada dad els dus avànt egn peer gis, saveva dantànt me poc dad els. El saseva da la vart a scheva palandar las sias tgombas, durànt c'el â preparo igl sieus satgcadoss ad igl func c'eara culiieu cun igls seas uregliers a cun igl microfon da la gula.</t>
+  </si>
+  <si>
+    <t>"Hey Cohren, e igl Snowball ànc adigna tier igl Harris?", â igl Nemic amparo, suainter c'els earan s'andrizos.</t>
+  </si>
+  <si>
+    <t>"Manegias tei igl cot c'el â angulo?" Igl Cohren â saragurdo da la damàn, cur c'els ân angulo igl animal d'egn bagn puril. "Ea, jou creg schon."</t>
+  </si>
+  <si>
+    <t>Igl Cohren â do egn'îglieada sen egn digls oters panzers ad â scurvato igl Harris cun la sia trupa. Or digl ànghel digls îls â el vieu igl movimaint d'egn pintg cot c'â trasor giro igl tgieu par duncrir la cuntrada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ea, el e ànc tier el, â igl Cohren raspundieu, cur c'igl fanastregl digl panzer â s'aviert ad igl cumandànt e cumparieu. </t>
+  </si>
+  <si>
+    <t>"Tut igls panzers saspostan", â igl cumandànt getg cun vusch plàna a calma agl sieus headset. Igls motors da la secziùn da panzers da cumbat a digl tip Stryker ân fatg egn fracass, cur c'els ân samess an movimaint. Igl panzer digl tip Kronos, sen igl qual igl Cohren saseva, â tramblo, cur c'igl fragn e vagnieu distatgieu ad els ân samess an retscha. Igls panzers ân samuanto an egna furmaziùn da cugn sur la plànira d'Itania. Las burastgas d'unviern earan las palés schaladas ad igls gòlds nevantos, a tutegna eara la glieta omnipreschainta.</t>
+  </si>
+  <si>
+    <t>Suainter var egn'ura â egn digls recruts, igl Cohren saragurdava c'el veva num Orson, antschiet a bagliafar. "Litinent, Vus eassas qua davent l'antscheata da la gueara, never?"</t>
+  </si>
+  <si>
+    <t>"Ea, operaziùn Firestorm", â igl Cohren raspundieu. "Nus vagn tartgieu ca quegl vigni ad easser a fegn an egn peer eandas, mo nus vagn sutvalito els."</t>
+  </si>
+  <si>
+    <t>"Sutvalito e cumpletameing sutexagero", â igl Nemic samaschado agl dascurs. "Nus eassan betga stos preparos sen lur arsenal d'armas a la massa da schuldada. Els ân destruieu las ampremas duas eandas igls UFS Revenant a peer igl mains passo igls Erebus. Nus duessen schizund vaser els sen nossa ruta."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Jou stund fearm da la vart da la federaziùn", â igl Orson getg cun tùn stino. "Jou salasch betga tamantar da quels terorists." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Quegl gis tei ussa. Mo jou ve vieu c'igls blears recruts da schotg ons sco tei van speart davos noda, cur c'els odan egn siet", â igl Craith declaro. </t>
+  </si>
+  <si>
+    <t>"Quegl vagnagn nus gea a vaser", â igl Cohren getg riànd. Igl Orson â betga cuntinuo la cunversaziùn.</t>
+  </si>
+  <si>
+    <t>"Exodus XO, Exodus CO", â igl func digl Cohren sguscho. "Nus ratschavagn signaturas da calira, bien 300 meters davent da nus, 20 grads a dretg."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igl Cohren â satratg sei digl panzer ad â mess sei igls seas igliers spezials. Cura c'el â tschanto anturn sen "maletg termic", â el savieu identifitgear las signaturas agl lontan.  </t>
+  </si>
+  <si>
+    <t>"Ea, jou vez ellas", â igl Cohren raspundieu sur igl sieus microfon da la gula.</t>
+  </si>
+  <si>
+    <t>"En ellas anamitgas?", â l'otra recruta amparo, la Natayla.</t>
+  </si>
+  <si>
+    <t>"Se jou betga gir", â igl Cohren raspundieu. El â tanieu igl màn ved igl sieus microfon ad â getg: "Cumpagneia Exodus, sagitar peer cur ca nus vagnagn atatgieus. Carmalagn naador ellas."</t>
+  </si>
+  <si>
+    <t>Cura c'els ân s'avaschino, en las signaturas da calira samidadas da puncts an furmas ple definiblas. Cur c'els en vagnieus ànc ple datier, e egna dad ellas curida par anzatge. Imediat e ella turnada tier egn pintg bot, noua ca las otras earan. Las siluetas ân samess gio bass, an posiziùn da sagitar.</t>
+  </si>
+  <si>
+    <t>"Nus vagn contact cugl anamitg", â igl Shaw clamo sur func, cur ca buras oranschas en vagnidas sagitadas an l'aria davent digl bot. Durànt c'igls panzers vagnevan bumbardos, en las trupas d'atatga saglidas giou ad idas davos noda. Egna raceta e filada sperasvei a satschantada davos la furmaziùn agl taragn, e explodada ad â squitro glera a grava sen egn digls panzers. Egn'otra â satschanto a la vart d'egn Stryker, egn Cerberus APS, ad e explodada. La squadra e saragatada naador speart ad ida davos noda, cura ca la muniziùn e ida an l'aria.</t>
+  </si>
+  <si>
+    <t>"Iron 1-2 a 1-3, 25 grads a dretg, 300 meters. Earver igl fiac", â igl cumandànt digl tren armo sgargnieu sur func. Iron 1-2 a 1-3 ân aviert igl fiac, granatas en sguladas an direcziùn digl bot ad explodadas, capitulànd an l'aria buglia a glera.</t>
+  </si>
+  <si>
+    <t>"Tarmated igls Sentis", â igl Knoxx clamo, ca observava igl bot cun egn perspectiv. La porta davos d'egn Cerberus â s'aviert ad egn schuldo sainza armas ca purtava egn headset spezial e cumparieu. El â clamo cumonds an egn microfon quadrat a dus Sentis, ca vevan num ufizialmeing Sentinels, en saglieus naador. Els ân prieu anavànt lur bratscha a tgombas sateglias da metal, sapreparànd par egn sprint. Els purtavan lur armas sen igl dies.</t>
+  </si>
+  <si>
+    <t>"Mazar near arestar?", â igl Craith amparo, durànt c'els observavan els.</t>
+  </si>
+  <si>
+    <t>"Veza or sco egn'arestaziùn", â igl Cohren suponieu, cur c'igls dus Sentinels en svanieus an igls nivels da tschendra a fem. Digl bot ân ign udieu sgregns a siets, mo quels en speart vagnieus met. Curt ple tard en igls dus Sentinels returnos a targevan anzatgi davos els, digl qual igls stivals schevan anavos fastez segl taratsch. Suainter easser anavos an la protecziùn da lur secziùn, ân els fiers la figura gio bass. Ella â schamieu digl mal, cur c'ella â satschanto dirameing an la glieta a nev.</t>
+  </si>
+  <si>
+    <t>Igl Shaw â s'avaschino a la figura c'ampruava gest da star sei. Alura â el savieult viers egn digls Sentinels. "Quànts?"</t>
+  </si>
+  <si>
+    <t>"Tres morts, sir", â igl Sentinel raspundieu. "Igl rest e fugieu a pe."</t>
+  </si>
+  <si>
+    <t>Igl Shaw â do igl tgieu ad â samano viers igl Cohren ad igl Craith ca stevan datier dad el. "Fagessas vus aschi bagn a deliberassas me da que tip?"</t>
   </si>
 </sst>
 </file>
@@ -2338,16 +3299,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A159"/>
+  <dimension ref="A1:A167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -2358,300 +3319,765 @@
     <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>583</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>584</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>585</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>586</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>587</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>588</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="192" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>589</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>590</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>591</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>592</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>594</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>595</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>596</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>597</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>599</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>600</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>601</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>602</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>603</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>604</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="224" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>605</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>606</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="192" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>607</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>608</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>609</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>610</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>611</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>612</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>613</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>614</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>615</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>616</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>617</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>618</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>619</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>620</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>621</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>622</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="192" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>623</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="176" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>624</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>625</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>627</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>628</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>630</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>631</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>633</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>634</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>635</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>636</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>637</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="192" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="240" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2662,13 +4088,13 @@
   <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="A1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -2684,2495 +4110,2500 @@
     </row>
     <row r="4" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>503</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>504</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>505</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>508</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>26</v>
+      <c r="A37" s="4" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>27</v>
+      <c r="A38" s="4" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>32</v>
+      <c r="A44" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>33</v>
+      <c r="A45" s="4" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>44</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>45</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>509</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>510</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>511</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="70" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>582</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="94" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>586</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>587</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>588</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>589</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>118</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="115" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>140</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>143</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>596</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>597</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>599</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="154" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>164</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>169</v>
+        <v>601</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="163" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>179</v>
+        <v>602</v>
       </c>
     </row>
     <row r="171" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>191</v>
+        <v>603</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>194</v>
+        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>196</v>
+        <v>605</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>197</v>
+        <v>606</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>200</v>
+        <v>607</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>201</v>
+        <v>608</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>202</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>208</v>
+        <v>610</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>210</v>
+        <v>611</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>218</v>
+        <v>612</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>226</v>
+        <v>613</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>231</v>
+        <v>614</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>234</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>239</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>240</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>247</v>
+        <v>618</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>249</v>
+        <v>619</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>253</v>
+        <v>620</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
     </row>
     <row r="256" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="257" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
     </row>
     <row r="265" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>276</v>
+        <v>621</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>277</v>
+        <v>622</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>281</v>
+        <v>623</v>
       </c>
     </row>
     <row r="277" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="278" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
     </row>
     <row r="286" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="287" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>290</v>
+        <v>624</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>292</v>
+        <v>625</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>297</v>
+        <v>626</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>301</v>
+        <v>627</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
     </row>
     <row r="306" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="307" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>316</v>
+        <v>245</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>320</v>
+        <v>249</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>324</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>325</v>
+        <v>629</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>327</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
     </row>
     <row r="324" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="325" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
     </row>
     <row r="331" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="332" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
     </row>
     <row r="337" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="338" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>342</v>
+        <v>631</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>343</v>
+        <v>268</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>344</v>
+        <v>632</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>346</v>
+        <v>633</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A347" s="4" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
     </row>
     <row r="350" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="351" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>354</v>
+        <v>277</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>355</v>
+        <v>278</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>356</v>
+        <v>279</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>357</v>
+        <v>280</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>358</v>
+        <v>281</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>360</v>
+        <v>634</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>362</v>
+        <v>284</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>363</v>
+        <v>285</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>364</v>
+        <v>635</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>365</v>
+        <v>636</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>366</v>
+        <v>637</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>380</v>
+        <v>638</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>381</v>
+        <v>299</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>382</v>
+        <v>639</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>388</v>
+        <v>305</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>395</v>
+        <v>640</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>396</v>
+        <v>312</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>397</v>
+        <v>313</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>398</v>
+        <v>641</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>399</v>
+        <v>314</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>400</v>
+        <v>315</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>403</v>
+        <v>642</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>404</v>
+        <v>318</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>406</v>
+        <v>643</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
     </row>
     <row r="424" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="425" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>433</v>
+        <v>340</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>435</v>
+        <v>342</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>436</v>
+        <v>343</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>437</v>
+        <v>344</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>438</v>
+        <v>345</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>439</v>
+        <v>346</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>440</v>
+        <v>347</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
-        <v>441</v>
+        <v>644</v>
       </c>
     </row>
     <row r="437" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="438" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>444</v>
+        <v>645</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
-        <v>446</v>
+        <v>351</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
-        <v>447</v>
+        <v>646</v>
       </c>
     </row>
     <row r="444" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="445" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>448</v>
+        <v>352</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>76</v>
+        <v>647</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>449</v>
+        <v>353</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>450</v>
+        <v>354</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>451</v>
+        <v>355</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>452</v>
+        <v>356</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>453</v>
+        <v>357</v>
       </c>
     </row>
     <row r="459" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="460" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>454</v>
+        <v>358</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>455</v>
+        <v>648</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>456</v>
+        <v>359</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>457</v>
+        <v>649</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>458</v>
+        <v>650</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>459</v>
+        <v>360</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
     </row>
     <row r="468" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="469" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>461</v>
+        <v>651</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>464</v>
+        <v>364</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>465</v>
+        <v>365</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>502</v>
+        <v>395</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>470</v>
+        <v>652</v>
       </c>
     </row>
     <row r="481" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="482" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>471</v>
+        <v>370</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>472</v>
+        <v>653</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>474</v>
+        <v>372</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>476</v>
+        <v>374</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>477</v>
+        <v>375</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>478</v>
+        <v>376</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>479</v>
+        <v>377</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>480</v>
+        <v>378</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>481</v>
+        <v>379</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>482</v>
+        <v>380</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>483</v>
+        <v>654</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>485</v>
+        <v>382</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>486</v>
+        <v>655</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>488</v>
+        <v>384</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>490</v>
+        <v>656</v>
       </c>
     </row>
     <row r="502" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="503" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>495</v>
+        <v>390</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>496</v>
+        <v>657</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>497</v>
+        <v>391</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>498</v>
+        <v>392</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>499</v>
+        <v>658</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>500</v>
+        <v>393</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A513" s="4" t="s">
-        <v>501</v>
+        <v>394</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A516" s="2" t="s">
-        <v>85</v>
+      <c r="A516" s="4" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A518" s="2" t="s">
-        <v>87</v>
+      <c r="A518" s="4" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A519" s="2" t="s">
-        <v>88</v>
+      <c r="A519" s="4" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>89</v>
+        <v>662</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A521" s="2" t="s">
-        <v>90</v>
+      <c r="A521" s="4" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="522" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="523" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>93</v>
+        <v>664</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A528" s="2" t="s">
-        <v>96</v>
+      <c r="A528" s="4" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A529" s="2" t="s">
-        <v>97</v>
+      <c r="A529" s="4" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -5182,16 +6613,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A222"/>
+  <dimension ref="A1:A223"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="A1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5202,314 +6633,669 @@
     <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>309</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>312</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>313</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>421</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>422</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>423</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>425</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>426</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>427</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>428</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>429</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>430</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>432</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>512</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>513</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>515</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
     <row r="52" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>516</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>517</v>
+        <v>682</v>
       </c>
     </row>
     <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>518</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>519</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>521</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>522</v>
+        <v>684</v>
       </c>
     </row>
     <row r="66" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>523</v>
+        <v>685</v>
       </c>
     </row>
     <row r="68" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>524</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>525</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="73" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>526</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>527</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>528</v>
+        <v>688</v>
       </c>
     </row>
     <row r="78" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>529</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>530</v>
+        <v>690</v>
       </c>
     </row>
     <row r="82" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
     <row r="86" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
     <row r="88" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
     <row r="90" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
     <row r="92" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
     <row r="94" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
     <row r="96" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" spans="1:1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5517,16 +7303,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A187"/>
+  <dimension ref="A1:A215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="A1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -5537,266 +7323,1041 @@
     <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>532</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>533</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>534</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>535</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>536</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="176" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>537</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>538</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>540</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>541</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="160" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>542</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>544</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>545</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>546</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>547</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>548</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="208" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>549</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>550</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>551</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="176" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>552</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>553</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>554</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>555</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>556</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>557</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>558</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>559</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>560</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>561</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>563</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>564</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>565</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>566</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>567</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="96" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>570</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>572</v>
+        <v>797</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>573</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>574</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>575</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>576</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>577</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>578</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>579</v>
+        <v>800</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>580</v>
+        <v>801</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="112" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>582</v>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="57" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="128" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
